--- a/Reports/SAOCOM1A_transmitterTF.xlsx
+++ b/Reports/SAOCOM1A_transmitterTF.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.5067786677789</v>
+        <v>-43.37190236260432</v>
       </c>
       <c r="C2">
-        <v>21.46557884121965</v>
+        <v>-46.38220231924413</v>
       </c>
       <c r="D2">
-        <v>4.338241195123048e-29</v>
+        <v>0.332137632550492</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>34.6212565363352</v>
+        <v>-42.3572859496926</v>
       </c>
       <c r="C3">
-        <v>22.58005670977595</v>
+        <v>-45.36758590633242</v>
       </c>
       <c r="D3">
-        <v>1e-30</v>
+        <v>0.3319894766694718</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35.83825095263113</v>
+        <v>-41.30870900704916</v>
       </c>
       <c r="C4">
-        <v>23.79705112607188</v>
+        <v>-44.31900896368897</v>
       </c>
       <c r="D4">
-        <v>1e-30</v>
+        <v>0.3318170467517811</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.09702737292398</v>
+        <v>-40.31036196426945</v>
       </c>
       <c r="C5">
-        <v>25.05582754636474</v>
+        <v>-43.32066192090926</v>
       </c>
       <c r="D5">
-        <v>1e-30</v>
+        <v>0.3316323579215171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>38.28228554436171</v>
+        <v>-39.48991736077457</v>
       </c>
       <c r="C6">
-        <v>26.24108571780246</v>
+        <v>-42.50021731741437</v>
       </c>
       <c r="D6">
-        <v>1e-30</v>
+        <v>0.3314638583828663</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>39.16822408242315</v>
+        <v>-39.01867429855445</v>
       </c>
       <c r="C7">
-        <v>27.1270242558639</v>
+        <v>-42.02897425519427</v>
       </c>
       <c r="D7">
-        <v>1e-30</v>
+        <v>0.3313596321862144</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>39.46868820560121</v>
+        <v>-39.03165186640971</v>
       </c>
       <c r="C8">
-        <v>27.42748837904196</v>
+        <v>-42.04195182304952</v>
       </c>
       <c r="D8">
-        <v>1e-30</v>
+        <v>0.3313625788327374</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.0567192782482</v>
+        <v>-39.5245206193622</v>
       </c>
       <c r="C9">
-        <v>27.01551945168895</v>
+        <v>-42.53482057600201</v>
       </c>
       <c r="D9">
-        <v>1e-30</v>
+        <v>0.3314712911484675</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38.10251165002046</v>
+        <v>-40.35737709333474</v>
       </c>
       <c r="C10">
-        <v>26.06131182346121</v>
+        <v>-43.36767704997455</v>
       </c>
       <c r="D10">
-        <v>1e-30</v>
+        <v>0.3316415399923741</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.89357707634648</v>
+        <v>-41.3598799834682</v>
       </c>
       <c r="C11">
-        <v>24.85237724978723</v>
+        <v>-44.37017994010801</v>
       </c>
       <c r="D11">
-        <v>1e-30</v>
+        <v>0.33182595325806</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.63693451281865</v>
+        <v>-74.36723567156352</v>
       </c>
       <c r="C12">
-        <v>23.59573468625941</v>
+        <v>-77.37753562820333</v>
       </c>
       <c r="D12">
-        <v>1e-30</v>
+        <v>0.3332996156824222</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.43296069363019</v>
+        <v>-65.48110474267231</v>
       </c>
       <c r="C13">
-        <v>22.39176086707095</v>
+        <v>-68.49140469931213</v>
       </c>
       <c r="D13">
-        <v>1e-30</v>
+        <v>0.3332395417540704</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.60430718509661</v>
+        <v>-43.37127025640744</v>
       </c>
       <c r="C14">
-        <v>21.56310735853736</v>
+        <v>-46.38157021304725</v>
       </c>
       <c r="D14">
-        <v>1.05986677448333e-29</v>
+        <v>0.3321375455320845</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.50658790293495</v>
+        <v>-43.03693561958123</v>
       </c>
       <c r="C15">
-        <v>21.46538807637571</v>
+        <v>-46.04723557622104</v>
       </c>
       <c r="D15">
-        <v>4.350083243251798e-29</v>
+        <v>0.3320906206425928</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.05142534018366</v>
+        <v>-42.87539730131812</v>
       </c>
       <c r="C16">
-        <v>22.01022551362442</v>
+        <v>-45.88569725795794</v>
       </c>
       <c r="D16">
-        <v>1e-30</v>
+        <v>0.3320672928604744</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.45087308027558</v>
+        <v>-42.91428962006295</v>
       </c>
       <c r="C17">
-        <v>22.40967325371634</v>
+        <v>-45.92458957670276</v>
       </c>
       <c r="D17">
-        <v>1e-30</v>
+        <v>0.3320729490234583</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.64687453289621</v>
+        <v>-43.1481281728916</v>
       </c>
       <c r="C18">
-        <v>22.60567470633696</v>
+        <v>-46.15842812953141</v>
       </c>
       <c r="D18">
-        <v>1e-30</v>
+        <v>0.3321064277418584</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.60958344270293</v>
+        <v>-43.3493478947785</v>
       </c>
       <c r="C19">
-        <v>22.56838361614368</v>
+        <v>-46.35964785141831</v>
       </c>
       <c r="D19">
-        <v>1e-30</v>
+        <v>0.3321345236856802</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.34508333852624</v>
+        <v>-43.31811368812402</v>
       </c>
       <c r="C20">
-        <v>22.30388351196699</v>
+        <v>-46.32841364476383</v>
       </c>
       <c r="D20">
-        <v>1e-30</v>
+        <v>0.3321302050702336</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.89250810030585</v>
+        <v>-42.53204044543318</v>
       </c>
       <c r="C21">
-        <v>21.8513082737466</v>
+        <v>-45.54234040207299</v>
       </c>
       <c r="D21">
-        <v>1e-30</v>
+        <v>0.3320162438036293</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.54398818422163</v>
+        <v>-41.82513353719368</v>
       </c>
       <c r="C22">
-        <v>21.50278835766238</v>
+        <v>-44.83543349383349</v>
       </c>
       <c r="D22">
-        <v>2.543340949200555e-29</v>
+        <v>0.3319045698925968</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.55065326442882</v>
+        <v>-41.2860597844525</v>
       </c>
       <c r="C23">
-        <v>21.50945343786958</v>
+        <v>-44.29635974109231</v>
       </c>
       <c r="D23">
-        <v>2.310232695807138e-29</v>
+        <v>0.3318130877844816</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.16825768924239</v>
+        <v>-41.00083478057417</v>
       </c>
       <c r="C24">
-        <v>22.12705786268314</v>
+        <v>-44.01113473721398</v>
       </c>
       <c r="D24">
-        <v>1e-30</v>
+        <v>0.3317623382343829</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.66109872089674</v>
+        <v>-41.02557848655533</v>
       </c>
       <c r="C25">
-        <v>22.61989889433749</v>
+        <v>-44.03587844319514</v>
       </c>
       <c r="D25">
-        <v>1e-30</v>
+        <v>0.3317668071462964</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>34.95482368949141</v>
+        <v>-41.35530274613674</v>
       </c>
       <c r="C26">
-        <v>22.91362386293216</v>
+        <v>-44.36560270277656</v>
       </c>
       <c r="D26">
-        <v>1e-30</v>
+        <v>0.3318251587072462</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>35.00294312115656</v>
+        <v>-41.92693830963415</v>
       </c>
       <c r="C27">
-        <v>22.96174329459731</v>
+        <v>-44.93723826627396</v>
       </c>
       <c r="D27">
-        <v>1e-30</v>
+        <v>0.3319212180978253</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>34.79702340262542</v>
+        <v>-42.65333994056348</v>
       </c>
       <c r="C28">
-        <v>22.75582357606617</v>
+        <v>-45.6636398972033</v>
       </c>
       <c r="D28">
-        <v>1e-30</v>
+        <v>0.3320345091347034</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>34.37097033812207</v>
+        <v>-43.37294086954415</v>
       </c>
       <c r="C29">
-        <v>22.32977051156282</v>
+        <v>-46.38324082618396</v>
       </c>
       <c r="D29">
-        <v>1e-30</v>
+        <v>0.3321377755019936</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>33.784699401777</v>
+        <v>-64.13045335144355</v>
       </c>
       <c r="C30">
-        <v>21.74349957521775</v>
+        <v>-67.14075330808336</v>
       </c>
       <c r="D30">
-        <v>1e-30</v>
+        <v>0.3332237621341213</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>33.50640199588833</v>
+        <v>-78.66880016412036</v>
       </c>
       <c r="C31">
-        <v>21.46520216932907</v>
+        <v>-81.67910012076015</v>
       </c>
       <c r="D31">
-        <v>4.36165433704287e-29</v>
+        <v>0.333312784882477</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>33.60933617917673</v>
+        <v>-61.98046203035247</v>
       </c>
       <c r="C32">
-        <v>21.56813635261749</v>
+        <v>-64.99076198699228</v>
       </c>
       <c r="D32">
-        <v>9.84735023490422e-30</v>
+        <v>0.3331929886473833</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>34.77384541903029</v>
+        <v>-74.85002922909212</v>
       </c>
       <c r="C33">
-        <v>22.73264559247103</v>
+        <v>-77.86032918573193</v>
       </c>
       <c r="D33">
-        <v>1e-30</v>
+        <v>0.3333014386986466</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>36.06954881061304</v>
+        <v>-37.21793098101519</v>
       </c>
       <c r="C34">
-        <v>24.0283489840538</v>
+        <v>-40.22823093765499</v>
       </c>
       <c r="D34">
-        <v>1e-30</v>
+        <v>0.3309049540948439</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>37.44825350313376</v>
+        <v>-35.53336567192927</v>
       </c>
       <c r="C35">
-        <v>25.40705367657451</v>
+        <v>-38.54366562856909</v>
       </c>
       <c r="D35">
-        <v>1e-30</v>
+        <v>0.3303852353262682</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>38.80382121855138</v>
+        <v>-34.50903115974052</v>
       </c>
       <c r="C36">
-        <v>26.76262139199214</v>
+        <v>-37.51933111638033</v>
       </c>
       <c r="D36">
-        <v>1e-30</v>
+        <v>0.3300162508032407</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>39.88595656560882</v>
+        <v>-34.79897179045126</v>
       </c>
       <c r="C37">
-        <v>27.84475673904957</v>
+        <v>-37.80927174709107</v>
       </c>
       <c r="D37">
-        <v>1e-30</v>
+        <v>0.3301251441319835</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>40.31793190027081</v>
+        <v>-36.19049783210671</v>
       </c>
       <c r="C38">
-        <v>28.27673207371156</v>
+        <v>-39.20079778874652</v>
       </c>
       <c r="D38">
-        <v>1e-30</v>
+        <v>0.3306000380114853</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>39.88873795932896</v>
+        <v>-37.95209252979278</v>
       </c>
       <c r="C39">
-        <v>27.84753813276971</v>
+        <v>-40.96239248643259</v>
       </c>
       <c r="D39">
-        <v>1e-30</v>
+        <v>0.3311017692016629</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>38.80796259881442</v>
+        <v>-39.66263301430528</v>
       </c>
       <c r="C40">
-        <v>26.76676277225517</v>
+        <v>-42.6729329709451</v>
       </c>
       <c r="D40">
-        <v>1e-30</v>
+        <v>0.3315006644457946</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>37.45243478364976</v>
+        <v>-41.20025601007329</v>
       </c>
       <c r="C41">
-        <v>25.41123495709051</v>
+        <v>-44.2105559667131</v>
       </c>
       <c r="D41">
-        <v>1e-30</v>
+        <v>0.3317979957466439</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>36.07309460413428</v>
+        <v>-42.55652422053337</v>
       </c>
       <c r="C42">
-        <v>24.03189477757504</v>
+        <v>-45.56682417717318</v>
       </c>
       <c r="D42">
-        <v>1e-30</v>
+        <v>0.3320199511561697</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>34.77649774212996</v>
+        <v>-43.37225997596622</v>
       </c>
       <c r="C43">
-        <v>22.73529791557071</v>
+        <v>-46.38255993260603</v>
       </c>
       <c r="D43">
-        <v>1e-30</v>
+        <v>0.3321376817782524</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>33.59305810325833</v>
+        <v>-67.39697993856848</v>
       </c>
       <c r="C44">
-        <v>21.55185827669908</v>
+        <v>-70.40727989520829</v>
       </c>
       <c r="D44">
-        <v>1.248950673993886e-29</v>
+        <v>0.3332581069657125</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>33.50682631501833</v>
+        <v>-64.0216981613394</v>
       </c>
       <c r="C45">
-        <v>21.46562648845908</v>
+        <v>-67.03199811797921</v>
       </c>
       <c r="D45">
-        <v>4.335288367216026e-29</v>
+        <v>0.3332223815788728</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>33.63858257227604</v>
+        <v>-61.31711535899399</v>
       </c>
       <c r="C46">
-        <v>21.5973827457168</v>
+        <v>-64.3274153156338</v>
       </c>
       <c r="D46">
-        <v>6.410452968048721e-30</v>
+        <v>0.3331818505405612</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>34.93571063728163</v>
+        <v>-59.29955205752204</v>
       </c>
       <c r="C47">
-        <v>22.89451081072238</v>
+        <v>-62.30985201416185</v>
       </c>
       <c r="D47">
-        <v>1e-30</v>
+        <v>0.333142241795947</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>36.46982759403477</v>
+        <v>-71.75777223300038</v>
       </c>
       <c r="C48">
-        <v>24.42862776747553</v>
+        <v>-74.76807218964019</v>
       </c>
       <c r="D48">
-        <v>1e-30</v>
+        <v>0.3332877998913485</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>38.2876165350543</v>
+        <v>-35.18277314555471</v>
       </c>
       <c r="C49">
-        <v>26.24641670849505</v>
+        <v>-38.19307310219452</v>
       </c>
       <c r="D49">
-        <v>1e-30</v>
+        <v>0.3302638110129074</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>40.45975604574874</v>
+        <v>-33.90566629897337</v>
       </c>
       <c r="C50">
-        <v>28.41855621918949</v>
+        <v>-36.91596625561318</v>
       </c>
       <c r="D50">
-        <v>1e-30</v>
+        <v>0.3297776519169676</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>42.96470801049043</v>
+        <v>-34.05194689806068</v>
       </c>
       <c r="C51">
-        <v>30.92350818393118</v>
+        <v>-37.06224685470049</v>
       </c>
       <c r="D51">
-        <v>1e-30</v>
+        <v>0.3298370289032728</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>45.19980767533669</v>
+        <v>-35.50144832560052</v>
       </c>
       <c r="C52">
-        <v>33.15860784877744</v>
+        <v>-38.51174828224033</v>
       </c>
       <c r="D52">
-        <v>1e-30</v>
+        <v>0.3303743827042379</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>45.36968493709347</v>
+        <v>-37.38319061724341</v>
       </c>
       <c r="C53">
-        <v>33.32848511053422</v>
+        <v>-40.39349057388321</v>
       </c>
       <c r="D53">
-        <v>1e-30</v>
+        <v>0.3309507189746757</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>43.2754299084998</v>
+        <v>-39.19471185401724</v>
       </c>
       <c r="C54">
-        <v>31.23423008194055</v>
+        <v>-42.20501181065706</v>
       </c>
       <c r="D54">
-        <v>1e-30</v>
+        <v>0.3313992299969385</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>40.75222185150157</v>
+        <v>-40.80495145203953</v>
       </c>
       <c r="C55">
-        <v>28.71102202494232</v>
+        <v>-43.81525140867934</v>
       </c>
       <c r="D55">
-        <v>1e-30</v>
+        <v>0.3317265072236086</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>38.53744986374777</v>
+        <v>-42.21258386362517</v>
       </c>
       <c r="C56">
-        <v>26.49625003718851</v>
+        <v>-45.22288382026498</v>
       </c>
       <c r="D56">
-        <v>1e-30</v>
+        <v>0.331966901437636</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>36.6833202403382</v>
+        <v>-43.36978111174989</v>
       </c>
       <c r="C57">
-        <v>24.64212041377895</v>
+        <v>-46.38008106838971</v>
       </c>
       <c r="D57">
-        <v>1e-30</v>
+        <v>0.3321373405051108</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>35.12156107631824</v>
+        <v>-63.71068805648578</v>
       </c>
       <c r="C58">
-        <v>23.08036124975899</v>
+        <v>-66.72098801312559</v>
       </c>
       <c r="D58">
-        <v>1e-30</v>
+        <v>0.3332183368185428</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>33.78539072193852</v>
+        <v>-69.01224799977017</v>
       </c>
       <c r="C59">
-        <v>21.74419089537928</v>
+        <v>-72.02254795640998</v>
       </c>
       <c r="D59">
-        <v>1e-30</v>
+        <v>0.3332708726558201</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>33.50898079176547</v>
+        <v>-42.16371780116609</v>
       </c>
       <c r="C60">
-        <v>21.46778096520622</v>
+        <v>-45.17401775780591</v>
       </c>
       <c r="D60">
-        <v>4.20381626012822e-29</v>
+        <v>0.3319591924135895</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>33.61543883171675</v>
+        <v>-41.84212751160371</v>
       </c>
       <c r="C61">
-        <v>21.5742390051575</v>
+        <v>-44.85242746824352</v>
       </c>
       <c r="D61">
-        <v>9.005771434387719e-30</v>
+        <v>0.331907362513833</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>34.46484785378803</v>
+        <v>-41.74807410935212</v>
       </c>
       <c r="C62">
-        <v>22.42364802722878</v>
+        <v>-44.75837406599194</v>
       </c>
       <c r="D62">
-        <v>1e-30</v>
+        <v>0.3318918379263617</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>35.27385613249889</v>
+        <v>-41.89622100953652</v>
       </c>
       <c r="C63">
-        <v>23.23265630593964</v>
+        <v>-44.90652096617633</v>
       </c>
       <c r="D63">
-        <v>1e-30</v>
+        <v>0.3319162154154678</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>35.95564349288815</v>
+        <v>-42.26233208302095</v>
       </c>
       <c r="C64">
-        <v>23.9144436663289</v>
+        <v>-45.27263203966076</v>
       </c>
       <c r="D64">
-        <v>1e-30</v>
+        <v>0.3319747052051825</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>36.41251293654691</v>
+        <v>-42.79467969634213</v>
       </c>
       <c r="C65">
-        <v>24.37131310998766</v>
+        <v>-45.80497965298194</v>
       </c>
       <c r="D65">
-        <v>1e-30</v>
+        <v>0.3320554728536835</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>36.55710730522768</v>
+        <v>-43.36005480548754</v>
       </c>
       <c r="C66">
-        <v>24.51590747866844</v>
+        <v>-46.37035476212735</v>
       </c>
       <c r="D66">
-        <v>1e-30</v>
+        <v>0.332136000512335</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>36.35792536106141</v>
+        <v>-43.34877845839983</v>
       </c>
       <c r="C67">
-        <v>24.31672553450217</v>
+        <v>-46.35907841503965</v>
       </c>
       <c r="D67">
-        <v>1e-30</v>
+        <v>0.3321344450911313</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>35.85942393469684</v>
+        <v>-43.01908913912023</v>
       </c>
       <c r="C68">
-        <v>23.81822410813759</v>
+        <v>-46.02938909576005</v>
       </c>
       <c r="D68">
-        <v>1e-30</v>
+        <v>0.3320880646942316</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>35.15418645657167</v>
+        <v>-42.85009230364941</v>
       </c>
       <c r="C69">
-        <v>23.11298663001243</v>
+        <v>-45.86039226028922</v>
       </c>
       <c r="D69">
-        <v>1e-30</v>
+        <v>0.332063599097124</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>34.33768107875784</v>
+        <v>-42.86298444569557</v>
       </c>
       <c r="C70">
-        <v>22.2964812521986</v>
+        <v>-45.87328440233538</v>
       </c>
       <c r="D70">
-        <v>1e-30</v>
+        <v>0.3320654823040765</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>33.51605527665446</v>
+        <v>-43.05664125800108</v>
       </c>
       <c r="C71">
-        <v>21.47485545009521</v>
+        <v>-46.06694121464089</v>
       </c>
       <c r="D71">
-        <v>3.799105762274632e-29</v>
+        <v>0.3320934367631209</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>33.51296038429874</v>
+        <v>-77.99578011178178</v>
       </c>
       <c r="C72">
-        <v>21.47176055773949</v>
+        <v>-81.00608006842158</v>
       </c>
       <c r="D72">
-        <v>3.971206230681132e-29</v>
+        <v>0.3333111293911086</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>34.5678680572382</v>
+        <v>-43.36694398485227</v>
       </c>
       <c r="C73">
-        <v>22.52666823067895</v>
+        <v>-46.37724394149208</v>
       </c>
       <c r="D73">
-        <v>1e-30</v>
+        <v>0.3321369497892595</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>35.67774704327127</v>
+        <v>-42.20468807096093</v>
       </c>
       <c r="C74">
-        <v>23.63654721671202</v>
+        <v>-45.21498802760074</v>
       </c>
       <c r="D74">
-        <v>1e-30</v>
+        <v>0.3319656587470656</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>36.78949100124863</v>
+        <v>-40.90785780098146</v>
       </c>
       <c r="C75">
-        <v>24.74829117468938</v>
+        <v>-43.91815775762127</v>
       </c>
       <c r="D75">
-        <v>1e-30</v>
+        <v>0.3317454315937242</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>37.7911590473889</v>
+        <v>-39.49783770495886</v>
       </c>
       <c r="C76">
-        <v>25.74995922082966</v>
+        <v>-42.50813766159867</v>
       </c>
       <c r="D76">
-        <v>1e-30</v>
+        <v>0.3314655622834881</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>38.49759450753658</v>
+        <v>-38.04731169583533</v>
       </c>
       <c r="C77">
-        <v>26.45639468097733</v>
+        <v>-41.05761165247514</v>
       </c>
       <c r="D77">
-        <v>1e-30</v>
+        <v>0.3311260985854054</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>38.70699969028748</v>
+        <v>-36.76576196894685</v>
       </c>
       <c r="C78">
-        <v>26.66579986372823</v>
+        <v>-39.77606192558666</v>
       </c>
       <c r="D78">
-        <v>1e-30</v>
+        <v>0.3307751933856787</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>38.34458461046601</v>
+        <v>-36.04911728895443</v>
       </c>
       <c r="C79">
-        <v>26.30338478390676</v>
+        <v>-39.05941724559424</v>
       </c>
       <c r="D79">
-        <v>1e-30</v>
+        <v>0.3305551856270372</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>37.53301392766097</v>
+        <v>-36.24901136804452</v>
       </c>
       <c r="C80">
-        <v>25.49181410110172</v>
+        <v>-39.25931132468433</v>
       </c>
       <c r="D80">
-        <v>1e-30</v>
+        <v>0.3306183886609899</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>36.48142389399402</v>
+        <v>-37.25771222276936</v>
       </c>
       <c r="C81">
-        <v>24.44022406743477</v>
+        <v>-40.26801217940917</v>
       </c>
       <c r="D81">
-        <v>1e-30</v>
+        <v>0.3309160502980563</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>35.35682791306784</v>
+        <v>-65.00500374056473</v>
       </c>
       <c r="C82">
-        <v>23.31562808650859</v>
+        <v>-68.01530369720453</v>
       </c>
       <c r="D82">
-        <v>1e-30</v>
+        <v>0.3332342572345163</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>34.25279215932166</v>
+        <v>-63.90337709019214</v>
       </c>
       <c r="C83">
-        <v>22.21159233276241</v>
+        <v>-66.91367704683195</v>
       </c>
       <c r="D83">
-        <v>1e-30</v>
+        <v>0.3332208598288439</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>33.62993323698011</v>
+        <v>-61.54157902328139</v>
       </c>
       <c r="C84">
-        <v>21.58873341042086</v>
+        <v>-64.5518789799212</v>
       </c>
       <c r="D84">
-        <v>7.280372082676155e-30</v>
+        <v>0.3331857150599674</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>33.5083151629912</v>
+        <v>-61.74508540718382</v>
       </c>
       <c r="C85">
-        <v>21.46711533643195</v>
+        <v>-64.75538536382363</v>
       </c>
       <c r="D85">
-        <v>4.24401028095344e-29</v>
+        <v>0.3331891334851759</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>34.8125063985222</v>
+        <v>-74.17769390553809</v>
       </c>
       <c r="C86">
-        <v>22.77130657196295</v>
+        <v>-77.1879938621779</v>
       </c>
       <c r="D86">
-        <v>1e-30</v>
+        <v>0.3332988718157787</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>36.34426751424947</v>
+        <v>-43.37060583382546</v>
       </c>
       <c r="C87">
-        <v>24.30306768769022</v>
+        <v>-46.38090579046528</v>
       </c>
       <c r="D87">
-        <v>1e-30</v>
+        <v>0.3321374540580403</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>38.17273246970679</v>
+        <v>-42.09742363880891</v>
       </c>
       <c r="C88">
-        <v>26.13153264314754</v>
+        <v>-45.10772359544872</v>
       </c>
       <c r="D88">
-        <v>1e-30</v>
+        <v>0.3319486643923559</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>40.39438578557024</v>
+        <v>-40.60709106553436</v>
       </c>
       <c r="C89">
-        <v>28.353185959011</v>
+        <v>-43.61739102217417</v>
       </c>
       <c r="D89">
-        <v>1e-30</v>
+        <v>0.3316894848842259</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>43.06765487135694</v>
+        <v>-38.86222256631284</v>
       </c>
       <c r="C90">
-        <v>31.02645504479769</v>
+        <v>-41.87252252295265</v>
       </c>
       <c r="D90">
-        <v>1e-30</v>
+        <v>0.3313237601164461</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>45.75550813073312</v>
+        <v>-36.82126521739712</v>
       </c>
       <c r="C91">
-        <v>33.71430830417387</v>
+        <v>-39.83156517403693</v>
       </c>
       <c r="D91">
-        <v>1e-30</v>
+        <v>0.3307914874072392</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>46.36097014375721</v>
+        <v>-34.55839389750313</v>
       </c>
       <c r="C92">
-        <v>34.31977031719796</v>
+        <v>-37.56869385414294</v>
       </c>
       <c r="D92">
-        <v>1e-30</v>
+        <v>0.330035047667103</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>44.08982407867541</v>
+        <v>-32.65777440905375</v>
       </c>
       <c r="C93">
-        <v>32.04862425211616</v>
+        <v>-35.66807436569356</v>
       </c>
       <c r="D93">
-        <v>1e-30</v>
+        <v>0.3292283336324746</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>41.2984239316655</v>
+        <v>-32.49687740580756</v>
       </c>
       <c r="C94">
-        <v>29.25722410510625</v>
+        <v>-35.50717736244737</v>
       </c>
       <c r="D94">
-        <v>1e-30</v>
+        <v>0.3291515904244782</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>38.91221678670081</v>
+        <v>-34.24209102964832</v>
       </c>
       <c r="C95">
-        <v>26.87101696014156</v>
+        <v>-37.25239098628813</v>
       </c>
       <c r="D95">
-        <v>1e-30</v>
+        <v>0.3299127311407826</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>36.95315019847643</v>
+        <v>-36.51008518704091</v>
       </c>
       <c r="C96">
-        <v>24.91195037191718</v>
+        <v>-39.52038514368072</v>
       </c>
       <c r="D96">
-        <v>1e-30</v>
+        <v>0.3306987755236046</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>35.3233680240638</v>
+        <v>-66.83401539699362</v>
       </c>
       <c r="C97">
-        <v>23.28216819750455</v>
+        <v>-69.84431535363343</v>
       </c>
       <c r="D97">
-        <v>1e-30</v>
+        <v>0.3332530697918521</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>33.94025978753258</v>
+        <v>-61.90437624417321</v>
       </c>
       <c r="C98">
-        <v>21.89905996097334</v>
+        <v>-64.91467620081303</v>
       </c>
       <c r="D98">
-        <v>1e-30</v>
+        <v>0.3331917538699298</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>33.63506169562234</v>
+        <v>-62.07832442281567</v>
       </c>
       <c r="C99">
-        <v>21.59386186906309</v>
+        <v>-65.08862437945548</v>
       </c>
       <c r="D99">
-        <v>6.751472665668722e-30</v>
+        <v>0.3331945610117478</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>33.50674190552569</v>
+        <v>-66.65666816038927</v>
       </c>
       <c r="C100">
-        <v>21.46554207896645</v>
+        <v>-69.66696811702909</v>
       </c>
       <c r="D100">
-        <v>4.340520803529316e-29</v>
+        <v>0.3332514141376023</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>34.55806477312282</v>
+        <v>-65.88837890843206</v>
       </c>
       <c r="C101">
-        <v>22.51686494656357</v>
+        <v>-68.89867886507187</v>
       </c>
       <c r="D101">
-        <v>1e-30</v>
+        <v>0.3332438380512822</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>35.64487636577866</v>
+        <v>-43.37173875655882</v>
       </c>
       <c r="C102">
-        <v>23.60367653921941</v>
+        <v>-46.38203871319863</v>
       </c>
       <c r="D102">
-        <v>1e-30</v>
+        <v>0.3321376100284005</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>36.69898237040725</v>
+        <v>-42.45098765784667</v>
       </c>
       <c r="C103">
-        <v>24.657782543848</v>
+        <v>-45.46128761448649</v>
       </c>
       <c r="D103">
-        <v>1e-30</v>
+        <v>0.3320038958997185</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>37.59168921733092</v>
+        <v>-41.55424543769128</v>
       </c>
       <c r="C104">
-        <v>25.55048939077167</v>
+        <v>-44.56454539433109</v>
       </c>
       <c r="D104">
-        <v>1e-30</v>
+        <v>0.3318593091815314</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>38.13731379080006</v>
+        <v>-40.76965223312351</v>
       </c>
       <c r="C105">
-        <v>26.09611396424081</v>
+        <v>-43.77995218976332</v>
       </c>
       <c r="D105">
-        <v>1e-30</v>
+        <v>0.3317199639191005</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>38.1741564289302</v>
+        <v>-40.21234294461203</v>
       </c>
       <c r="C106">
-        <v>26.13295660237095</v>
+        <v>-43.22264290125184</v>
       </c>
       <c r="D106">
-        <v>1e-30</v>
+        <v>0.331613054209021</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>37.68989486734388</v>
+        <v>-39.99791072246271</v>
       </c>
       <c r="C107">
-        <v>25.64869504078464</v>
+        <v>-43.00821067910252</v>
       </c>
       <c r="D107">
-        <v>1e-30</v>
+        <v>0.3315700570058526</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>36.83289909865755</v>
+        <v>-40.17990863469413</v>
       </c>
       <c r="C108">
-        <v>24.7916992720983</v>
+        <v>-43.19020859133394</v>
       </c>
       <c r="D108">
-        <v>1e-30</v>
+        <v>0.3316066185312113</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>35.7923668611668</v>
+        <v>-40.71220005722232</v>
       </c>
       <c r="C109">
-        <v>23.75116703460756</v>
+        <v>-43.72250001386213</v>
       </c>
       <c r="D109">
-        <v>1e-30</v>
+        <v>0.3317092571679269</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>34.7059774951142</v>
+        <v>-41.48169906181499</v>
       </c>
       <c r="C110">
-        <v>22.66477766855495</v>
+        <v>-44.49199901845481</v>
       </c>
       <c r="D110">
-        <v>1e-30</v>
+        <v>0.3318469463932121</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>33.64833106056393</v>
+        <v>-42.37149588792428</v>
       </c>
       <c r="C111">
-        <v>21.60713123400468</v>
+        <v>-45.38179584456409</v>
       </c>
       <c r="D111">
-        <v>5.552259529311828e-30</v>
+        <v>0.3319916733755179</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>33.59414527601405</v>
+        <v>-74.45164895924358</v>
       </c>
       <c r="C112">
-        <v>21.5529454494548</v>
+        <v>-77.4619489158834</v>
       </c>
       <c r="D112">
-        <v>1.229314603048832e-29</v>
+        <v>0.3332999417782128</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>33.50704111710439</v>
+        <v>-74.40286396775987</v>
       </c>
       <c r="C113">
-        <v>21.46584129054514</v>
+        <v>-77.41316392439968</v>
       </c>
       <c r="D113">
-        <v>4.322001039199429e-29</v>
+        <v>0.333299753704211</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>33.89440852824139</v>
+        <v>-43.36915389568816</v>
       </c>
       <c r="C114">
-        <v>21.85320870168215</v>
+        <v>-46.37945385232797</v>
       </c>
       <c r="D114">
-        <v>1e-30</v>
+        <v>0.332137254138835</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>34.10927883622213</v>
+        <v>-43.28639446987356</v>
       </c>
       <c r="C115">
-        <v>22.06807900966288</v>
+        <v>-46.29669442651338</v>
       </c>
       <c r="D115">
-        <v>1e-30</v>
+        <v>0.3321258034725921</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>34.12071797469685</v>
+        <v>-43.3614422088942</v>
       </c>
       <c r="C116">
-        <v>22.0795181481376</v>
+        <v>-46.37174216553401</v>
       </c>
       <c r="D116">
-        <v>1e-30</v>
+        <v>0.3321361917466036</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>33.92723202932027</v>
+        <v>-43.36524939033009</v>
       </c>
       <c r="C117">
-        <v>21.88603220276102</v>
+        <v>-46.3755493469699</v>
       </c>
       <c r="D117">
-        <v>1e-30</v>
+        <v>0.33213671635674</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>33.55516871288798</v>
+        <v>-43.34472080408209</v>
       </c>
       <c r="C118">
-        <v>21.51396888632874</v>
+        <v>-46.3550207607219</v>
       </c>
       <c r="D118">
-        <v>2.164390533165152e-29</v>
+        <v>0.3321338848977914</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>33.53236992113268</v>
+        <v>-43.36982755779556</v>
       </c>
       <c r="C119">
-        <v>21.49117009457342</v>
+        <v>-46.38012751443537</v>
       </c>
       <c r="D119">
-        <v>3.006266356999753e-29</v>
+        <v>0.3321373469003813</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>33.56267877511143</v>
+        <v>-75.68462369820151</v>
       </c>
       <c r="C120">
-        <v>21.52147894855218</v>
+        <v>-78.69492365484132</v>
       </c>
       <c r="D120">
-        <v>1.941641639943972e-29</v>
+        <v>0.3333043607040857</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>34.31051355438495</v>
+        <v>-42.4066959053237</v>
       </c>
       <c r="C121">
-        <v>22.2693137278257</v>
+        <v>-45.41699586196351</v>
       </c>
       <c r="D121">
-        <v>1e-30</v>
+        <v>0.3319970994739104</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>34.9709964727429</v>
+        <v>-41.53471498351372</v>
       </c>
       <c r="C122">
-        <v>22.92979664618365</v>
+        <v>-44.54501494015354</v>
       </c>
       <c r="D122">
-        <v>1e-30</v>
+        <v>0.3318559911040248</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>35.45458853690062</v>
+        <v>-40.78695276071088</v>
       </c>
       <c r="C123">
-        <v>23.41338871034137</v>
+        <v>-43.79725271735069</v>
       </c>
       <c r="D123">
-        <v>1e-30</v>
+        <v>0.3317231741857506</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>35.68382080071446</v>
+        <v>-40.27705073672819</v>
       </c>
       <c r="C124">
-        <v>23.64262097415521</v>
+        <v>-43.287350693368</v>
       </c>
       <c r="D124">
-        <v>1e-30</v>
+        <v>0.3316258220808381</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>35.61466338619043</v>
+        <v>-40.11210168129509</v>
       </c>
       <c r="C125">
-        <v>23.57346355963118</v>
+        <v>-43.12240163793491</v>
       </c>
       <c r="D125">
-        <v>1e-30</v>
+        <v>0.3315930862616766</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>35.26071225553245</v>
+        <v>-40.33308036571483</v>
       </c>
       <c r="C126">
-        <v>23.2195124289732</v>
+        <v>-43.34338032235464</v>
       </c>
       <c r="D126">
-        <v>1e-30</v>
+        <v>0.3316368010386621</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>34.68530701673134</v>
+        <v>-40.88625601745964</v>
       </c>
       <c r="C127">
-        <v>22.6441071901721</v>
+        <v>-43.89655597409945</v>
       </c>
       <c r="D127">
-        <v>1e-30</v>
+        <v>0.3317414776188614</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>33.96974328049901</v>
+        <v>-41.66005940173024</v>
       </c>
       <c r="C128">
-        <v>21.92854345393976</v>
+        <v>-44.67035935837004</v>
       </c>
       <c r="D128">
-        <v>1e-30</v>
+        <v>0.3318771570454926</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>33.50643829429603</v>
+        <v>-42.54373998211663</v>
       </c>
       <c r="C129">
-        <v>21.46523846773679</v>
+        <v>-45.55403993875644</v>
       </c>
       <c r="D129">
-        <v>4.359392700544224e-29</v>
+        <v>0.3320180166604196</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>33.61796357444962</v>
+        <v>-43.37259864663253</v>
       </c>
       <c r="C130">
-        <v>21.57676374789037</v>
+        <v>-46.38289860327234</v>
       </c>
       <c r="D130">
-        <v>8.678680255548467e-30</v>
+        <v>0.3321377283965614</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>34.85148151004494</v>
+        <v>-68.0310048857651</v>
       </c>
       <c r="C131">
-        <v>22.8102816834857</v>
+        <v>-71.04130484240491</v>
       </c>
       <c r="D131">
-        <v>1e-30</v>
+        <v>0.3332634024771577</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>36.2554623275121</v>
+        <v>-62.38174881388791</v>
       </c>
       <c r="C132">
-        <v>24.21426250095285</v>
+        <v>-65.39204877052772</v>
       </c>
       <c r="D132">
-        <v>1e-30</v>
+        <v>0.3331993250525335</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>37.82217031941733</v>
+        <v>-61.76925778452529</v>
       </c>
       <c r="C133">
-        <v>25.78097049285808</v>
+        <v>-64.77955774116511</v>
       </c>
       <c r="D133">
-        <v>1e-30</v>
+        <v>0.3331895342279033</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>39.49381892854237</v>
+        <v>-67.15870971970284</v>
       </c>
       <c r="C134">
-        <v>27.45261910198312</v>
+        <v>-70.16900967634265</v>
       </c>
       <c r="D134">
-        <v>1e-30</v>
+        <v>0.3332560148008248</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>41.03415595414181</v>
+        <v>-36.65255266618806</v>
       </c>
       <c r="C135">
-        <v>28.99295612758256</v>
+        <v>-39.66285262282788</v>
       </c>
       <c r="D135">
-        <v>1e-30</v>
+        <v>0.330741634173507</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>41.89736960200082</v>
+        <v>-34.44512724216847</v>
       </c>
       <c r="C136">
-        <v>29.85616977544157</v>
+        <v>-37.45542719880828</v>
       </c>
       <c r="D136">
-        <v>1e-30</v>
+        <v>0.3299917576183556</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>41.56117959322337</v>
+        <v>-32.74538548641074</v>
       </c>
       <c r="C137">
-        <v>29.51997976666412</v>
+        <v>-35.75568544305055</v>
       </c>
       <c r="D137">
-        <v>1e-30</v>
+        <v>0.3292695277719968</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>40.25088197776075</v>
+        <v>-32.84683944074721</v>
       </c>
       <c r="C138">
-        <v>28.2096821512015</v>
+        <v>-35.85713939738702</v>
       </c>
       <c r="D138">
-        <v>1e-30</v>
+        <v>0.3293167145688981</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>38.5934629131545</v>
+        <v>-34.64787923183675</v>
       </c>
       <c r="C139">
-        <v>26.55226308659525</v>
+        <v>-37.65817918847657</v>
       </c>
       <c r="D139">
-        <v>1e-30</v>
+        <v>0.330068851713469</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>36.96385185587278</v>
+        <v>-36.85457836348139</v>
       </c>
       <c r="C140">
-        <v>24.92265202931353</v>
+        <v>-39.8648783201212</v>
       </c>
       <c r="D140">
-        <v>1e-30</v>
+        <v>0.3308012172283307</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>35.48276216175574</v>
+        <v>-38.87061949991428</v>
       </c>
       <c r="C141">
-        <v>23.44156233519649</v>
+        <v>-41.8809194565541</v>
       </c>
       <c r="D141">
-        <v>1e-30</v>
+        <v>0.3313257018609589</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>34.1658420635659</v>
+        <v>-40.60451296944461</v>
       </c>
       <c r="C142">
-        <v>22.12464223700665</v>
+        <v>-43.61481292608442</v>
       </c>
       <c r="D142">
-        <v>1e-30</v>
+        <v>0.3316889969003293</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>33.50721298921164</v>
+        <v>-42.08991870738202</v>
       </c>
       <c r="C143">
-        <v>21.46601316265238</v>
+        <v>-45.10021866402183</v>
       </c>
       <c r="D143">
-        <v>4.311398161413141e-29</v>
+        <v>0.3319474674807449</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>33.63910171012669</v>
+        <v>-43.37166386057304</v>
       </c>
       <c r="C144">
-        <v>21.59790188356744</v>
+        <v>-46.38196381721286</v>
       </c>
       <c r="D144">
-        <v>6.361627197838134e-30</v>
+        <v>0.3321375997180395</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>34.91378075158369</v>
+        <v>-80.07726211309809</v>
       </c>
       <c r="C145">
-        <v>22.87258092502444</v>
+        <v>-83.0875620697379</v>
       </c>
       <c r="D145">
-        <v>1e-30</v>
+        <v>0.3333158607955315</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>36.38637546885333</v>
+        <v>-78.01113103866415</v>
       </c>
       <c r="C146">
-        <v>24.34517564229408</v>
+        <v>-81.02143099530396</v>
       </c>
       <c r="D146">
-        <v>1e-30</v>
+        <v>0.3333111685983844</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>38.08641812623731</v>
+        <v>-66.68564261952554</v>
       </c>
       <c r="C147">
-        <v>26.04521829967805</v>
+        <v>-69.69594257616535</v>
       </c>
       <c r="D147">
-        <v>1e-30</v>
+        <v>0.3332516869490165</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>40.01993423027759</v>
+        <v>-59.96249504570122</v>
       </c>
       <c r="C148">
-        <v>27.97873440371835</v>
+        <v>-62.97279500234104</v>
       </c>
       <c r="D148">
-        <v>1e-30</v>
+        <v>0.3331562839940665</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>42.03800931881078</v>
+        <v>-73.72997410697346</v>
       </c>
       <c r="C149">
-        <v>29.99680949225153</v>
+        <v>-76.74027406361327</v>
       </c>
       <c r="D149">
-        <v>1e-30</v>
+        <v>0.3332970488964015</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>43.51522401876673</v>
+        <v>-36.48287181999083</v>
       </c>
       <c r="C150">
-        <v>31.47402419220749</v>
+        <v>-39.49317177663064</v>
       </c>
       <c r="D150">
-        <v>1e-30</v>
+        <v>0.3306905086376861</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>43.4204769202206</v>
+        <v>-35.80537298635412</v>
       </c>
       <c r="C151">
-        <v>31.37927709366135</v>
+        <v>-38.81567294299393</v>
       </c>
       <c r="D151">
-        <v>1e-30</v>
+        <v>0.3304761237940672</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>41.83994145424258</v>
+        <v>-36.10436959111733</v>
       </c>
       <c r="C152">
-        <v>29.79874162768333</v>
+        <v>-39.11466954775714</v>
       </c>
       <c r="D152">
-        <v>1e-30</v>
+        <v>0.3305728011354372</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>39.81641968871357</v>
+        <v>-37.2104183576806</v>
       </c>
       <c r="C153">
-        <v>27.77521986215432</v>
+        <v>-40.2207183143204</v>
       </c>
       <c r="D153">
-        <v>1e-30</v>
+        <v>0.3309028528843381</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>37.90838891800676</v>
+        <v>-38.66207299162105</v>
       </c>
       <c r="C154">
-        <v>25.86718909144751</v>
+        <v>-41.67237294826086</v>
       </c>
       <c r="D154">
-        <v>1e-30</v>
+        <v>0.3312769166538345</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>36.23692877536548</v>
+        <v>-40.14174381513557</v>
       </c>
       <c r="C155">
-        <v>24.19572894880624</v>
+        <v>-43.15204377177538</v>
       </c>
       <c r="D155">
-        <v>1e-30</v>
+        <v>0.3315990149560048</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>34.78953266195717</v>
+        <v>-41.52174700123461</v>
       </c>
       <c r="C156">
-        <v>22.74833283539792</v>
+        <v>-44.53204695787442</v>
       </c>
       <c r="D156">
-        <v>1e-30</v>
+        <v>0.3318537838161546</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>33.52923149621017</v>
+        <v>-42.77032148047557</v>
       </c>
       <c r="C157">
-        <v>21.48803166965092</v>
+        <v>-45.78062143711538</v>
       </c>
       <c r="D157">
-        <v>3.144936803140261e-29</v>
+        <v>0.3320518842925543</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>33.50986850963228</v>
+        <v>-43.36854553000018</v>
       </c>
       <c r="C158">
-        <v>21.46866868307304</v>
+        <v>-46.37884548663998</v>
       </c>
       <c r="D158">
-        <v>4.150793781011959e-29</v>
+        <v>0.3321371703622561</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>33.60272322170519</v>
+        <v>-75.35614623545629</v>
       </c>
       <c r="C159">
-        <v>21.56152339514595</v>
+        <v>-78.36644619209611</v>
       </c>
       <c r="D159">
-        <v>1.084678795153954e-29</v>
+        <v>0.3333032440542835</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>34.28441961050118</v>
+        <v>-42.95310437492219</v>
       </c>
       <c r="C160">
-        <v>22.24321978394194</v>
+        <v>-45.963404331562</v>
       </c>
       <c r="D160">
-        <v>1e-30</v>
+        <v>0.3320785687125878</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>34.85933325312437</v>
+        <v>-42.7552395010425</v>
       </c>
       <c r="C161">
-        <v>22.81813342656513</v>
+        <v>-45.76553945768231</v>
       </c>
       <c r="D161">
-        <v>1e-30</v>
+        <v>0.33204965729822</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>35.26051720730116</v>
+        <v>-42.74313940715673</v>
       </c>
       <c r="C162">
-        <v>23.21931738074191</v>
+        <v>-45.75343936379654</v>
       </c>
       <c r="D162">
-        <v>1e-30</v>
+        <v>0.3320478678092553</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>35.42907340944672</v>
+        <v>-42.91786362583575</v>
       </c>
       <c r="C163">
-        <v>23.38787358288747</v>
+        <v>-45.92816358247556</v>
       </c>
       <c r="D163">
-        <v>1e-30</v>
+        <v>0.3320734675265313</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>35.33683834771563</v>
+        <v>-43.25720128663057</v>
       </c>
       <c r="C164">
-        <v>23.29563852115638</v>
+        <v>-46.26750124327038</v>
       </c>
       <c r="D164">
-        <v>1e-30</v>
+        <v>0.3321217381776449</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>35.00045563397022</v>
+        <v>-43.35299367486208</v>
       </c>
       <c r="C165">
-        <v>22.95925580741098</v>
+        <v>-46.36329363150189</v>
       </c>
       <c r="D165">
-        <v>1e-30</v>
+        <v>0.3321350267601867</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>34.47285661812295</v>
+        <v>-43.3566280539301</v>
       </c>
       <c r="C166">
-        <v>22.4316567915637</v>
+        <v>-46.36692801056991</v>
       </c>
       <c r="D166">
-        <v>1e-30</v>
+        <v>0.3321355280513673</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>33.82006184977763</v>
+        <v>-42.75681587449144</v>
       </c>
       <c r="C167">
-        <v>21.77886202321839</v>
+        <v>-45.76711583113125</v>
       </c>
       <c r="D167">
-        <v>1e-30</v>
+        <v>0.3320498902454001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>33.5195017486742</v>
+        <v>-42.27091224283809</v>
       </c>
       <c r="C168">
-        <v>21.47830192211495</v>
+        <v>-45.28121219947791</v>
       </c>
       <c r="D168">
-        <v>3.616084132280503e-29</v>
+        <v>0.3319760466209705</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>33.5344115547686</v>
+        <v>-41.96075728443155</v>
       </c>
       <c r="C169">
-        <v>21.49321172820935</v>
+        <v>-44.97105724107136</v>
       </c>
       <c r="D169">
-        <v>2.919306336420328e-29</v>
+        <v>0.3319267055027982</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>33.742204617155</v>
+        <v>-41.87094265853104</v>
       </c>
       <c r="C170">
-        <v>21.70100479059576</v>
+        <v>-44.88124261517085</v>
       </c>
       <c r="D170">
-        <v>1.368461775114088e-30</v>
+        <v>0.3319120852409172</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>33.78456442283288</v>
+        <v>-42.01619636411277</v>
       </c>
       <c r="C171">
-        <v>21.74336459627363</v>
+        <v>-45.02649632075258</v>
       </c>
       <c r="D171">
-        <v>1e-30</v>
+        <v>0.3319356548562421</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>33.65502594938842</v>
+        <v>-77.97232543852381</v>
       </c>
       <c r="C172">
-        <v>21.61382612282917</v>
+        <v>-80.98262539516362</v>
       </c>
       <c r="D172">
-        <v>5.029469693560521e-30</v>
+        <v>0.3333110693523552</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>33.56664519646911</v>
+        <v>-66.91933098069966</v>
       </c>
       <c r="C173">
-        <v>21.52544536990986</v>
+        <v>-69.92963093733947</v>
       </c>
       <c r="D173">
-        <v>1.833266059680239e-29</v>
+        <v>0.3332538543067965</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>33.51167544377204</v>
+        <v>-63.70778346850388</v>
       </c>
       <c r="C174">
-        <v>21.4704756172128</v>
+        <v>-66.71808342514369</v>
       </c>
       <c r="D174">
-        <v>4.04489234047522e-29</v>
+        <v>0.3332182983569296</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>34.65621878189901</v>
+        <v>-43.36780222185962</v>
       </c>
       <c r="C175">
-        <v>22.61501895533977</v>
+        <v>-46.37810217849943</v>
       </c>
       <c r="D175">
-        <v>1e-30</v>
+        <v>0.3321370679951112</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>35.91453726880031</v>
+        <v>-42.13565659536884</v>
       </c>
       <c r="C176">
-        <v>23.87333744224106</v>
+        <v>-45.14595655200866</v>
       </c>
       <c r="D176">
-        <v>1e-30</v>
+        <v>0.3319547458845801</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>37.26029205394442</v>
+        <v>-40.72675974206018</v>
       </c>
       <c r="C177">
-        <v>25.21909222738518</v>
+        <v>-43.73705969869999</v>
       </c>
       <c r="D177">
-        <v>1e-30</v>
+        <v>0.3317119772044417</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>38.60733565964017</v>
+        <v>-39.1225813904674</v>
       </c>
       <c r="C178">
-        <v>26.56613583308092</v>
+        <v>-42.1328813471072</v>
       </c>
       <c r="D178">
-        <v>1e-30</v>
+        <v>0.3313831019845646</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>39.74374546314618</v>
+        <v>-37.33635835018413</v>
       </c>
       <c r="C179">
-        <v>27.70254563658694</v>
+        <v>-40.34665830682394</v>
       </c>
       <c r="D179">
-        <v>1e-30</v>
+        <v>0.3309378381327867</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>40.31989325262207</v>
+        <v>-35.5250269665751</v>
       </c>
       <c r="C180">
-        <v>28.27869342606282</v>
+        <v>-38.53532692321491</v>
       </c>
       <c r="D180">
-        <v>1e-30</v>
+        <v>0.3303824038240299</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>40.07210888314468</v>
+        <v>-34.2145643167244</v>
       </c>
       <c r="C181">
-        <v>28.03090905658543</v>
+        <v>-37.22486427336421</v>
       </c>
       <c r="D181">
-        <v>1e-30</v>
+        <v>0.3299018742141123</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>39.12045295669057</v>
+        <v>-34.20274186117739</v>
       </c>
       <c r="C182">
-        <v>27.07925313013132</v>
+        <v>-37.2130418178172</v>
       </c>
       <c r="D182">
-        <v>1e-30</v>
+        <v>0.3298972006989275</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>37.82213466486931</v>
+        <v>-35.50022735156433</v>
       </c>
       <c r="C183">
-        <v>25.78093483831006</v>
+        <v>-38.51052730820415</v>
       </c>
       <c r="D183">
-        <v>1e-30</v>
+        <v>0.3303739667529796</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>36.45501061992685</v>
+        <v>-69.88165064391356</v>
       </c>
       <c r="C184">
-        <v>24.41381079336761</v>
+        <v>-72.89195060055337</v>
       </c>
       <c r="D184">
-        <v>1e-30</v>
+        <v>0.3332768218692214</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>35.15006597407339</v>
+        <v>-59.90956756137805</v>
       </c>
       <c r="C185">
-        <v>23.10886614751414</v>
+        <v>-62.91986751801786</v>
       </c>
       <c r="D185">
-        <v>1e-30</v>
+        <v>0.3331552018500814</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>33.95057109900043</v>
+        <v>-60.662979515842</v>
       </c>
       <c r="C186">
-        <v>21.90937127244118</v>
+        <v>-63.67327947248181</v>
       </c>
       <c r="D186">
-        <v>1e-30</v>
+        <v>0.3331700017802789</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>33.63539811014611</v>
+        <v>-62.40267631017715</v>
       </c>
       <c r="C187">
-        <v>21.59419828358687</v>
+        <v>-65.41297626681695</v>
       </c>
       <c r="D187">
-        <v>6.718131782696951e-30</v>
+        <v>0.3331996475389923</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>33.50800120128562</v>
+        <v>-68.12724682340219</v>
       </c>
       <c r="C188">
-        <v>21.46680137472636</v>
+        <v>-71.137546780042</v>
       </c>
       <c r="D188">
-        <v>4.263099891366455e-29</v>
+        <v>0.3332641730524148</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>34.79320096502065</v>
+        <v>-43.37077275574279</v>
       </c>
       <c r="C189">
-        <v>22.7520011384614</v>
+        <v>-46.3810727123826</v>
       </c>
       <c r="D189">
-        <v>1e-30</v>
+        <v>0.3321374770395893</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>36.29780334169097</v>
+        <v>-42.12382119773524</v>
       </c>
       <c r="C190">
-        <v>24.25660351513172</v>
+        <v>-45.13412115437505</v>
       </c>
       <c r="D190">
-        <v>1e-30</v>
+        <v>0.3319528661571119</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>38.07079928024768</v>
+        <v>-40.69939309388695</v>
       </c>
       <c r="C191">
-        <v>26.02959945368843</v>
+        <v>-43.70969305052677</v>
       </c>
       <c r="D191">
-        <v>1e-30</v>
+        <v>0.3317068608024444</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>40.17067095789539</v>
+        <v>-39.08200007131637</v>
       </c>
       <c r="C192">
-        <v>28.12947113133614</v>
+        <v>-42.09230002795618</v>
       </c>
       <c r="D192">
-        <v>1e-30</v>
+        <v>0.3313739691608327</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>42.56001343048395</v>
+        <v>-37.29575876913542</v>
       </c>
       <c r="C193">
-        <v>30.51881360392469</v>
+        <v>-40.30605872577523</v>
       </c>
       <c r="D193">
-        <v>1e-30</v>
+        <v>0.3309266152065618</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>44.67818859756974</v>
+        <v>-35.52702275536131</v>
       </c>
       <c r="C194">
-        <v>32.6369887710105</v>
+        <v>-38.53732271200112</v>
       </c>
       <c r="D194">
-        <v>1e-30</v>
+        <v>0.3303830817642448</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>44.94543429563259</v>
+        <v>-34.3426163796433</v>
       </c>
       <c r="C195">
-        <v>32.90423446907335</v>
+        <v>-37.35291633628312</v>
       </c>
       <c r="D195">
-        <v>1e-30</v>
+        <v>0.3299520888317264</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>43.0644143487599</v>
+        <v>-34.49046785427473</v>
       </c>
       <c r="C196">
-        <v>31.02321452220065</v>
+        <v>-37.50076781091454</v>
       </c>
       <c r="D196">
-        <v>1e-30</v>
+        <v>0.3300091543907027</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>40.65185779553345</v>
+        <v>-35.85724316360407</v>
       </c>
       <c r="C197">
-        <v>28.6106579689742</v>
+        <v>-38.86754312024389</v>
       </c>
       <c r="D197">
-        <v>1e-30</v>
+        <v>0.3304931349117172</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3146,69 +3146,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>38.47963798310418</v>
+        <v>-36.74488327492458</v>
       </c>
       <c r="C198">
-        <v>26.43843815654494</v>
+        <v>-39.75518323156439</v>
       </c>
       <c r="D198">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>36.64114415284494</v>
-      </c>
-      <c r="C199">
-        <v>24.59994432628569</v>
-      </c>
-      <c r="D199">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>35.08448736516597</v>
-      </c>
-      <c r="C200">
-        <v>23.04328753860672</v>
-      </c>
-      <c r="D200">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>33.74905119697666</v>
-      </c>
-      <c r="C201">
-        <v>21.70785137041741</v>
-      </c>
-      <c r="D201">
-        <v>1.234124028925966e-30</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>33.63023789115841</v>
-      </c>
-      <c r="C202">
-        <v>21.58903806459916</v>
-      </c>
-      <c r="D202">
-        <v>7.247844140758013e-30</v>
+        <v>0.3307690370548114</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/SAOCOM1A_transmitterTF.xlsx
+++ b/Reports/SAOCOM1A_transmitterTF.xlsx
@@ -36745,24 +36745,24 @@
         <v>8</v>
       </c>
       <c r="C460" t="n">
-        <v>20.27971509009469</v>
+        <v>20.27998106541299</v>
       </c>
       <c r="D460" t="n">
-        <v>1.327417750844895e-06</v>
+        <v>0.0002299525823465678</v>
       </c>
       <c r="E460" t="n">
-        <v>2913.712871015212</v>
+        <v>2913.687720757528</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>21 Jun 2025 10:06:41.528322168</t>
+          <t>21 Jun 2025 10:06:41.524276880</t>
         </is>
       </c>
       <c r="G460" t="n">
-        <v>96.95149792923822</v>
+        <v>96.95157290344298</v>
       </c>
       <c r="H460" t="n">
-        <v>93.9411979725984</v>
+        <v>93.94127294680317</v>
       </c>
       <c r="I460" t="n">
         <v>1e-30</v>
@@ -36771,7 +36771,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K460" t="n">
-        <v>187.8437456591683</v>
+        <v>187.8436706849636</v>
       </c>
       <c r="L460" t="n">
         <v>0</v>
@@ -36786,34 +36786,34 @@
         <v>30</v>
       </c>
       <c r="P460" t="n">
-        <v>5999.973784755156</v>
+        <v>5999.958055801271</v>
       </c>
       <c r="Q460" t="n">
-        <v>393.391238306316</v>
+        <v>393.3950916111511</v>
       </c>
       <c r="R460" t="n">
-        <v>-3598.103674810704</v>
+        <v>-3598.129520237168</v>
       </c>
       <c r="S460" t="n">
-        <v>3.888119942226687</v>
+        <v>3.888148050288315</v>
       </c>
       <c r="T460" t="n">
-        <v>-0.9525352527038187</v>
+        <v>-0.9525334097727084</v>
       </c>
       <c r="U460" t="n">
-        <v>6.388887831987769</v>
+        <v>6.388870930490175</v>
       </c>
       <c r="V460" t="n">
-        <v>7.53940898363431</v>
+        <v>7.539408924057406</v>
       </c>
       <c r="W460" t="n">
-        <v>-30.90912074885075</v>
+        <v>-30.90936764450365</v>
       </c>
       <c r="X460" t="n">
-        <v>-57.46022432497037</v>
+        <v>-57.46016111306741</v>
       </c>
       <c r="Y460" t="n">
-        <v>634.6691731386569</v>
+        <v>634.6692736925809</v>
       </c>
     </row>
     <row r="461">
@@ -43065,24 +43065,24 @@
         <v>9</v>
       </c>
       <c r="C540" t="n">
-        <v>329.6710075763229</v>
+        <v>329.6710074306034</v>
       </c>
       <c r="D540" t="n">
-        <v>0.0002784088619750897</v>
+        <v>0.0002789239464340071</v>
       </c>
       <c r="E540" t="n">
-        <v>2915.404590534847</v>
+        <v>2915.404533782495</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>21 Jun 2025 11:43:34.685036717</t>
+          <t>21 Jun 2025 11:43:34.685028490</t>
         </is>
       </c>
       <c r="G540" t="n">
-        <v>96.94645631202752</v>
+        <v>96.94645648111029</v>
       </c>
       <c r="H540" t="n">
-        <v>93.93615635538771</v>
+        <v>93.93615652447048</v>
       </c>
       <c r="I540" t="n">
         <v>1e-30</v>
@@ -43091,13 +43091,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K540" t="n">
-        <v>187.848787276379</v>
+        <v>187.8487871072963</v>
       </c>
       <c r="L540" t="n">
-        <v>0</v>
+        <v>8.537736462515939e-07</v>
       </c>
       <c r="M540" t="n">
-        <v>0</v>
+        <v>155.0353870242134</v>
       </c>
       <c r="N540" t="n">
         <v>66.19610472533577</v>
@@ -43106,34 +43106,34 @@
         <v>30</v>
       </c>
       <c r="P540" t="n">
-        <v>5921.177916940301</v>
+        <v>5921.177883818905</v>
       </c>
       <c r="Q540" t="n">
-        <v>419.0400437585336</v>
+        <v>419.0400514809755</v>
       </c>
       <c r="R540" t="n">
-        <v>-3723.724438388739</v>
+        <v>-3723.724490259403</v>
       </c>
       <c r="S540" t="n">
-        <v>4.025833667023416</v>
+        <v>4.025833723427814</v>
       </c>
       <c r="T540" t="n">
-        <v>-0.9386488701577672</v>
+        <v>-0.9386488661660082</v>
       </c>
       <c r="U540" t="n">
-        <v>6.304757423748155</v>
+        <v>6.304757388180876</v>
       </c>
       <c r="V540" t="n">
-        <v>7.539122269090423</v>
+        <v>7.53912226896903</v>
       </c>
       <c r="W540" t="n">
-        <v>-32.11673307619535</v>
+        <v>-32.11673357799977</v>
       </c>
       <c r="X540" t="n">
-        <v>-81.45189342081987</v>
+        <v>-81.45189327914035</v>
       </c>
       <c r="Y540" t="n">
-        <v>635.160318943412</v>
+        <v>635.1603191500958</v>
       </c>
     </row>
     <row r="541">
@@ -48042,75 +48042,75 @@
         <v>10</v>
       </c>
       <c r="C603" t="n">
-        <v>279.8343370622406</v>
+        <v>279.8343409617675</v>
       </c>
       <c r="D603" t="n">
-        <v>0.0002314376985291376</v>
+        <v>0.0002294415730090356</v>
       </c>
       <c r="E603" t="n">
-        <v>2931.251616648168</v>
+        <v>2931.251836433888</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>21 Jun 2025 13:17:27.102049710</t>
+          <t>21 Jun 2025 13:17:27.102090948</t>
         </is>
       </c>
       <c r="G603" t="n">
-        <v>96.89937098595169</v>
+        <v>-6.435073042627933</v>
       </c>
       <c r="H603" t="n">
-        <v>93.88907102931188</v>
+        <v>-9.445372999267745</v>
       </c>
       <c r="I603" t="n">
-        <v>1e-30</v>
+        <v>0.316787414163514</v>
       </c>
       <c r="J603" t="n">
-        <v>96.19610472533579</v>
+        <v>-7.138338651974471</v>
       </c>
       <c r="K603" t="n">
-        <v>187.8958726024549</v>
+        <v>187.8958732537242</v>
       </c>
       <c r="L603" t="n">
-        <v>2.699869328381917e-06</v>
+        <v>43.78723175920917</v>
       </c>
       <c r="M603" t="n">
-        <v>115.4454730163829</v>
+        <v>-52.6504283318264</v>
       </c>
       <c r="N603" t="n">
-        <v>66.19610472533577</v>
+        <v>-37.13833865197447</v>
       </c>
       <c r="O603" t="n">
         <v>30</v>
       </c>
       <c r="P603" t="n">
-        <v>4982.222980230599</v>
+        <v>4982.223198654437</v>
       </c>
       <c r="Q603" t="n">
-        <v>601.8803473329633</v>
+        <v>601.8803137516605</v>
       </c>
       <c r="R603" t="n">
-        <v>-4891.659562152924</v>
+        <v>-4891.659343630852</v>
       </c>
       <c r="S603" t="n">
-        <v>5.29650651181514</v>
+        <v>5.296506274329403</v>
       </c>
       <c r="T603" t="n">
-        <v>-0.8143090512481941</v>
+        <v>-0.814309079938202</v>
       </c>
       <c r="U603" t="n">
-        <v>5.298876146235478</v>
+        <v>5.298876380034862</v>
       </c>
       <c r="V603" t="n">
-        <v>7.536190607580746</v>
+        <v>7.536190608163511</v>
       </c>
       <c r="W603" t="n">
-        <v>-44.30113828235311</v>
+        <v>-44.30113578801834</v>
       </c>
       <c r="X603" t="n">
-        <v>-102.1538998658422</v>
+        <v>-102.1539007087803</v>
       </c>
       <c r="Y603" t="n">
-        <v>640.3296857074399</v>
+        <v>640.329684646917</v>
       </c>
     </row>
     <row r="604">
@@ -49543,24 +49543,24 @@
         <v>11</v>
       </c>
       <c r="C622" t="n">
-        <v>218.9674978958932</v>
+        <v>218.9673034413593</v>
       </c>
       <c r="D622" t="n">
-        <v>2.094060286071615e-05</v>
+        <v>3.908071543478796e-05</v>
       </c>
       <c r="E622" t="n">
-        <v>2952.407661826674</v>
+        <v>2952.405682912898</v>
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>21 Jun 2025 14:47:56.819709768</t>
+          <t>21 Jun 2025 14:47:56.818360941</t>
         </is>
       </c>
       <c r="G622" t="n">
-        <v>96.83690650360697</v>
+        <v>96.83691232551044</v>
       </c>
       <c r="H622" t="n">
-        <v>93.82660654696716</v>
+        <v>93.82661236887063</v>
       </c>
       <c r="I622" t="n">
         <v>1e-30</v>
@@ -49569,13 +49569,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K622" t="n">
-        <v>187.9583370847996</v>
+        <v>187.9583312628961</v>
       </c>
       <c r="L622" t="n">
         <v>7.040397847728116e-06</v>
       </c>
       <c r="M622" t="n">
-        <v>94.76327164559966</v>
+        <v>94.76319263557043</v>
       </c>
       <c r="N622" t="n">
         <v>66.19610472533577</v>
@@ -49584,34 +49584,34 @@
         <v>30</v>
       </c>
       <c r="P622" t="n">
-        <v>2451.255873800596</v>
+        <v>2451.246358127178</v>
       </c>
       <c r="Q622" t="n">
-        <v>867.3106555100482</v>
+        <v>867.3112753296568</v>
       </c>
       <c r="R622" t="n">
-        <v>-6508.72271805194</v>
+        <v>-6508.726220660421</v>
       </c>
       <c r="S622" t="n">
-        <v>7.054727926153558</v>
+        <v>7.054731736725921</v>
       </c>
       <c r="T622" t="n">
-        <v>-0.4595230069891261</v>
+        <v>-0.4595216586734164</v>
       </c>
       <c r="U622" t="n">
-        <v>2.596762108930215</v>
+        <v>2.596751963223833</v>
       </c>
       <c r="V622" t="n">
-        <v>7.531501905754184</v>
+        <v>7.531501894739502</v>
       </c>
       <c r="W622" t="n">
-        <v>-68.21040683395813</v>
+        <v>-68.21048371159263</v>
       </c>
       <c r="X622" t="n">
-        <v>-112.3411486622922</v>
+        <v>-112.341061124634</v>
       </c>
       <c r="Y622" t="n">
-        <v>649.1581524267656</v>
+        <v>649.1581737142826</v>
       </c>
     </row>
     <row r="623">
@@ -60524,75 +60524,75 @@
         <v>14</v>
       </c>
       <c r="C761" t="n">
-        <v>347.1914374757633</v>
+        <v>347.1914374699192</v>
       </c>
       <c r="D761" t="n">
-        <v>0.0002622881689712188</v>
+        <v>0.0002622977338763255</v>
       </c>
       <c r="E761" t="n">
-        <v>2913.002464974775</v>
+        <v>2913.002463921861</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>21 Jun 2025 22:32:22.106089285</t>
+          <t>21 Jun 2025 22:32:22.106089445</t>
         </is>
       </c>
       <c r="G761" t="n">
-        <v>96.95361593505802</v>
+        <v>3.246206542827348</v>
       </c>
       <c r="H761" t="n">
-        <v>93.94331597841821</v>
+        <v>0.2359065861875362</v>
       </c>
       <c r="I761" t="n">
-        <v>1e-30</v>
+        <v>0.0730911134623724</v>
       </c>
       <c r="J761" t="n">
-        <v>96.19610472533579</v>
+        <v>2.488695329965547</v>
       </c>
       <c r="K761" t="n">
-        <v>187.8416276533485</v>
+        <v>187.841627650209</v>
       </c>
       <c r="L761" t="n">
-        <v>0</v>
+        <v>41.26778783447559</v>
       </c>
       <c r="M761" t="n">
-        <v>0</v>
+        <v>80.39361689400134</v>
       </c>
       <c r="N761" t="n">
-        <v>66.19610472533577</v>
+        <v>-27.51130467003445</v>
       </c>
       <c r="O761" t="n">
         <v>30</v>
       </c>
       <c r="P761" t="n">
-        <v>-6043.194497064335</v>
+        <v>-6043.19449645441</v>
       </c>
       <c r="Q761" t="n">
-        <v>538.1633653095084</v>
+        <v>538.1633654471781</v>
       </c>
       <c r="R761" t="n">
-        <v>-3505.901870309683</v>
+        <v>-3505.901871341457</v>
       </c>
       <c r="S761" t="n">
-        <v>3.811624475555508</v>
+        <v>3.811624476675416</v>
       </c>
       <c r="T761" t="n">
-        <v>0.8595677950670964</v>
+        <v>0.8595677949672874</v>
       </c>
       <c r="U761" t="n">
-        <v>-6.447966770446842</v>
+        <v>-6.447966769795387</v>
       </c>
       <c r="V761" t="n">
-        <v>7.539470366660842</v>
+        <v>7.539470366658497</v>
       </c>
       <c r="W761" t="n">
-        <v>-30.31459683392156</v>
+        <v>-30.31459684369024</v>
       </c>
       <c r="X761" t="n">
-        <v>-73.23392009288153</v>
+        <v>-73.23392009402191</v>
       </c>
       <c r="Y761" t="n">
-        <v>634.5020994617183</v>
+        <v>634.5020994656633</v>
       </c>
     </row>
     <row r="762">
@@ -60617,28 +60617,28 @@
         </is>
       </c>
       <c r="G762" t="n">
-        <v>97.1460078816812</v>
+        <v>-21.34549253643265</v>
       </c>
       <c r="H762" t="n">
-        <v>94.13570792504139</v>
+        <v>-24.35579249307246</v>
       </c>
       <c r="I762" t="n">
-        <v>1e-30</v>
+        <v>0.4658724814240691</v>
       </c>
       <c r="J762" t="n">
-        <v>96.19610472533579</v>
+        <v>-22.29539569277808</v>
       </c>
       <c r="K762" t="n">
         <v>187.6492357067254</v>
       </c>
       <c r="L762" t="n">
-        <v>0</v>
+        <v>42.10138576853624</v>
       </c>
       <c r="M762" t="n">
-        <v>0</v>
+        <v>80.50909336598212</v>
       </c>
       <c r="N762" t="n">
-        <v>66.19610472533577</v>
+        <v>-52.29539569277808</v>
       </c>
       <c r="O762" t="n">
         <v>30</v>
@@ -60696,28 +60696,28 @@
         </is>
       </c>
       <c r="G763" t="n">
-        <v>97.34421042359182</v>
+        <v>-27.23581355233615</v>
       </c>
       <c r="H763" t="n">
-        <v>94.33391046695201</v>
+        <v>-30.24611350897596</v>
       </c>
       <c r="I763" t="n">
-        <v>1e-30</v>
+        <v>0.4826626540084011</v>
       </c>
       <c r="J763" t="n">
-        <v>96.19610472533579</v>
+        <v>-28.3839192505922</v>
       </c>
       <c r="K763" t="n">
         <v>187.4510331648147</v>
       </c>
       <c r="L763" t="n">
-        <v>0</v>
+        <v>42.98669230335309</v>
       </c>
       <c r="M763" t="n">
-        <v>0</v>
+        <v>80.63396673516263</v>
       </c>
       <c r="N763" t="n">
-        <v>66.19610472533577</v>
+        <v>-58.3839192505922</v>
       </c>
       <c r="O763" t="n">
         <v>30</v>
@@ -60775,28 +60775,28 @@
         </is>
       </c>
       <c r="G764" t="n">
-        <v>97.54626714825972</v>
+        <v>1.934217282381264</v>
       </c>
       <c r="H764" t="n">
-        <v>94.5359671916199</v>
+        <v>-1.076082674258548</v>
       </c>
       <c r="I764" t="n">
-        <v>1e-30</v>
+        <v>0.1057544825205323</v>
       </c>
       <c r="J764" t="n">
-        <v>96.19610472533579</v>
+        <v>0.5840548594573406</v>
       </c>
       <c r="K764" t="n">
         <v>187.2489764401469</v>
       </c>
       <c r="L764" t="n">
-        <v>0</v>
+        <v>43.91864773048503</v>
       </c>
       <c r="M764" t="n">
-        <v>0</v>
+        <v>80.76885975732489</v>
       </c>
       <c r="N764" t="n">
-        <v>66.19610472533577</v>
+        <v>-29.41594514054266</v>
       </c>
       <c r="O764" t="n">
         <v>30</v>
@@ -60854,28 +60854,28 @@
         </is>
       </c>
       <c r="G765" t="n">
-        <v>97.75226206922794</v>
+        <v>-10.68911116088373</v>
       </c>
       <c r="H765" t="n">
-        <v>94.74196211258813</v>
+        <v>-13.69941111752354</v>
       </c>
       <c r="I765" t="n">
-        <v>1e-30</v>
+        <v>0.3851017704058249</v>
       </c>
       <c r="J765" t="n">
-        <v>96.19610472533579</v>
+        <v>-12.24526850477589</v>
       </c>
       <c r="K765" t="n">
         <v>187.0429815191787</v>
       </c>
       <c r="L765" t="n">
-        <v>0</v>
+        <v>44.90132505631473</v>
       </c>
       <c r="M765" t="n">
-        <v>0</v>
+        <v>80.91604754433536</v>
       </c>
       <c r="N765" t="n">
-        <v>66.19610472533577</v>
+        <v>-42.24526850477589</v>
       </c>
       <c r="O765" t="n">
         <v>30</v>
@@ -60933,28 +60933,28 @@
         </is>
       </c>
       <c r="G766" t="n">
-        <v>97.96227499404168</v>
+        <v>-1.37736790181682</v>
       </c>
       <c r="H766" t="n">
-        <v>94.95197503740187</v>
+        <v>-4.387667858456632</v>
       </c>
       <c r="I766" t="n">
-        <v>1e-30</v>
+        <v>0.1967302175783099</v>
       </c>
       <c r="J766" t="n">
-        <v>96.19610472533579</v>
+        <v>-3.14353817052272</v>
       </c>
       <c r="K766" t="n">
         <v>186.8329685943649</v>
       </c>
       <c r="L766" t="n">
-        <v>0</v>
+        <v>45.93926223467249</v>
       </c>
       <c r="M766" t="n">
-        <v>0</v>
+        <v>81.07838408248629</v>
       </c>
       <c r="N766" t="n">
-        <v>66.19610472533577</v>
+        <v>-33.14353817052272</v>
       </c>
       <c r="O766" t="n">
         <v>30</v>
@@ -61012,28 +61012,28 @@
         </is>
       </c>
       <c r="G767" t="n">
-        <v>98.17637990287308</v>
+        <v>-0.2526644287584356</v>
       </c>
       <c r="H767" t="n">
-        <v>95.16607994623327</v>
+        <v>-3.262964385398248</v>
       </c>
       <c r="I767" t="n">
-        <v>1e-30</v>
+        <v>0.1656920049789118</v>
       </c>
       <c r="J767" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.232939606295741</v>
       </c>
       <c r="K767" t="n">
         <v>186.6188636855335</v>
       </c>
       <c r="L767" t="n">
-        <v>0</v>
+        <v>47.03752138527899</v>
       </c>
       <c r="M767" t="n">
-        <v>0</v>
+        <v>81.25946801429126</v>
       </c>
       <c r="N767" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.23293960629574</v>
       </c>
       <c r="O767" t="n">
         <v>30</v>
@@ -61091,28 +61091,28 @@
         </is>
       </c>
       <c r="G768" t="n">
-        <v>98.39464295177896</v>
+        <v>-0.1911709287758072</v>
       </c>
       <c r="H768" t="n">
-        <v>95.38434299513915</v>
+        <v>-3.20147088541562</v>
       </c>
       <c r="I768" t="n">
-        <v>1e-30</v>
+        <v>0.1639800310655151</v>
       </c>
       <c r="J768" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.389709155218989</v>
       </c>
       <c r="K768" t="n">
         <v>186.4006006366276</v>
       </c>
       <c r="L768" t="n">
-        <v>0</v>
+        <v>48.20175694167362</v>
       </c>
       <c r="M768" t="n">
-        <v>0</v>
+        <v>81.4638637286866</v>
       </c>
       <c r="N768" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.38970915521899</v>
       </c>
       <c r="O768" t="n">
         <v>30</v>
@@ -61170,28 +61170,28 @@
         </is>
       </c>
       <c r="G769" t="n">
-        <v>98.61712006450171</v>
+        <v>-1.310956212392019</v>
       </c>
       <c r="H769" t="n">
-        <v>95.60682010786189</v>
+        <v>-4.32125616903183</v>
       </c>
       <c r="I769" t="n">
-        <v>1e-30</v>
+        <v>0.194919770601832</v>
       </c>
       <c r="J769" t="n">
-        <v>96.19610472533579</v>
+        <v>-3.731971551557956</v>
       </c>
       <c r="K769" t="n">
         <v>186.1781235239048</v>
       </c>
       <c r="L769" t="n">
-        <v>0</v>
+        <v>49.43828776387695</v>
       </c>
       <c r="M769" t="n">
-        <v>0</v>
+        <v>81.69739565522367</v>
       </c>
       <c r="N769" t="n">
-        <v>66.19610472533577</v>
+        <v>-33.73197155155795</v>
       </c>
       <c r="O769" t="n">
         <v>30</v>
@@ -61249,28 +61249,28 @@
         </is>
       </c>
       <c r="G770" t="n">
-        <v>98.84385401788677</v>
+        <v>-6.253686402474649</v>
       </c>
       <c r="H770" t="n">
-        <v>95.83355406124696</v>
+        <v>-9.263986359114462</v>
       </c>
       <c r="I770" t="n">
-        <v>1e-30</v>
+        <v>0.3132138934435598</v>
       </c>
       <c r="J770" t="n">
-        <v>96.19610472533579</v>
+        <v>-8.901435695025645</v>
       </c>
       <c r="K770" t="n">
         <v>185.9513895705198</v>
       </c>
       <c r="L770" t="n">
-        <v>0</v>
+        <v>50.7541732752427</v>
       </c>
       <c r="M770" t="n">
-        <v>0</v>
+        <v>81.96754489416686</v>
       </c>
       <c r="N770" t="n">
-        <v>66.19610472533577</v>
+        <v>-38.90143569502564</v>
       </c>
       <c r="O770" t="n">
         <v>30</v>
@@ -61328,28 +61328,28 @@
         </is>
       </c>
       <c r="G771" t="n">
-        <v>99.07487092353591</v>
+        <v>2.999983714176549</v>
       </c>
       <c r="H771" t="n">
-        <v>96.0645709668961</v>
+        <v>-0.01031624246326316</v>
       </c>
       <c r="I771" t="n">
-        <v>1e-30</v>
+        <v>0.07889626302477321</v>
       </c>
       <c r="J771" t="n">
-        <v>96.19610472533579</v>
+        <v>0.1212175159764217</v>
       </c>
       <c r="K771" t="n">
         <v>185.7203726648706</v>
       </c>
       <c r="L771" t="n">
-        <v>0</v>
+        <v>52.1572882438211</v>
       </c>
       <c r="M771" t="n">
-        <v>0</v>
+        <v>82.28398739950553</v>
       </c>
       <c r="N771" t="n">
-        <v>66.19610472533577</v>
+        <v>-29.87878248402357</v>
       </c>
       <c r="O771" t="n">
         <v>30</v>
@@ -61407,28 +61407,28 @@
         </is>
       </c>
       <c r="G772" t="n">
-        <v>99.31017601392523</v>
+        <v>1.146391919018521</v>
       </c>
       <c r="H772" t="n">
-        <v>96.29987605728542</v>
+        <v>-1.863908037621291</v>
       </c>
       <c r="I772" t="n">
-        <v>1e-30</v>
+        <v>0.1269164061756783</v>
       </c>
       <c r="J772" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.967679369570925</v>
       </c>
       <c r="K772" t="n">
         <v>185.4850675744813</v>
       </c>
       <c r="L772" t="n">
-        <v>0</v>
+        <v>53.65638783417613</v>
       </c>
       <c r="M772" t="n">
-        <v>0</v>
+        <v>82.65933081976466</v>
       </c>
       <c r="N772" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.96767936957093</v>
       </c>
       <c r="O772" t="n">
         <v>30</v>
@@ -61486,28 +61486,28 @@
         </is>
       </c>
       <c r="G773" t="n">
-        <v>99.54974854889716</v>
+        <v>2.822673085668432</v>
       </c>
       <c r="H773" t="n">
-        <v>96.53944859225734</v>
+        <v>-0.18762687097138</v>
       </c>
       <c r="I773" t="n">
-        <v>1e-30</v>
+        <v>0.08318042697231492</v>
       </c>
       <c r="J773" t="n">
-        <v>96.19610472533579</v>
+        <v>-0.5309707378929556</v>
       </c>
       <c r="K773" t="n">
         <v>185.2454950395094</v>
       </c>
       <c r="L773" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>55.26114821430271</v>
       </c>
       <c r="M773" t="n">
-        <v>-48.81190820827214</v>
+        <v>83.11013157259295</v>
       </c>
       <c r="N773" t="n">
-        <v>66.19610472533577</v>
+        <v>-30.53097073789296</v>
       </c>
       <c r="O773" t="n">
         <v>30</v>
@@ -61565,28 +61565,28 @@
         </is>
       </c>
       <c r="G774" t="n">
-        <v>99.79353577973444</v>
+        <v>-0.7594120311036278</v>
       </c>
       <c r="H774" t="n">
-        <v>96.78323582309463</v>
+        <v>-3.76971198774344</v>
       </c>
       <c r="I774" t="n">
-        <v>1e-30</v>
+        <v>0.1797593704034398</v>
       </c>
       <c r="J774" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.356843085502301</v>
       </c>
       <c r="K774" t="n">
         <v>185.0017078086721</v>
       </c>
       <c r="L774" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>56.98215593193225</v>
       </c>
       <c r="M774" t="n">
-        <v>-49.05100223713016</v>
+        <v>83.65831112018283</v>
       </c>
       <c r="N774" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.3568430855023</v>
       </c>
       <c r="O774" t="n">
         <v>30</v>
@@ -61644,28 +61644,28 @@
         </is>
       </c>
       <c r="G775" t="n">
-        <v>100.0414457172344</v>
+        <v>-0.3166590782033693</v>
       </c>
       <c r="H775" t="n">
-        <v>97.03114576059463</v>
+        <v>-3.326959034843181</v>
       </c>
       <c r="I775" t="n">
-        <v>1e-30</v>
+        <v>0.1674728814112287</v>
       </c>
       <c r="J775" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.162000070102032</v>
       </c>
       <c r="K775" t="n">
         <v>184.7537978711721</v>
       </c>
       <c r="L775" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>58.83080663694846</v>
       </c>
       <c r="M775" t="n">
-        <v>-49.44319592605245</v>
+        <v>84.33314653968134</v>
       </c>
       <c r="N775" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.16200007010203</v>
       </c>
       <c r="O775" t="n">
         <v>30</v>
@@ -61723,28 +61723,28 @@
         </is>
       </c>
       <c r="G776" t="n">
-        <v>100.2933385753856</v>
+        <v>2.917175514482262</v>
       </c>
       <c r="H776" t="n">
-        <v>97.28303861874581</v>
+        <v>-0.09312444215755021</v>
       </c>
       <c r="I776" t="n">
-        <v>1e-30</v>
+        <v>0.08088666122200616</v>
       </c>
       <c r="J776" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.18005833556758</v>
       </c>
       <c r="K776" t="n">
         <v>184.501905013021</v>
       </c>
       <c r="L776" t="n">
-        <v>1.478779333471098e-06</v>
+        <v>60.81904301912367</v>
       </c>
       <c r="M776" t="n">
-        <v>-53.03806277814608</v>
+        <v>85.17408990949835</v>
       </c>
       <c r="N776" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.18005833556758</v>
       </c>
       <c r="O776" t="n">
         <v>30</v>
@@ -61802,28 +61802,28 @@
         </is>
       </c>
       <c r="G777" t="n">
-        <v>100.54901666762</v>
+        <v>-10.51203600273298</v>
       </c>
       <c r="H777" t="n">
-        <v>97.53871671098014</v>
+        <v>-13.52233595937279</v>
       </c>
       <c r="I777" t="n">
-        <v>1e-30</v>
+        <v>0.3828039322465069</v>
       </c>
       <c r="J777" t="n">
-        <v>96.19610472533579</v>
+        <v>-14.86494794501716</v>
       </c>
       <c r="K777" t="n">
         <v>184.2462269207866</v>
       </c>
       <c r="L777" t="n">
-        <v>1.707547292503188e-06</v>
+        <v>62.9588288953997</v>
       </c>
       <c r="M777" t="n">
-        <v>-50.59787679062297</v>
+        <v>86.23479458467558</v>
       </c>
       <c r="N777" t="n">
-        <v>66.19610472533577</v>
+        <v>-44.86494794501716</v>
       </c>
       <c r="O777" t="n">
         <v>30</v>
@@ -61881,28 +61881,28 @@
         </is>
       </c>
       <c r="G778" t="n">
-        <v>100.8082125831053</v>
+        <v>1.093123158679524</v>
       </c>
       <c r="H778" t="n">
-        <v>97.79791262646546</v>
+        <v>-1.917176797960288</v>
       </c>
       <c r="I778" t="n">
-        <v>1e-30</v>
+        <v>0.1283736728314916</v>
       </c>
       <c r="J778" t="n">
-        <v>96.19610472533579</v>
+        <v>-3.518984699089967</v>
       </c>
       <c r="K778" t="n">
         <v>183.9870310053013</v>
       </c>
       <c r="L778" t="n">
-        <v>2.091309789151873e-06</v>
+        <v>65.26120275148922</v>
       </c>
       <c r="M778" t="n">
-        <v>-51.33028464221214</v>
+        <v>87.58890212280303</v>
       </c>
       <c r="N778" t="n">
-        <v>66.19610472533577</v>
+        <v>-33.51898469908997</v>
       </c>
       <c r="O778" t="n">
         <v>30</v>
@@ -61960,28 +61960,28 @@
         </is>
       </c>
       <c r="G779" t="n">
-        <v>101.0705754026332</v>
+        <v>2.304129283955532</v>
       </c>
       <c r="H779" t="n">
-        <v>98.06027544599334</v>
+        <v>-0.706170672684281</v>
       </c>
       <c r="I779" t="n">
-        <v>1e-30</v>
+        <v>0.0961532049221514</v>
       </c>
       <c r="J779" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.570341393341861</v>
       </c>
       <c r="K779" t="n">
         <v>183.7246681857734</v>
       </c>
       <c r="L779" t="n">
-        <v>2.561320938754782e-06</v>
+        <v>67.73468687709338</v>
       </c>
       <c r="M779" t="n">
-        <v>-54.12980996921146</v>
+        <v>89.3383851853353</v>
       </c>
       <c r="N779" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.57034139334186</v>
       </c>
       <c r="O779" t="n">
         <v>30</v>
@@ -62039,28 +62039,28 @@
         </is>
       </c>
       <c r="G780" t="n">
-        <v>101.3356548376128</v>
+        <v>-3.704461899445059</v>
       </c>
       <c r="H780" t="n">
-        <v>98.32535488097299</v>
+        <v>-6.714761856084871</v>
       </c>
       <c r="I780" t="n">
-        <v>1e-30</v>
+        <v>0.2569441824819045</v>
       </c>
       <c r="J780" t="n">
-        <v>96.19610472533579</v>
+        <v>-8.844012011722091</v>
       </c>
       <c r="K780" t="n">
         <v>183.4595887507938</v>
       </c>
       <c r="L780" t="n">
-        <v>2.957558666942197e-06</v>
+        <v>70.38276924646483</v>
       </c>
       <c r="M780" t="n">
-        <v>-54.7612594245557</v>
+        <v>91.62554489889703</v>
       </c>
       <c r="N780" t="n">
-        <v>66.19610472533577</v>
+        <v>-38.84401201172209</v>
       </c>
       <c r="O780" t="n">
         <v>30</v>
@@ -62118,28 +62118,28 @@
         </is>
       </c>
       <c r="G781" t="n">
-        <v>101.602883211054</v>
+        <v>1.288645802777736</v>
       </c>
       <c r="H781" t="n">
-        <v>98.59258325441418</v>
+        <v>-1.721654153862076</v>
       </c>
       <c r="I781" t="n">
-        <v>1e-30</v>
+        <v>0.1230383823537367</v>
       </c>
       <c r="J781" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.118132682940489</v>
       </c>
       <c r="K781" t="n">
         <v>183.1923603773525</v>
       </c>
       <c r="L781" t="n">
-        <v>3.520198923864051e-06</v>
+        <v>73.20014879477495</v>
       </c>
       <c r="M781" t="n">
-        <v>-55.50888022103064</v>
+        <v>94.64996694576291</v>
       </c>
       <c r="N781" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.11813268294049</v>
       </c>
       <c r="O781" t="n">
         <v>30</v>
@@ -62197,28 +62197,28 @@
         </is>
       </c>
       <c r="G782" t="n">
-        <v>101.8715552545081</v>
+        <v>0.99983803430021</v>
       </c>
       <c r="H782" t="n">
-        <v>98.86125529786824</v>
+        <v>-2.010461922339602</v>
       </c>
       <c r="I782" t="n">
-        <v>1e-30</v>
+        <v>0.130931747656721</v>
       </c>
       <c r="J782" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.675612494872074</v>
       </c>
       <c r="K782" t="n">
         <v>182.9236883338985</v>
       </c>
       <c r="L782" t="n">
-        <v>4.182619578303749e-06</v>
+        <v>76.16754848248225</v>
       </c>
       <c r="M782" t="n">
-        <v>-57.57870923707445</v>
+        <v>98.69126059358312</v>
       </c>
       <c r="N782" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.67561249487207</v>
       </c>
       <c r="O782" t="n">
         <v>30</v>
@@ -62276,28 +62276,28 @@
         </is>
       </c>
       <c r="G783" t="n">
-        <v>102.1408059935298</v>
+        <v>1.470594852129551</v>
       </c>
       <c r="H783" t="n">
-        <v>99.13050603688998</v>
+        <v>-1.539705104510262</v>
       </c>
       <c r="I783" t="n">
-        <v>1e-30</v>
+        <v>0.1181104777079285</v>
       </c>
       <c r="J783" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.474106416064463</v>
       </c>
       <c r="K783" t="n">
         <v>182.6544375948768</v>
       </c>
       <c r="L783" t="n">
-        <v>4.904556196855485e-06</v>
+        <v>79.2452853884586</v>
       </c>
       <c r="M783" t="n">
-        <v>-58.37878112513078</v>
+        <v>104.1350559455791</v>
       </c>
       <c r="N783" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.47410641606447</v>
       </c>
       <c r="O783" t="n">
         <v>30</v>
@@ -62355,28 +62355,28 @@
         </is>
       </c>
       <c r="G784" t="n">
-        <v>102.4095872297708</v>
+        <v>-9.478030866403461</v>
       </c>
       <c r="H784" t="n">
-        <v>99.39928727313101</v>
+        <v>-12.48833082304327</v>
       </c>
       <c r="I784" t="n">
-        <v>1e-30</v>
+        <v>0.3685056657768363</v>
       </c>
       <c r="J784" t="n">
-        <v>96.19610472533579</v>
+        <v>-15.69151337083851</v>
       </c>
       <c r="K784" t="n">
         <v>182.3856563586357</v>
       </c>
       <c r="L784" t="n">
-        <v>5.598568198963999e-06</v>
+        <v>82.36661966316628</v>
       </c>
       <c r="M784" t="n">
-        <v>-58.39853813815022</v>
+        <v>111.4868255682241</v>
       </c>
       <c r="N784" t="n">
-        <v>66.19610472533577</v>
+        <v>-45.69151337083851</v>
       </c>
       <c r="O784" t="n">
         <v>30</v>
@@ -62420,13 +62420,13 @@
         <v>14</v>
       </c>
       <c r="C785" t="n">
-        <v>320.8972963929696</v>
+        <v>320.8972963929757</v>
       </c>
       <c r="D785" t="n">
-        <v>19.16267346432156</v>
+        <v>19.16267346431828</v>
       </c>
       <c r="E785" t="n">
-        <v>1507.26451144874</v>
+        <v>1507.264511448884</v>
       </c>
       <c r="F785" t="inlineStr">
         <is>
@@ -62434,52 +62434,52 @@
         </is>
       </c>
       <c r="G785" t="n">
-        <v>102.6766435015415</v>
+        <v>-7.347791071181174</v>
       </c>
       <c r="H785" t="n">
-        <v>99.66634354490174</v>
+        <v>-10.35809102782099</v>
       </c>
       <c r="I785" t="n">
-        <v>1e-30</v>
+        <v>0.3339065556363731</v>
       </c>
       <c r="J785" t="n">
-        <v>96.19610472533579</v>
+        <v>-13.82832984738611</v>
       </c>
       <c r="K785" t="n">
-        <v>182.118600086865</v>
+        <v>182.1186000868659</v>
       </c>
       <c r="L785" t="n">
-        <v>6.668185343934168e-06</v>
+        <v>85.43316729588894</v>
       </c>
       <c r="M785" t="n">
-        <v>-60.35538507338078</v>
+        <v>121.3200349697838</v>
       </c>
       <c r="N785" t="n">
-        <v>66.19610472533577</v>
+        <v>-43.82832984738612</v>
       </c>
       <c r="O785" t="n">
         <v>30</v>
       </c>
       <c r="P785" t="n">
-        <v>-4938.813564823733</v>
+        <v>-4938.813564823893</v>
       </c>
       <c r="Q785" t="n">
-        <v>724.2641262742457</v>
+        <v>724.2641262742258</v>
       </c>
       <c r="R785" t="n">
-        <v>-4919.135908859577</v>
+        <v>-4919.135908859419</v>
       </c>
       <c r="S785" t="n">
-        <v>5.344134645824986</v>
+        <v>5.344134645824814</v>
       </c>
       <c r="T785" t="n">
-        <v>0.6834163445803801</v>
+        <v>0.6834163445804056</v>
       </c>
       <c r="U785" t="n">
-        <v>-5.269184615348065</v>
+        <v>-5.269184615348234</v>
       </c>
       <c r="V785" t="n">
-        <v>7.535989618050657</v>
+        <v>7.535989618050656</v>
       </c>
       <c r="W785" t="n">
         <v>-44.89564343362636</v>
@@ -62513,28 +62513,28 @@
         </is>
       </c>
       <c r="G786" t="n">
-        <v>102.9404889665512</v>
+        <v>2.186006456451651</v>
       </c>
       <c r="H786" t="n">
-        <v>99.93018900991139</v>
+        <v>-0.8242935001881611</v>
       </c>
       <c r="I786" t="n">
-        <v>1e-30</v>
+        <v>0.09919086579603442</v>
       </c>
       <c r="J786" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.558377784763779</v>
       </c>
       <c r="K786" t="n">
         <v>181.8547546218554</v>
       </c>
       <c r="L786" t="n">
-        <v>7.917571076845613e-06</v>
+        <v>88.31587363253303</v>
       </c>
       <c r="M786" t="n">
-        <v>-62.1920319462216</v>
+        <v>134.0337705460365</v>
       </c>
       <c r="N786" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.55837778476378</v>
       </c>
       <c r="O786" t="n">
         <v>30</v>
@@ -62592,28 +62592,28 @@
         </is>
       </c>
       <c r="G787" t="n">
-        <v>103.1993873648848</v>
+        <v>7.003282639548982</v>
       </c>
       <c r="H787" t="n">
-        <v>100.1890874082449</v>
+        <v>3.99298268290917</v>
       </c>
       <c r="I787" t="n">
-        <v>1e-30</v>
+        <v>0.01255951014717645</v>
       </c>
       <c r="J787" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K787" t="n">
         <v>181.5958562235218</v>
       </c>
       <c r="L787" t="n">
-        <v>9.155702348202514e-06</v>
+        <v>90.8649508273038</v>
       </c>
       <c r="M787" t="n">
-        <v>-62.83275723811577</v>
+        <v>149.3165823062315</v>
       </c>
       <c r="N787" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O787" t="n">
         <v>30</v>
@@ -62671,28 +62671,28 @@
         </is>
       </c>
       <c r="G788" t="n">
-        <v>103.4513380736197</v>
+        <v>7.255233348283957</v>
       </c>
       <c r="H788" t="n">
-        <v>100.4410381169799</v>
+        <v>4.244933391644145</v>
       </c>
       <c r="I788" t="n">
-        <v>1e-30</v>
+        <v>0.010569806331254</v>
       </c>
       <c r="J788" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K788" t="n">
         <v>181.3439055147869</v>
       </c>
       <c r="L788" t="n">
-        <v>1.083317311245573e-05</v>
+        <v>92.92947819092477</v>
       </c>
       <c r="M788" t="n">
-        <v>-64.76155283076008</v>
+        <v>165.7111866057222</v>
       </c>
       <c r="N788" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O788" t="n">
         <v>30</v>
@@ -62750,28 +62750,28 @@
         </is>
       </c>
       <c r="G789" t="n">
-        <v>103.6940718334825</v>
+        <v>7.497967108146754</v>
       </c>
       <c r="H789" t="n">
-        <v>100.6837718768427</v>
+        <v>4.487667151506941</v>
       </c>
       <c r="I789" t="n">
-        <v>1e-30</v>
+        <v>0.008874364874824714</v>
       </c>
       <c r="J789" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K789" t="n">
         <v>181.101171754924</v>
       </c>
       <c r="L789" t="n">
-        <v>1.263469616367533e-05</v>
+        <v>94.38229509368944</v>
       </c>
       <c r="M789" t="n">
-        <v>-66.26197545788625</v>
+        <v>-178.7928788125796</v>
       </c>
       <c r="N789" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O789" t="n">
         <v>30</v>
@@ -62829,28 +62829,28 @@
         </is>
       </c>
       <c r="G790" t="n">
-        <v>103.9250621303925</v>
+        <v>7.728957405056732</v>
       </c>
       <c r="H790" t="n">
-        <v>100.9147621737527</v>
+        <v>4.71865744841692</v>
       </c>
       <c r="I790" t="n">
-        <v>1e-30</v>
+        <v>0.007451791049007389</v>
       </c>
       <c r="J790" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K790" t="n">
         <v>180.8701814580141</v>
       </c>
       <c r="L790" t="n">
-        <v>0</v>
+        <v>95.14153785976218</v>
       </c>
       <c r="M790" t="n">
-        <v>0</v>
+        <v>-165.5049831334699</v>
       </c>
       <c r="N790" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O790" t="n">
         <v>30</v>
@@ -62908,28 +62908,28 @@
         </is>
       </c>
       <c r="G791" t="n">
-        <v>104.1415496813784</v>
+        <v>7.945444956042628</v>
       </c>
       <c r="H791" t="n">
-        <v>101.1312497247386</v>
+        <v>4.935144999402817</v>
       </c>
       <c r="I791" t="n">
-        <v>1e-30</v>
+        <v>0.006277315066774404</v>
       </c>
       <c r="J791" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K791" t="n">
         <v>180.6536939070282</v>
       </c>
       <c r="L791" t="n">
-        <v>1.478779333471098e-06</v>
+        <v>95.18072587743424</v>
       </c>
       <c r="M791" t="n">
-        <v>-71.71916734540308</v>
+        <v>-154.6732276151262</v>
       </c>
       <c r="N791" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O791" t="n">
         <v>30</v>
@@ -62987,28 +62987,28 @@
         </is>
       </c>
       <c r="G792" t="n">
-        <v>104.3406032533921</v>
+        <v>8.144498528056323</v>
       </c>
       <c r="H792" t="n">
-        <v>101.3303032967523</v>
+        <v>5.13419857141651</v>
       </c>
       <c r="I792" t="n">
-        <v>1e-30</v>
+        <v>0.005324299890232355</v>
       </c>
       <c r="J792" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K792" t="n">
         <v>180.4546403350145</v>
       </c>
       <c r="L792" t="n">
-        <v>3.520198923864051e-06</v>
+        <v>94.52484970160252</v>
       </c>
       <c r="M792" t="n">
-        <v>-72.10230476697488</v>
+        <v>-145.9801107687291</v>
       </c>
       <c r="N792" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O792" t="n">
         <v>30</v>
@@ -63066,28 +63066,28 @@
         </is>
       </c>
       <c r="G793" t="n">
-        <v>104.5191953361006</v>
+        <v>8.32309061076479</v>
       </c>
       <c r="H793" t="n">
-        <v>101.5088953794607</v>
+        <v>5.312790654124978</v>
       </c>
       <c r="I793" t="n">
-        <v>1e-30</v>
+        <v>0.00456588685949883</v>
       </c>
       <c r="J793" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K793" t="n">
         <v>180.276048252306</v>
       </c>
       <c r="L793" t="n">
-        <v>5.727287731249277e-06</v>
+        <v>93.23671751843617</v>
       </c>
       <c r="M793" t="n">
-        <v>-74.71501950403686</v>
+        <v>-138.9940696651293</v>
       </c>
       <c r="N793" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O793" t="n">
         <v>30</v>
@@ -63145,28 +63145,28 @@
         </is>
       </c>
       <c r="G794" t="n">
-        <v>104.6743122515323</v>
+        <v>8.47820752619657</v>
       </c>
       <c r="H794" t="n">
-        <v>101.6640122948925</v>
+        <v>5.467907569556758</v>
       </c>
       <c r="I794" t="n">
-        <v>1e-30</v>
+        <v>0.003976509865766018</v>
       </c>
       <c r="J794" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K794" t="n">
         <v>180.1209313368742</v>
       </c>
       <c r="L794" t="n">
-        <v>8.009106731400806e-06</v>
+        <v>91.40043182526999</v>
       </c>
       <c r="M794" t="n">
-        <v>-76.48506729528204</v>
+        <v>-133.3423145314143</v>
       </c>
       <c r="N794" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O794" t="n">
         <v>30</v>
@@ -63224,28 +63224,28 @@
         </is>
       </c>
       <c r="G795" t="n">
-        <v>104.8030879202515</v>
+        <v>5.376047912950645</v>
       </c>
       <c r="H795" t="n">
-        <v>101.7927879636117</v>
+        <v>2.365747956310832</v>
       </c>
       <c r="I795" t="n">
-        <v>1e-30</v>
+        <v>0.03165846471465616</v>
       </c>
       <c r="J795" t="n">
-        <v>96.19610472533579</v>
+        <v>-3.230935281965123</v>
       </c>
       <c r="K795" t="n">
         <v>179.992155668155</v>
       </c>
       <c r="L795" t="n">
-        <v>1.066362942385307e-05</v>
+        <v>89.10748215058473</v>
       </c>
       <c r="M795" t="n">
-        <v>-79.11631077701952</v>
+        <v>-128.7374746383751</v>
       </c>
       <c r="N795" t="n">
-        <v>66.19610472533577</v>
+        <v>-33.23093528196512</v>
       </c>
       <c r="O795" t="n">
         <v>30</v>
@@ -63303,28 +63303,28 @@
         </is>
       </c>
       <c r="G796" t="n">
-        <v>104.9029544646104</v>
+        <v>-28.27083746516214</v>
       </c>
       <c r="H796" t="n">
-        <v>101.8926545079706</v>
+        <v>-31.28113742180195</v>
       </c>
       <c r="I796" t="n">
-        <v>1e-30</v>
+        <v>0.4846092274355487</v>
       </c>
       <c r="J796" t="n">
-        <v>96.19610472533579</v>
+        <v>-36.97768720443678</v>
       </c>
       <c r="K796" t="n">
         <v>179.8922891237961</v>
       </c>
       <c r="L796" t="n">
-        <v>1.34993466419097e-05</v>
+        <v>86.44761898797502</v>
       </c>
       <c r="M796" t="n">
-        <v>-81.74140187854672</v>
+        <v>-124.962833359777</v>
       </c>
       <c r="N796" t="n">
-        <v>66.19610472533577</v>
+        <v>-66.97768720443679</v>
       </c>
       <c r="O796" t="n">
         <v>30</v>
@@ -63382,28 +63382,28 @@
         </is>
       </c>
       <c r="G797" t="n">
-        <v>104.9717960919089</v>
+        <v>-7.825493738825599</v>
       </c>
       <c r="H797" t="n">
-        <v>101.9614961352691</v>
+        <v>-10.83579369546541</v>
       </c>
       <c r="I797" t="n">
-        <v>1e-30</v>
+        <v>0.3423028454296649</v>
       </c>
       <c r="J797" t="n">
-        <v>96.19610472533579</v>
+        <v>-16.60118510539875</v>
       </c>
       <c r="K797" t="n">
         <v>179.8234474964976</v>
       </c>
       <c r="L797" t="n">
-        <v>1.633365160294405e-05</v>
+        <v>83.50411895691816</v>
       </c>
       <c r="M797" t="n">
-        <v>-84.06060836334419</v>
+        <v>-121.8537589570739</v>
       </c>
       <c r="N797" t="n">
-        <v>66.19610472533577</v>
+        <v>-46.60118510539875</v>
       </c>
       <c r="O797" t="n">
         <v>30</v>
@@ -63461,28 +63461,28 @@
         </is>
       </c>
       <c r="G798" t="n">
-        <v>105.0080898654102</v>
+        <v>4.224059024099985</v>
       </c>
       <c r="H798" t="n">
-        <v>101.9977899087703</v>
+        <v>1.213759067460173</v>
       </c>
       <c r="I798" t="n">
-        <v>1e-30</v>
+        <v>0.05194201737821302</v>
       </c>
       <c r="J798" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.587926115974384</v>
       </c>
       <c r="K798" t="n">
         <v>179.7871537229964</v>
       </c>
       <c r="L798" t="n">
-        <v>0</v>
+        <v>80.35198941487234</v>
       </c>
       <c r="M798" t="n">
-        <v>0</v>
+        <v>-119.283485818853</v>
       </c>
       <c r="N798" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.58792611597438</v>
       </c>
       <c r="O798" t="n">
         <v>30</v>
@@ -63540,28 +63540,28 @@
         </is>
       </c>
       <c r="G799" t="n">
-        <v>105.011013132709</v>
+        <v>6.047981264470915</v>
       </c>
       <c r="H799" t="n">
-        <v>102.0007131760692</v>
+        <v>3.037681307831103</v>
       </c>
       <c r="I799" t="n">
-        <v>1e-30</v>
+        <v>0.02241133463922772</v>
       </c>
       <c r="J799" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.766927142902279</v>
       </c>
       <c r="K799" t="n">
         <v>179.7842304556976</v>
       </c>
       <c r="L799" t="n">
-        <v>2.831646840510159e-06</v>
+        <v>77.05779512488272</v>
       </c>
       <c r="M799" t="n">
-        <v>-88.0563194037131</v>
+        <v>-117.1532594919542</v>
       </c>
       <c r="N799" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.76692714290228</v>
       </c>
       <c r="O799" t="n">
         <v>30</v>
@@ -63619,28 +63619,28 @@
         </is>
       </c>
       <c r="G800" t="n">
-        <v>104.980506619896</v>
+        <v>5.904858779716987</v>
       </c>
       <c r="H800" t="n">
-        <v>101.9702066632561</v>
+        <v>2.894558823077176</v>
       </c>
       <c r="I800" t="n">
-        <v>1e-30</v>
+        <v>0.0242178073857297</v>
       </c>
       <c r="J800" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.879543114843202</v>
       </c>
       <c r="K800" t="n">
         <v>179.8147369685106</v>
       </c>
       <c r="L800" t="n">
-        <v>5.663293681020324e-06</v>
+        <v>73.67989527023666</v>
       </c>
       <c r="M800" t="n">
-        <v>-92.56006906902304</v>
+        <v>-115.3853899137165</v>
       </c>
       <c r="N800" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.8795431148432</v>
       </c>
       <c r="O800" t="n">
         <v>30</v>
@@ -63698,28 +63698,28 @@
         </is>
       </c>
       <c r="G801" t="n">
-        <v>104.9172774634501</v>
+        <v>3.853022045799225</v>
       </c>
       <c r="H801" t="n">
-        <v>101.9069775068103</v>
+        <v>0.8427220891594123</v>
       </c>
       <c r="I801" t="n">
-        <v>1e-30</v>
+        <v>0.05958107222703035</v>
       </c>
       <c r="J801" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.86815069231508</v>
       </c>
       <c r="K801" t="n">
         <v>179.8779661249565</v>
       </c>
       <c r="L801" t="n">
-        <v>8.189109132934098e-06</v>
+        <v>70.26893280700621</v>
       </c>
       <c r="M801" t="n">
-        <v>-94.52876059467964</v>
+        <v>-113.9183537090532</v>
       </c>
       <c r="N801" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.86815069231508</v>
       </c>
       <c r="O801" t="n">
         <v>30</v>
@@ -63777,28 +63777,28 @@
         </is>
       </c>
       <c r="G802" t="n">
-        <v>104.8227468241726</v>
+        <v>4.210207557885925</v>
       </c>
       <c r="H802" t="n">
-        <v>101.8124468675328</v>
+        <v>1.199907601246113</v>
       </c>
       <c r="I802" t="n">
-        <v>1e-30</v>
+        <v>0.05221809725225723</v>
       </c>
       <c r="J802" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.416434540950871</v>
       </c>
       <c r="K802" t="n">
         <v>179.972496764234</v>
       </c>
       <c r="L802" t="n">
-        <v>1.056059677159221e-05</v>
+        <v>66.86816767450456</v>
       </c>
       <c r="M802" t="n">
-        <v>-97.18904354988841</v>
+        <v>-112.703145721411</v>
       </c>
       <c r="N802" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.41643454095087</v>
       </c>
       <c r="O802" t="n">
         <v>30</v>
@@ -63856,28 +63856,28 @@
         </is>
       </c>
       <c r="G803" t="n">
-        <v>104.6989476934934</v>
+        <v>3.94511633048804</v>
       </c>
       <c r="H803" t="n">
-        <v>101.6886477368536</v>
+        <v>0.9348163738482278</v>
       </c>
       <c r="I803" t="n">
-        <v>1e-30</v>
+        <v>0.05763859220211776</v>
       </c>
       <c r="J803" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.557726637669602</v>
       </c>
       <c r="K803" t="n">
         <v>180.0962958949131</v>
       </c>
       <c r="L803" t="n">
-        <v>1.269225771982509e-05</v>
+        <v>63.51376945615834</v>
       </c>
       <c r="M803" t="n">
-        <v>-99.31726323211278</v>
+        <v>-111.70053842453</v>
       </c>
       <c r="N803" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.5577266376696</v>
       </c>
       <c r="O803" t="n">
         <v>30</v>
@@ -63935,28 +63935,28 @@
         </is>
       </c>
       <c r="G804" t="n">
-        <v>104.5483882029293</v>
+        <v>-0.9702686550787082</v>
       </c>
       <c r="H804" t="n">
-        <v>101.5380882462895</v>
+        <v>-3.980568611718521</v>
       </c>
       <c r="I804" t="n">
-        <v>1e-30</v>
+        <v>0.1855788636833971</v>
       </c>
       <c r="J804" t="n">
-        <v>96.19610472533579</v>
+        <v>-9.322552132672254</v>
       </c>
       <c r="K804" t="n">
         <v>180.2468553854773</v>
       </c>
       <c r="L804" t="n">
-        <v>1.45892904624542e-05</v>
+        <v>60.23512974539697</v>
       </c>
       <c r="M804" t="n">
-        <v>-101.7308228540566</v>
+        <v>-110.8789898980241</v>
       </c>
       <c r="N804" t="n">
-        <v>66.19610472533577</v>
+        <v>-39.32255213267225</v>
       </c>
       <c r="O804" t="n">
         <v>30</v>
@@ -64014,28 +64014,28 @@
         </is>
       </c>
       <c r="G805" t="n">
-        <v>104.3738985289307</v>
+        <v>1.458824747814319</v>
       </c>
       <c r="H805" t="n">
-        <v>101.3635985722909</v>
+        <v>-1.551475208825494</v>
       </c>
       <c r="I805" t="n">
-        <v>1e-30</v>
+        <v>0.1184280663172478</v>
       </c>
       <c r="J805" t="n">
-        <v>96.19610472533579</v>
+        <v>-6.718969055780634</v>
       </c>
       <c r="K805" t="n">
         <v>180.4213450594758</v>
       </c>
       <c r="L805" t="n">
-        <v>1.608632807252747e-05</v>
+        <v>57.05526239770748</v>
       </c>
       <c r="M805" t="n">
-        <v>-103.9843863101577</v>
+        <v>-110.2130336982214</v>
       </c>
       <c r="N805" t="n">
-        <v>66.19610472533577</v>
+        <v>-36.71896905578063</v>
       </c>
       <c r="O805" t="n">
         <v>30</v>
@@ -64093,28 +64093,28 @@
         </is>
       </c>
       <c r="G806" t="n">
-        <v>104.1784778531226</v>
+        <v>6.371640536115491</v>
       </c>
       <c r="H806" t="n">
-        <v>101.1681778964828</v>
+        <v>3.361340579475677</v>
       </c>
       <c r="I806" t="n">
-        <v>1e-30</v>
+        <v>0.0186490618568058</v>
       </c>
       <c r="J806" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.610732591671306</v>
       </c>
       <c r="K806" t="n">
         <v>180.616765735284</v>
       </c>
       <c r="L806" t="n">
-        <v>0</v>
+        <v>53.99130654403211</v>
       </c>
       <c r="M806" t="n">
-        <v>0</v>
+        <v>-109.6820260413653</v>
       </c>
       <c r="N806" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.6107325916713</v>
       </c>
       <c r="O806" t="n">
         <v>30</v>
@@ -64172,28 +64172,28 @@
         </is>
       </c>
       <c r="G807" t="n">
-        <v>103.9651612981981</v>
+        <v>-19.17341395885621</v>
       </c>
       <c r="H807" t="n">
-        <v>100.9548613415583</v>
+        <v>-22.18371391549601</v>
       </c>
       <c r="I807" t="n">
-        <v>1e-30</v>
+        <v>0.4562110529676326</v>
       </c>
       <c r="J807" t="n">
-        <v>96.19610472533579</v>
+        <v>-26.94247053171857</v>
       </c>
       <c r="K807" t="n">
         <v>180.8300822902084</v>
       </c>
       <c r="L807" t="n">
-        <v>1.909095910416423e-06</v>
+        <v>51.05522521454699</v>
       </c>
       <c r="M807" t="n">
-        <v>-106.4680070576769</v>
+        <v>-109.2692058007176</v>
       </c>
       <c r="N807" t="n">
-        <v>66.19610472533577</v>
+        <v>-56.94247053171857</v>
       </c>
       <c r="O807" t="n">
         <v>30</v>
@@ -64251,28 +64251,28 @@
         </is>
       </c>
       <c r="G808" t="n">
-        <v>103.7369010594415</v>
+        <v>6.501977066778913</v>
       </c>
       <c r="H808" t="n">
-        <v>100.7266011028017</v>
+        <v>3.491677110139102</v>
       </c>
       <c r="I808" t="n">
-        <v>1e-30</v>
+        <v>0.01725890623241525</v>
       </c>
       <c r="J808" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.038819267326773</v>
       </c>
       <c r="K808" t="n">
         <v>181.0583425289651</v>
       </c>
       <c r="L808" t="n">
-        <v>3.078324659199976e-06</v>
+        <v>48.25441469569349</v>
       </c>
       <c r="M808" t="n">
-        <v>-109.4972708386644</v>
+        <v>-108.9608968752677</v>
       </c>
       <c r="N808" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.03881926732677</v>
       </c>
       <c r="O808" t="n">
         <v>30</v>
@@ -64330,28 +64330,28 @@
         </is>
       </c>
       <c r="G809" t="n">
-        <v>103.4964851302925</v>
+        <v>8.748334928607456</v>
       </c>
       <c r="H809" t="n">
-        <v>100.4861851736527</v>
+        <v>5.738034971967644</v>
       </c>
       <c r="I809" t="n">
-        <v>1e-30</v>
+        <v>0.003091693084001365</v>
       </c>
       <c r="J809" t="n">
-        <v>96.19610472533579</v>
+        <v>1.44795452365069</v>
       </c>
       <c r="K809" t="n">
         <v>181.298758458114</v>
       </c>
       <c r="L809" t="n">
-        <v>4.09455456646704e-06</v>
+        <v>45.5925118732093</v>
       </c>
       <c r="M809" t="n">
-        <v>-110.7091173825526</v>
+        <v>-108.7459464469512</v>
       </c>
       <c r="N809" t="n">
-        <v>66.19610472533577</v>
+        <v>-28.55204547634931</v>
       </c>
       <c r="O809" t="n">
         <v>30</v>
@@ -64409,28 +64409,28 @@
         </is>
       </c>
       <c r="G810" t="n">
-        <v>103.2464789834709</v>
+        <v>-3.281795227254158</v>
       </c>
       <c r="H810" t="n">
-        <v>100.2361790268311</v>
+        <v>-6.29209518389397</v>
       </c>
       <c r="I810" t="n">
-        <v>1e-30</v>
+        <v>0.24656262866054</v>
       </c>
       <c r="J810" t="n">
-        <v>96.19610472533579</v>
+        <v>-10.33216948538931</v>
       </c>
       <c r="K810" t="n">
         <v>181.5487646049357</v>
       </c>
       <c r="L810" t="n">
-        <v>5.12264187750957e-06</v>
+        <v>43.07010244125092</v>
       </c>
       <c r="M810" t="n">
-        <v>-112.7229940184311</v>
+        <v>-108.615254183209</v>
       </c>
       <c r="N810" t="n">
-        <v>66.19610472533577</v>
+        <v>-40.3321694853893</v>
       </c>
       <c r="O810" t="n">
         <v>30</v>
@@ -64488,28 +64488,28 @@
         </is>
       </c>
       <c r="G811" t="n">
-        <v>102.9891927604829</v>
+        <v>5.542845401989065</v>
       </c>
       <c r="H811" t="n">
-        <v>99.97889280384305</v>
+        <v>2.532545445349252</v>
       </c>
       <c r="I811" t="n">
-        <v>1e-30</v>
+        <v>0.02918134660050082</v>
       </c>
       <c r="J811" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.250242633158027</v>
       </c>
       <c r="K811" t="n">
         <v>181.8060508279237</v>
       </c>
       <c r="L811" t="n">
-        <v>5.727287731249277e-06</v>
+        <v>40.68539461465217</v>
       </c>
       <c r="M811" t="n">
-        <v>-113.8783709611245</v>
+        <v>-108.5614072430517</v>
       </c>
       <c r="N811" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.25024263315803</v>
       </c>
       <c r="O811" t="n">
         <v>30</v>
@@ -64567,28 +64567,28 @@
         </is>
       </c>
       <c r="G812" t="n">
-        <v>102.7266685048542</v>
+        <v>6.912513221864564</v>
       </c>
       <c r="H812" t="n">
-        <v>99.71636854821439</v>
+        <v>3.902213265224752</v>
       </c>
       <c r="I812" t="n">
-        <v>1e-30</v>
+        <v>0.01333598383646993</v>
       </c>
       <c r="J812" t="n">
-        <v>96.19610472533579</v>
+        <v>0.3819494423461314</v>
       </c>
       <c r="K812" t="n">
         <v>182.0685750835523</v>
       </c>
       <c r="L812" t="n">
-        <v>6.331754823653231e-06</v>
+        <v>38.43481774672711</v>
       </c>
       <c r="M812" t="n">
-        <v>-115.5503468699114</v>
+        <v>-108.5783920117734</v>
       </c>
       <c r="N812" t="n">
-        <v>66.19610472533577</v>
+        <v>-29.61805055765387</v>
       </c>
       <c r="O812" t="n">
         <v>30</v>
@@ -64646,28 +64646,28 @@
         </is>
       </c>
       <c r="G813" t="n">
-        <v>102.4606824328576</v>
+        <v>10.14683826133855</v>
       </c>
       <c r="H813" t="n">
-        <v>99.45038247621774</v>
+        <v>7.136538304698734</v>
       </c>
       <c r="I813" t="n">
-        <v>1e-30</v>
+        <v>0.0006495203505693106</v>
       </c>
       <c r="J813" t="n">
-        <v>96.19610472533579</v>
+        <v>3.882260553816778</v>
       </c>
       <c r="K813" t="n">
         <v>182.334561155549</v>
       </c>
       <c r="L813" t="n">
-        <v>6.668185343934168e-06</v>
+        <v>36.31353377745337</v>
       </c>
       <c r="M813" t="n">
-        <v>-116.6016041631932</v>
+        <v>-108.6613655639079</v>
       </c>
       <c r="N813" t="n">
-        <v>66.19610472533577</v>
+        <v>-26.11773944618322</v>
       </c>
       <c r="O813" t="n">
         <v>30</v>
@@ -64725,28 +64725,28 @@
         </is>
       </c>
       <c r="G814" t="n">
-        <v>102.1927577335289</v>
+        <v>10.34851172770514</v>
       </c>
       <c r="H814" t="n">
-        <v>99.18245777688911</v>
+        <v>7.338211771065327</v>
       </c>
       <c r="I814" t="n">
-        <v>1e-30</v>
+        <v>0.000497847258786911</v>
       </c>
       <c r="J814" t="n">
-        <v>96.19610472533579</v>
+        <v>4.351858719511999</v>
       </c>
       <c r="K814" t="n">
         <v>182.6024858548777</v>
       </c>
       <c r="L814" t="n">
-        <v>6.830189170012768e-06</v>
+        <v>34.31585947529985</v>
       </c>
       <c r="M814" t="n">
-        <v>-118.062673734356</v>
+        <v>-108.8064747969762</v>
       </c>
       <c r="N814" t="n">
-        <v>66.19610472533577</v>
+        <v>-25.648141280488</v>
       </c>
       <c r="O814" t="n">
         <v>30</v>
@@ -64804,28 +64804,28 @@
         </is>
       </c>
       <c r="G815" t="n">
-        <v>101.9241838662274</v>
+        <v>10.74910237788909</v>
       </c>
       <c r="H815" t="n">
-        <v>98.91388390958754</v>
+        <v>7.738802421249273</v>
       </c>
       <c r="I815" t="n">
-        <v>1e-30</v>
+        <v>0.0002833090990620985</v>
       </c>
       <c r="J815" t="n">
-        <v>96.19610472533579</v>
+        <v>5.021023236997502</v>
       </c>
       <c r="K815" t="n">
         <v>182.8710597221792</v>
       </c>
       <c r="L815" t="n">
-        <v>7.091976543484083e-06</v>
+        <v>32.43560510726874</v>
       </c>
       <c r="M815" t="n">
-        <v>-118.6080704034752</v>
+        <v>-109.0107122884117</v>
       </c>
       <c r="N815" t="n">
-        <v>66.19610472533577</v>
+        <v>-24.9789767630025</v>
       </c>
       <c r="O815" t="n">
         <v>30</v>
@@ -64883,28 +64883,28 @@
         </is>
       </c>
       <c r="G816" t="n">
-        <v>101.6560393552168</v>
+        <v>11.29236781382407</v>
       </c>
       <c r="H816" t="n">
-        <v>98.64573939857699</v>
+        <v>8.282067857184256</v>
       </c>
       <c r="I816" t="n">
-        <v>1e-30</v>
+        <v>0.0001214664960750252</v>
       </c>
       <c r="J816" t="n">
-        <v>96.19610472533579</v>
+        <v>5.832433183943047</v>
       </c>
       <c r="K816" t="n">
         <v>183.1392042331898</v>
       </c>
       <c r="L816" t="n">
-        <v>7.194024615706839e-06</v>
+        <v>30.66633746085691</v>
       </c>
       <c r="M816" t="n">
-        <v>-119.557851293077</v>
+        <v>-109.2718021000732</v>
       </c>
       <c r="N816" t="n">
-        <v>66.19610472533577</v>
+        <v>-24.16756681605695</v>
       </c>
       <c r="O816" t="n">
         <v>30</v>
@@ -64962,28 +64962,28 @@
         </is>
       </c>
       <c r="G817" t="n">
-        <v>101.38921577917</v>
+        <v>11.50978618096432</v>
       </c>
       <c r="H817" t="n">
-        <v>98.37891582253023</v>
+        <v>8.499486224324507</v>
       </c>
       <c r="I817" t="n">
-        <v>1e-30</v>
+        <v>8.407435251784514e-05</v>
       </c>
       <c r="J817" t="n">
-        <v>96.19610472533579</v>
+        <v>6.316675127130055</v>
       </c>
       <c r="K817" t="n">
         <v>183.4060278092365</v>
       </c>
       <c r="L817" t="n">
-        <v>7.194024615706839e-06</v>
+        <v>29.00157887450097</v>
       </c>
       <c r="M817" t="n">
-        <v>-120.8415492279114</v>
+        <v>-109.5881089047687</v>
       </c>
       <c r="N817" t="n">
-        <v>66.19610472533577</v>
+        <v>-23.68332487286995</v>
       </c>
       <c r="O817" t="n">
         <v>30</v>
@@ -65041,28 +65041,28 @@
         </is>
       </c>
       <c r="G818" t="n">
-        <v>101.1244414569646</v>
+        <v>10.81322033027719</v>
       </c>
       <c r="H818" t="n">
-        <v>98.11414150032476</v>
+        <v>7.802920373637376</v>
       </c>
       <c r="I818" t="n">
-        <v>1e-30</v>
+        <v>0.0002576734426915216</v>
       </c>
       <c r="J818" t="n">
-        <v>96.19610472533579</v>
+        <v>5.884883598648381</v>
       </c>
       <c r="K818" t="n">
         <v>183.670802131442</v>
       </c>
       <c r="L818" t="n">
-        <v>7.143182815269548e-06</v>
+        <v>27.43495292468351</v>
       </c>
       <c r="M818" t="n">
-        <v>-121.7111619953187</v>
+        <v>-109.9585663256995</v>
       </c>
       <c r="N818" t="n">
-        <v>66.19610472533577</v>
+        <v>-24.11511640135162</v>
       </c>
       <c r="O818" t="n">
         <v>30</v>
@@ -65120,28 +65120,28 @@
         </is>
       </c>
       <c r="G819" t="n">
-        <v>100.8623038453217</v>
+        <v>7.526051410147626</v>
       </c>
       <c r="H819" t="n">
-        <v>97.85200388868193</v>
+        <v>4.515751453507813</v>
       </c>
       <c r="I819" t="n">
-        <v>1e-30</v>
+        <v>0.00869169302428115</v>
       </c>
       <c r="J819" t="n">
-        <v>96.19610472533579</v>
+        <v>2.859852290161645</v>
       </c>
       <c r="K819" t="n">
         <v>183.9329397430848</v>
       </c>
       <c r="L819" t="n">
-        <v>7.091976543484083e-06</v>
+        <v>25.96028721071518</v>
       </c>
       <c r="M819" t="n">
-        <v>-122.8966347557264</v>
+        <v>-110.3826209312414</v>
       </c>
       <c r="N819" t="n">
-        <v>66.19610472533577</v>
+        <v>-27.14014770983836</v>
       </c>
       <c r="O819" t="n">
         <v>30</v>
@@ -65199,28 +65199,28 @@
         </is>
       </c>
       <c r="G820" t="n">
-        <v>100.6032700103241</v>
+        <v>-20.43713860840707</v>
       </c>
       <c r="H820" t="n">
-        <v>97.5929700536843</v>
+        <v>-23.44743856504688</v>
       </c>
       <c r="I820" t="n">
-        <v>1e-30</v>
+        <v>0.462120955493417</v>
       </c>
       <c r="J820" t="n">
-        <v>96.19610472533579</v>
+        <v>-24.8443038933954</v>
       </c>
       <c r="K820" t="n">
         <v>184.1919735780824</v>
       </c>
       <c r="L820" t="n">
-        <v>6.988438481897149e-06</v>
+        <v>24.57168276247314</v>
       </c>
       <c r="M820" t="n">
-        <v>-123.3776791854405</v>
+        <v>-110.8601882283223</v>
       </c>
       <c r="N820" t="n">
-        <v>66.19610472533577</v>
+        <v>-54.8443038933954</v>
       </c>
       <c r="O820" t="n">
         <v>30</v>
@@ -65278,28 +65278,28 @@
         </is>
       </c>
       <c r="G821" t="n">
-        <v>100.3477050325581</v>
+        <v>11.2291599328133</v>
       </c>
       <c r="H821" t="n">
-        <v>97.33740507591826</v>
+        <v>8.218859976173487</v>
       </c>
       <c r="I821" t="n">
-        <v>1e-30</v>
+        <v>0.0001347445766375149</v>
       </c>
       <c r="J821" t="n">
-        <v>96.19610472533579</v>
+        <v>7.077559625591011</v>
       </c>
       <c r="K821" t="n">
         <v>184.4475385558485</v>
       </c>
       <c r="L821" t="n">
-        <v>6.830189170012768e-06</v>
+        <v>23.2635574257498</v>
       </c>
       <c r="M821" t="n">
-        <v>-124.1796610909385</v>
+        <v>-111.391619574604</v>
       </c>
       <c r="N821" t="n">
-        <v>66.19610472533577</v>
+        <v>-22.92244037440899</v>
       </c>
       <c r="O821" t="n">
         <v>30</v>
@@ -65357,28 +65357,28 @@
         </is>
       </c>
       <c r="G822" t="n">
-        <v>100.095888176593</v>
+        <v>12.22780759209474</v>
       </c>
       <c r="H822" t="n">
-        <v>97.08558821995322</v>
+        <v>9.217507635454931</v>
       </c>
       <c r="I822" t="n">
-        <v>1e-30</v>
+        <v>2.186199023299951e-05</v>
       </c>
       <c r="J822" t="n">
-        <v>96.19610472533579</v>
+        <v>8.328024140837483</v>
       </c>
       <c r="K822" t="n">
         <v>184.6993554118135</v>
       </c>
       <c r="L822" t="n">
-        <v>6.722620413208839e-06</v>
+        <v>22.03067011574511</v>
       </c>
       <c r="M822" t="n">
-        <v>-125.2750596877961</v>
+        <v>-111.9776769591215</v>
       </c>
       <c r="N822" t="n">
-        <v>66.19610472533577</v>
+        <v>-21.67197585916252</v>
       </c>
       <c r="O822" t="n">
         <v>30</v>
@@ -65436,28 +65436,28 @@
         </is>
       </c>
       <c r="G823" t="n">
-        <v>99.84802698192331</v>
+        <v>10.3940632921399</v>
       </c>
       <c r="H823" t="n">
-        <v>96.8377270252835</v>
+        <v>7.383763335500083</v>
       </c>
       <c r="I823" t="n">
-        <v>1e-30</v>
+        <v>0.0004680676822049082</v>
       </c>
       <c r="J823" t="n">
-        <v>96.19610472533579</v>
+        <v>6.742141035552361</v>
       </c>
       <c r="K823" t="n">
         <v>184.9472166064832</v>
       </c>
       <c r="L823" t="n">
-        <v>6.557959812547721e-06</v>
+        <v>20.86813076773363</v>
       </c>
       <c r="M823" t="n">
-        <v>-126.0359129922408</v>
+        <v>-112.6195150028049</v>
       </c>
       <c r="N823" t="n">
-        <v>66.19610472533577</v>
+        <v>-23.25785896444764</v>
       </c>
       <c r="O823" t="n">
         <v>30</v>
@@ -65515,28 +65515,28 @@
         </is>
       </c>
       <c r="G824" t="n">
-        <v>99.60426818850297</v>
+        <v>-1.09971536379989</v>
       </c>
       <c r="H824" t="n">
-        <v>96.59396823186316</v>
+        <v>-4.110015320439702</v>
       </c>
       <c r="I824" t="n">
-        <v>1e-30</v>
+        <v>0.1891378717698632</v>
       </c>
       <c r="J824" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.507878826967089</v>
       </c>
       <c r="K824" t="n">
         <v>185.1909753999036</v>
       </c>
       <c r="L824" t="n">
-        <v>0</v>
+        <v>19.77139399603988</v>
       </c>
       <c r="M824" t="n">
-        <v>0</v>
+        <v>-113.3186635030558</v>
       </c>
       <c r="N824" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.50787882696709</v>
       </c>
       <c r="O824" t="n">
         <v>30</v>
@@ -65594,28 +65594,28 @@
         </is>
       </c>
       <c r="G825" t="n">
-        <v>99.36471290172108</v>
+        <v>5.847700235238388</v>
       </c>
       <c r="H825" t="n">
-        <v>96.35441294508126</v>
+        <v>2.837400278598575</v>
       </c>
       <c r="I825" t="n">
-        <v>1e-30</v>
+        <v>0.02496389845897174</v>
       </c>
       <c r="J825" t="n">
-        <v>96.19610472533579</v>
+        <v>2.679092058853084</v>
       </c>
       <c r="K825" t="n">
         <v>185.4305306866855</v>
       </c>
       <c r="L825" t="n">
-        <v>0</v>
+        <v>18.73627702257658</v>
       </c>
       <c r="M825" t="n">
-        <v>0</v>
+        <v>-114.0770391739507</v>
       </c>
       <c r="N825" t="n">
-        <v>66.19610472533577</v>
+        <v>-27.32090794114692</v>
       </c>
       <c r="O825" t="n">
         <v>30</v>
@@ -66607,75 +66607,75 @@
         <v>15</v>
       </c>
       <c r="C838" t="n">
-        <v>282.0801331023475</v>
+        <v>282.0801279975615</v>
       </c>
       <c r="D838" t="n">
-        <v>0.000121722919327529</v>
+        <v>0.0001227153035637449</v>
       </c>
       <c r="E838" t="n">
-        <v>2930.532922986095</v>
+        <v>2930.532814964412</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>22 Jun 2025 00:13:12.856619029</t>
+          <t>22 Jun 2025 00:13:12.856656697</t>
         </is>
       </c>
       <c r="G838" t="n">
-        <v>96.90150088131766</v>
+        <v>-1.096912542523668</v>
       </c>
       <c r="H838" t="n">
-        <v>93.89120092467785</v>
+        <v>-4.107212499163479</v>
       </c>
       <c r="I838" t="n">
-        <v>1e-30</v>
+        <v>0.1890609321451244</v>
       </c>
       <c r="J838" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.802309018674093</v>
       </c>
       <c r="K838" t="n">
-        <v>187.8937427070889</v>
+        <v>187.8937423869204</v>
       </c>
       <c r="L838" t="n">
-        <v>0</v>
+        <v>32.94777610877507</v>
       </c>
       <c r="M838" t="n">
-        <v>0</v>
+        <v>-60.90810759846015</v>
       </c>
       <c r="N838" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.80230901867409</v>
       </c>
       <c r="O838" t="n">
         <v>30</v>
       </c>
       <c r="P838" t="n">
-        <v>-5056.265636512189</v>
+        <v>-5056.265440046162</v>
       </c>
       <c r="Q838" t="n">
-        <v>703.1102016278404</v>
+        <v>703.1102282889092</v>
       </c>
       <c r="R838" t="n">
-        <v>-4801.377482174992</v>
+        <v>-4801.377685340873</v>
       </c>
       <c r="S838" t="n">
-        <v>5.215740104710886</v>
+        <v>5.215740324874194</v>
       </c>
       <c r="T838" t="n">
-        <v>0.7077854880174886</v>
+        <v>0.7077854574025291</v>
       </c>
       <c r="U838" t="n">
-        <v>-5.39359705141197</v>
+        <v>-5.393596841781715</v>
       </c>
       <c r="V838" t="n">
-        <v>7.536298447509731</v>
+        <v>7.536298446976935</v>
       </c>
       <c r="W838" t="n">
-        <v>-43.55936023770315</v>
+        <v>-43.55936251754768</v>
       </c>
       <c r="X838" t="n">
-        <v>-101.3539132092582</v>
+        <v>-101.3539139808564</v>
       </c>
       <c r="Y838" t="n">
-        <v>640.0725168062653</v>
+        <v>640.0725177752502</v>
       </c>
     </row>
     <row r="839">
@@ -66700,28 +66700,28 @@
         </is>
       </c>
       <c r="G839" t="n">
-        <v>96.97845484970057</v>
+        <v>5.330865470420632</v>
       </c>
       <c r="H839" t="n">
-        <v>93.96815489306076</v>
+        <v>2.320565513780819</v>
       </c>
       <c r="I839" t="n">
-        <v>1e-30</v>
+        <v>0.03235003143242492</v>
       </c>
       <c r="J839" t="n">
-        <v>96.19610472533579</v>
+        <v>4.548515346055848</v>
       </c>
       <c r="K839" t="n">
         <v>187.816788738706</v>
       </c>
       <c r="L839" t="n">
-        <v>0</v>
+        <v>33.8414713375583</v>
       </c>
       <c r="M839" t="n">
-        <v>0</v>
+        <v>-63.1438552628415</v>
       </c>
       <c r="N839" t="n">
-        <v>66.19610472533577</v>
+        <v>-25.45148465394415</v>
       </c>
       <c r="O839" t="n">
         <v>30</v>
@@ -66779,28 +66779,28 @@
         </is>
       </c>
       <c r="G840" t="n">
-        <v>97.05957905143983</v>
+        <v>-4.124204064692987</v>
       </c>
       <c r="H840" t="n">
-        <v>94.04927909480001</v>
+        <v>-7.134504021332799</v>
       </c>
       <c r="I840" t="n">
-        <v>1e-30</v>
+        <v>0.2669712109784326</v>
       </c>
       <c r="J840" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.987678390797042</v>
       </c>
       <c r="K840" t="n">
         <v>187.7356645369667</v>
       </c>
       <c r="L840" t="n">
-        <v>0</v>
+        <v>34.75618589522291</v>
       </c>
       <c r="M840" t="n">
-        <v>0</v>
+        <v>-65.41650424311315</v>
       </c>
       <c r="N840" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.98767839079704</v>
       </c>
       <c r="O840" t="n">
         <v>30</v>
@@ -66844,13 +66844,13 @@
         <v>15</v>
       </c>
       <c r="C841" t="n">
-        <v>278.0312240153598</v>
+        <v>278.0312240153556</v>
       </c>
       <c r="D841" t="n">
-        <v>0.7322365621704682</v>
+        <v>0.7322365621711955</v>
       </c>
       <c r="E841" t="n">
-        <v>2852.041804892234</v>
+        <v>2852.041804892151</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -66858,52 +66858,52 @@
         </is>
       </c>
       <c r="G841" t="n">
-        <v>97.13731523631567</v>
+        <v>4.495842854905011</v>
       </c>
       <c r="H841" t="n">
-        <v>94.12701527967586</v>
+        <v>1.4855428982652</v>
       </c>
       <c r="I841" t="n">
-        <v>1e-30</v>
+        <v>0.04667348500268675</v>
       </c>
       <c r="J841" t="n">
-        <v>96.19610472533579</v>
+        <v>3.554632343924859</v>
       </c>
       <c r="K841" t="n">
-        <v>187.6579283520909</v>
+        <v>187.6579283520906</v>
       </c>
       <c r="L841" t="n">
-        <v>8.537736462515939e-07</v>
+        <v>35.5966921762174</v>
       </c>
       <c r="M841" t="n">
-        <v>-77.98215367957246</v>
+        <v>-67.51936718704712</v>
       </c>
       <c r="N841" t="n">
-        <v>66.19610472533577</v>
+        <v>-26.44536765607514</v>
       </c>
       <c r="O841" t="n">
         <v>30</v>
       </c>
       <c r="P841" t="n">
-        <v>-4901.805858382246</v>
+        <v>-4901.805858382081</v>
       </c>
       <c r="Q841" t="n">
-        <v>723.3889377812418</v>
+        <v>723.3889377812621</v>
       </c>
       <c r="R841" t="n">
-        <v>-4956.175322370848</v>
+        <v>-4956.175322371002</v>
       </c>
       <c r="S841" t="n">
-        <v>5.383468764761884</v>
+        <v>5.383468764762053</v>
       </c>
       <c r="T841" t="n">
-        <v>0.6837586595435011</v>
+        <v>0.6837586595434758</v>
       </c>
       <c r="U841" t="n">
-        <v>-5.228801487440043</v>
+        <v>-5.228801487439873</v>
       </c>
       <c r="V841" t="n">
-        <v>7.535889253480492</v>
+        <v>7.535889253480494</v>
       </c>
       <c r="W841" t="n">
         <v>-45.3218748407913</v>
@@ -66923,13 +66923,13 @@
         <v>15</v>
       </c>
       <c r="C842" t="n">
-        <v>276.5932000825008</v>
+        <v>276.5932000824967</v>
       </c>
       <c r="D842" t="n">
-        <v>0.9630895117751935</v>
+        <v>0.9630895117759288</v>
       </c>
       <c r="E842" t="n">
-        <v>2827.804844594267</v>
+        <v>2827.804844594191</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -66937,49 +66937,49 @@
         </is>
       </c>
       <c r="G842" t="n">
-        <v>97.2114442940493</v>
+        <v>-28.98979185725016</v>
       </c>
       <c r="H842" t="n">
-        <v>94.20114433740949</v>
+        <v>-32.00009181388997</v>
       </c>
       <c r="I842" t="n">
-        <v>1e-30</v>
+        <v>0.4858313281470571</v>
       </c>
       <c r="J842" t="n">
-        <v>96.19610472533579</v>
+        <v>-30.00513142596392</v>
       </c>
       <c r="K842" t="n">
-        <v>187.5837992943573</v>
+        <v>187.583799294357</v>
       </c>
       <c r="L842" t="n">
-        <v>8.537736462515939e-07</v>
+        <v>36.35591995340106</v>
       </c>
       <c r="M842" t="n">
-        <v>-80.12637382185272</v>
+        <v>-69.4637436060587</v>
       </c>
       <c r="N842" t="n">
-        <v>66.19610472533577</v>
+        <v>-60.00513142596392</v>
       </c>
       <c r="O842" t="n">
         <v>30</v>
       </c>
       <c r="P842" t="n">
-        <v>-4847.689395987318</v>
+        <v>-4847.68939598716</v>
       </c>
       <c r="Q842" t="n">
-        <v>730.1845767126687</v>
+        <v>730.1845767126888</v>
       </c>
       <c r="R842" t="n">
-        <v>-5008.17487330403</v>
+        <v>-5008.17487330418</v>
       </c>
       <c r="S842" t="n">
-        <v>5.439802892045087</v>
+        <v>5.439802892045251</v>
       </c>
       <c r="T842" t="n">
-        <v>0.6753598182061216</v>
+        <v>0.6753598182060966</v>
       </c>
       <c r="U842" t="n">
-        <v>-5.171070186379958</v>
+        <v>-5.171070186379787</v>
       </c>
       <c r="V842" t="n">
         <v>7.535750344910396</v>
@@ -67016,28 +67016,28 @@
         </is>
       </c>
       <c r="G843" t="n">
-        <v>97.28174838598241</v>
+        <v>1.836197324369786</v>
       </c>
       <c r="H843" t="n">
-        <v>94.2714484293426</v>
+        <v>-1.174102632270025</v>
       </c>
       <c r="I843" t="n">
-        <v>1e-30</v>
+        <v>0.1083396370370028</v>
       </c>
       <c r="J843" t="n">
-        <v>96.19610472533579</v>
+        <v>0.750553663723159</v>
       </c>
       <c r="K843" t="n">
         <v>187.5134952024242</v>
       </c>
       <c r="L843" t="n">
-        <v>1.478779333471098e-06</v>
+        <v>37.02864647323774</v>
       </c>
       <c r="M843" t="n">
-        <v>-80.42776719061179</v>
+        <v>-71.26116122535626</v>
       </c>
       <c r="N843" t="n">
-        <v>66.19610472533577</v>
+        <v>-29.24944633627684</v>
       </c>
       <c r="O843" t="n">
         <v>30</v>
@@ -67095,28 +67095,28 @@
         </is>
       </c>
       <c r="G844" t="n">
-        <v>97.34801267375637</v>
+        <v>3.474764899686485</v>
       </c>
       <c r="H844" t="n">
-        <v>94.33771271711656</v>
+        <v>0.464464943046673</v>
       </c>
       <c r="I844" t="n">
-        <v>1e-30</v>
+        <v>0.06786334739549599</v>
       </c>
       <c r="J844" t="n">
-        <v>96.19610472533579</v>
+        <v>2.322856951265897</v>
       </c>
       <c r="K844" t="n">
         <v>187.4472309146502</v>
       </c>
       <c r="L844" t="n">
-        <v>2.091309789151873e-06</v>
+        <v>37.61137431873337</v>
       </c>
       <c r="M844" t="n">
-        <v>-81.73297117897818</v>
+        <v>-72.92314629084456</v>
       </c>
       <c r="N844" t="n">
-        <v>66.19610472533577</v>
+        <v>-27.6771430487341</v>
       </c>
       <c r="O844" t="n">
         <v>30</v>
@@ -67160,13 +67160,13 @@
         <v>15</v>
       </c>
       <c r="C845" t="n">
-        <v>272.1402926862957</v>
+        <v>272.1402926862912</v>
       </c>
       <c r="D845" t="n">
-        <v>1.584144148184045</v>
+        <v>1.584144148184639</v>
       </c>
       <c r="E845" t="n">
-        <v>2763.88709489103</v>
+        <v>2763.887094890965</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -67174,49 +67174,49 @@
         </is>
       </c>
       <c r="G845" t="n">
-        <v>97.41002701590145</v>
+        <v>1.880707321391978</v>
       </c>
       <c r="H845" t="n">
-        <v>94.39972705926164</v>
+        <v>-1.129592635247834</v>
       </c>
       <c r="I845" t="n">
-        <v>1e-30</v>
+        <v>0.1071637774629186</v>
       </c>
       <c r="J845" t="n">
-        <v>96.19610472533579</v>
+        <v>0.666785030826111</v>
       </c>
       <c r="K845" t="n">
-        <v>187.3852165725051</v>
+        <v>187.3852165725049</v>
       </c>
       <c r="L845" t="n">
-        <v>2.414836539451468e-06</v>
+        <v>38.10217278062415</v>
       </c>
       <c r="M845" t="n">
-        <v>-82.0709520009015</v>
+        <v>-74.46103111460084</v>
       </c>
       <c r="N845" t="n">
-        <v>66.19610472533577</v>
+        <v>-29.33321496917389</v>
       </c>
       <c r="O845" t="n">
         <v>30</v>
       </c>
       <c r="P845" t="n">
-        <v>-4682.004295464526</v>
+        <v>-4682.004295464357</v>
       </c>
       <c r="Q845" t="n">
-        <v>750.0621978352837</v>
+        <v>750.0621978353031</v>
       </c>
       <c r="R845" t="n">
-        <v>-5160.668400111365</v>
+        <v>-5160.668400111513</v>
       </c>
       <c r="S845" t="n">
-        <v>5.604980611383359</v>
+        <v>5.60498061138352</v>
       </c>
       <c r="T845" t="n">
-        <v>0.6497032235980909</v>
+        <v>0.6497032235980651</v>
       </c>
       <c r="U845" t="n">
-        <v>-4.994337649091796</v>
+        <v>-4.994337649091618</v>
       </c>
       <c r="V845" t="n">
         <v>7.535338777113667</v>
@@ -67239,13 +67239,13 @@
         <v>15</v>
       </c>
       <c r="C846" t="n">
-        <v>270.6131183395379</v>
+        <v>270.6131183395341</v>
       </c>
       <c r="D846" t="n">
-        <v>1.765167150260521</v>
+        <v>1.765167150261049</v>
       </c>
       <c r="E846" t="n">
-        <v>2745.63153473219</v>
+        <v>2745.631534732137</v>
       </c>
       <c r="F846" t="inlineStr">
         <is>
@@ -67253,52 +67253,52 @@
         </is>
       </c>
       <c r="G846" t="n">
-        <v>97.46758789255233</v>
+        <v>-13.29431135537387</v>
       </c>
       <c r="H846" t="n">
-        <v>94.45728793591252</v>
+        <v>-16.30461131201368</v>
       </c>
       <c r="I846" t="n">
-        <v>1e-30</v>
+        <v>0.4143327058643307</v>
       </c>
       <c r="J846" t="n">
-        <v>96.19610472533579</v>
+        <v>-14.56579452259059</v>
       </c>
       <c r="K846" t="n">
-        <v>187.3276556958542</v>
+        <v>187.3276556958541</v>
       </c>
       <c r="L846" t="n">
-        <v>2.831646840510159e-06</v>
+        <v>38.50049891285241</v>
       </c>
       <c r="M846" t="n">
-        <v>-82.49003085888209</v>
+        <v>-75.88580049812276</v>
       </c>
       <c r="N846" t="n">
-        <v>66.19610472533577</v>
+        <v>-44.56579452259059</v>
       </c>
       <c r="O846" t="n">
         <v>30</v>
       </c>
       <c r="P846" t="n">
-        <v>-4625.685441841731</v>
+        <v>-4625.685441841584</v>
       </c>
       <c r="Q846" t="n">
-        <v>756.5157765335898</v>
+        <v>756.515776533606</v>
       </c>
       <c r="R846" t="n">
-        <v>-5210.31173235612</v>
+        <v>-5210.311732356247</v>
       </c>
       <c r="S846" t="n">
-        <v>5.658744185169976</v>
+        <v>5.658744185170112</v>
       </c>
       <c r="T846" t="n">
-        <v>0.6410009933516434</v>
+        <v>0.6410009933516209</v>
       </c>
       <c r="U846" t="n">
-        <v>-4.934270248862535</v>
+        <v>-4.934270248862376</v>
       </c>
       <c r="V846" t="n">
-        <v>7.535203442209292</v>
+        <v>7.535203442209286</v>
       </c>
       <c r="W846" t="n">
         <v>-48.33877633681507</v>
@@ -67318,13 +67318,13 @@
         <v>15</v>
       </c>
       <c r="C847" t="n">
-        <v>269.0665478363731</v>
+        <v>269.0665478363686</v>
       </c>
       <c r="D847" t="n">
-        <v>1.932151443899311</v>
+        <v>1.932151443899852</v>
       </c>
       <c r="E847" t="n">
-        <v>2728.956623550925</v>
+        <v>2728.956623550869</v>
       </c>
       <c r="F847" t="inlineStr">
         <is>
@@ -67332,49 +67332,49 @@
         </is>
       </c>
       <c r="G847" t="n">
-        <v>97.52050032430412</v>
+        <v>2.628509385336712</v>
       </c>
       <c r="H847" t="n">
-        <v>94.51020036766431</v>
+        <v>-0.3817905713030997</v>
       </c>
       <c r="I847" t="n">
-        <v>1e-30</v>
+        <v>0.08796429567755926</v>
       </c>
       <c r="J847" t="n">
-        <v>96.19610472533579</v>
+        <v>1.304113786368184</v>
       </c>
       <c r="K847" t="n">
-        <v>187.2747432641025</v>
+        <v>187.2747432641023</v>
       </c>
       <c r="L847" t="n">
-        <v>3.306651113363207e-06</v>
+        <v>38.80701064212809</v>
       </c>
       <c r="M847" t="n">
-        <v>-82.96351473611334</v>
+        <v>-77.20797364614232</v>
       </c>
       <c r="N847" t="n">
-        <v>66.19610472533577</v>
+        <v>-28.69588621363182</v>
       </c>
       <c r="O847" t="n">
         <v>30</v>
       </c>
       <c r="P847" t="n">
-        <v>-4568.832208488706</v>
+        <v>-4568.832208488533</v>
       </c>
       <c r="Q847" t="n">
-        <v>762.8819662726821</v>
+        <v>762.8819662727009</v>
       </c>
       <c r="R847" t="n">
-        <v>-5259.351582291621</v>
+        <v>-5259.351582291766</v>
       </c>
       <c r="S847" t="n">
-        <v>5.71184972904255</v>
+        <v>5.711849729042708</v>
       </c>
       <c r="T847" t="n">
-        <v>0.6322254318007262</v>
+        <v>0.6322254318007001</v>
       </c>
       <c r="U847" t="n">
-        <v>-4.873636223876275</v>
+        <v>-4.873636223876093</v>
       </c>
       <c r="V847" t="n">
         <v>7.535069101637891</v>
@@ -67397,13 +67397,13 @@
         <v>15</v>
       </c>
       <c r="C848" t="n">
-        <v>267.5020037667695</v>
+        <v>267.5020037667647</v>
       </c>
       <c r="D848" t="n">
-        <v>2.084509864455948</v>
+        <v>2.084509864456477</v>
       </c>
       <c r="E848" t="n">
-        <v>2713.892612229954</v>
+        <v>2713.892612229903</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -67411,52 +67411,52 @@
         </is>
       </c>
       <c r="G848" t="n">
-        <v>97.56857980189501</v>
+        <v>2.071196989282859</v>
       </c>
       <c r="H848" t="n">
-        <v>94.5582798452552</v>
+        <v>-0.939102967356954</v>
       </c>
       <c r="I848" t="n">
-        <v>1e-30</v>
+        <v>0.1021693536203307</v>
       </c>
       <c r="J848" t="n">
-        <v>96.19610472533579</v>
+        <v>0.6987219127234519</v>
       </c>
       <c r="K848" t="n">
-        <v>187.2266637865116</v>
+        <v>187.2266637865114</v>
       </c>
       <c r="L848" t="n">
-        <v>3.721513044668944e-06</v>
+        <v>39.02338259490123</v>
       </c>
       <c r="M848" t="n">
-        <v>-83.47507862209392</v>
+        <v>-78.43751904734955</v>
       </c>
       <c r="N848" t="n">
-        <v>66.19610472533577</v>
+        <v>-29.30127808727655</v>
       </c>
       <c r="O848" t="n">
         <v>30</v>
       </c>
       <c r="P848" t="n">
-        <v>-4511.451203943188</v>
+        <v>-4511.451203943014</v>
       </c>
       <c r="Q848" t="n">
-        <v>769.160042076751</v>
+        <v>769.1600420767694</v>
       </c>
       <c r="R848" t="n">
-        <v>-5307.782318876205</v>
+        <v>-5307.782318876351</v>
       </c>
       <c r="S848" t="n">
-        <v>5.764291242258055</v>
+        <v>5.76429124225821</v>
       </c>
       <c r="T848" t="n">
-        <v>0.6233775558172053</v>
+        <v>0.6233775558171792</v>
       </c>
       <c r="U848" t="n">
-        <v>-4.812442658217089</v>
+        <v>-4.812442658216908</v>
       </c>
       <c r="V848" t="n">
-        <v>7.534935795432971</v>
+        <v>7.534935795432972</v>
       </c>
       <c r="W848" t="n">
         <v>-49.54280063685491</v>
@@ -67490,28 +67490,28 @@
         </is>
       </c>
       <c r="G849" t="n">
-        <v>97.61165426922003</v>
+        <v>-0.2203168106955732</v>
       </c>
       <c r="H849" t="n">
-        <v>94.60135431258021</v>
+        <v>-3.230616767335385</v>
       </c>
       <c r="I849" t="n">
-        <v>1e-30</v>
+        <v>0.164791525064845</v>
       </c>
       <c r="J849" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.635866354579822</v>
       </c>
       <c r="K849" t="n">
         <v>187.1835893191866</v>
       </c>
       <c r="L849" t="n">
-        <v>4.09455456646704e-06</v>
+        <v>39.15213118671176</v>
       </c>
       <c r="M849" t="n">
-        <v>-84.4149490728402</v>
+        <v>-79.58380008523579</v>
       </c>
       <c r="N849" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.63586635457982</v>
       </c>
       <c r="O849" t="n">
         <v>30</v>
@@ -67555,13 +67555,13 @@
         <v>15</v>
       </c>
       <c r="C850" t="n">
-        <v>264.3253130963101</v>
+        <v>264.3253130963054</v>
       </c>
       <c r="D850" t="n">
-        <v>2.343181058780052</v>
+        <v>2.343181058780456</v>
       </c>
       <c r="E850" t="n">
-        <v>2688.706203867599</v>
+        <v>2688.706203867559</v>
       </c>
       <c r="F850" t="inlineStr">
         <is>
@@ -67569,52 +67569,52 @@
         </is>
       </c>
       <c r="G850" t="n">
-        <v>97.64956599232872</v>
+        <v>3.153701006189725</v>
       </c>
       <c r="H850" t="n">
-        <v>94.63926603568891</v>
+        <v>0.1434010495499128</v>
       </c>
       <c r="I850" t="n">
-        <v>1e-30</v>
+        <v>0.07525171592735158</v>
       </c>
       <c r="J850" t="n">
-        <v>96.19610472533579</v>
+        <v>1.700239739196663</v>
       </c>
       <c r="K850" t="n">
-        <v>187.1456775960779</v>
+        <v>187.1456775960777</v>
       </c>
       <c r="L850" t="n">
-        <v>4.676310850554345e-06</v>
+        <v>39.19645375151982</v>
       </c>
       <c r="M850" t="n">
-        <v>-84.93020926670404</v>
+        <v>-80.65554570412498</v>
       </c>
       <c r="N850" t="n">
-        <v>66.19610472533577</v>
+        <v>-28.29976026080334</v>
       </c>
       <c r="O850" t="n">
         <v>30</v>
       </c>
       <c r="P850" t="n">
-        <v>-4395.132616269374</v>
+        <v>-4395.132616269199</v>
       </c>
       <c r="Q850" t="n">
-        <v>781.4489832637772</v>
+        <v>781.4489832637955</v>
       </c>
       <c r="R850" t="n">
-        <v>-5402.794283799297</v>
+        <v>-5402.794283799437</v>
       </c>
       <c r="S850" t="n">
-        <v>5.867158564685614</v>
+        <v>5.867158564685762</v>
       </c>
       <c r="T850" t="n">
-        <v>0.6054689915071989</v>
+        <v>0.6054689915071723</v>
       </c>
       <c r="U850" t="n">
-        <v>-4.68840554290145</v>
+        <v>-4.688405542901263</v>
       </c>
       <c r="V850" t="n">
-        <v>7.534672445272557</v>
+        <v>7.534672445272554</v>
       </c>
       <c r="W850" t="n">
         <v>-50.74509609332038</v>
@@ -67648,28 +67648,28 @@
         </is>
       </c>
       <c r="G851" t="n">
-        <v>97.68217341182449</v>
+        <v>-5.357920682827363</v>
       </c>
       <c r="H851" t="n">
-        <v>94.67187345518468</v>
+        <v>-8.368220639467175</v>
       </c>
       <c r="I851" t="n">
-        <v>1e-30</v>
+        <v>0.2947227355077547</v>
       </c>
       <c r="J851" t="n">
-        <v>96.19610472533579</v>
+        <v>-6.843989369316072</v>
       </c>
       <c r="K851" t="n">
         <v>187.1130701765821</v>
       </c>
       <c r="L851" t="n">
-        <v>5.12264187750957e-06</v>
+        <v>39.16008426990207</v>
       </c>
       <c r="M851" t="n">
-        <v>-85.78437330923485</v>
+        <v>-81.66084273711138</v>
       </c>
       <c r="N851" t="n">
-        <v>66.19610472533577</v>
+        <v>-36.84398936931607</v>
       </c>
       <c r="O851" t="n">
         <v>30</v>
@@ -67727,28 +67727,28 @@
         </is>
       </c>
       <c r="G852" t="n">
-        <v>97.70935279903634</v>
+        <v>4.461946118083048</v>
       </c>
       <c r="H852" t="n">
-        <v>94.69905284239653</v>
+        <v>1.451646161443236</v>
       </c>
       <c r="I852" t="n">
-        <v>1e-30</v>
+        <v>0.04731493126546382</v>
       </c>
       <c r="J852" t="n">
-        <v>96.19610472533579</v>
+        <v>2.94869804438249</v>
       </c>
       <c r="K852" t="n">
         <v>187.0858907893702</v>
       </c>
       <c r="L852" t="n">
-        <v>5.663293681020324e-06</v>
+        <v>39.04716601465218</v>
       </c>
       <c r="M852" t="n">
-        <v>-86.30966887074261</v>
+        <v>-82.60714464036784</v>
       </c>
       <c r="N852" t="n">
-        <v>66.19610472533577</v>
+        <v>-27.05130195561751</v>
       </c>
       <c r="O852" t="n">
         <v>30</v>
@@ -67792,13 +67792,13 @@
         <v>15</v>
       </c>
       <c r="C853" t="n">
-        <v>259.4679186948001</v>
+        <v>259.4679186947952</v>
       </c>
       <c r="D853" t="n">
-        <v>2.609173576430184</v>
+        <v>2.609173576430473</v>
       </c>
       <c r="E853" t="n">
-        <v>2663.616267497761</v>
+        <v>2663.616267497736</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -67806,52 +67806,52 @@
         </is>
       </c>
       <c r="G853" t="n">
-        <v>97.73099980570395</v>
+        <v>3.767197764797</v>
       </c>
       <c r="H853" t="n">
-        <v>94.72069984906413</v>
+        <v>0.7568978081571881</v>
       </c>
       <c r="I853" t="n">
-        <v>1e-30</v>
+        <v>0.06141799950952909</v>
       </c>
       <c r="J853" t="n">
-        <v>96.19610472533579</v>
+        <v>2.232302684428755</v>
       </c>
       <c r="K853" t="n">
-        <v>187.0642437827026</v>
+        <v>187.0642437827025</v>
       </c>
       <c r="L853" t="n">
-        <v>6.156649318399962e-06</v>
+        <v>38.86214108733936</v>
       </c>
       <c r="M853" t="n">
-        <v>-86.85328621478047</v>
+        <v>-83.50129325656523</v>
       </c>
       <c r="N853" t="n">
-        <v>66.19610472533577</v>
+        <v>-27.76769731557124</v>
       </c>
       <c r="O853" t="n">
         <v>30</v>
       </c>
       <c r="P853" t="n">
-        <v>-4216.86506816962</v>
+        <v>-4216.86506816944</v>
       </c>
       <c r="Q853" t="n">
-        <v>799.2039155896397</v>
+        <v>799.2039155896571</v>
       </c>
       <c r="R853" t="n">
-        <v>-5540.607223677658</v>
+        <v>-5540.607223677794</v>
       </c>
       <c r="S853" t="n">
-        <v>6.016333837573637</v>
+        <v>6.01633383757378</v>
       </c>
       <c r="T853" t="n">
-        <v>0.5780897623584061</v>
+        <v>0.5780897623583786</v>
       </c>
       <c r="U853" t="n">
-        <v>-4.498333849596564</v>
+        <v>-4.498333849596373</v>
       </c>
       <c r="V853" t="n">
-        <v>7.534286166645343</v>
+        <v>7.53428616664534</v>
       </c>
       <c r="W853" t="n">
         <v>-52.54501214250445</v>
@@ -67871,13 +67871,13 @@
         <v>15</v>
       </c>
       <c r="C854" t="n">
-        <v>257.8319286289695</v>
+        <v>257.8319286289647</v>
       </c>
       <c r="D854" t="n">
-        <v>2.663857590393442</v>
+        <v>2.663857590393628</v>
       </c>
       <c r="E854" t="n">
-        <v>2658.70473959242</v>
+        <v>2658.704739592399</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -67885,52 +67885,52 @@
         </is>
       </c>
       <c r="G854" t="n">
-        <v>97.747030782187</v>
+        <v>3.704407293590535</v>
       </c>
       <c r="H854" t="n">
-        <v>94.73673082554718</v>
+        <v>0.6941073369507229</v>
       </c>
       <c r="I854" t="n">
-        <v>1e-30</v>
+        <v>0.06277793991804004</v>
       </c>
       <c r="J854" t="n">
-        <v>96.19610472533579</v>
+        <v>2.15348123673924</v>
       </c>
       <c r="K854" t="n">
-        <v>187.0482128062196</v>
+        <v>187.0482128062195</v>
       </c>
       <c r="L854" t="n">
-        <v>6.613302226726426e-06</v>
+        <v>38.60965567323804</v>
       </c>
       <c r="M854" t="n">
-        <v>-87.41133642419258</v>
+        <v>-84.34954934228219</v>
       </c>
       <c r="N854" t="n">
-        <v>66.19610472533577</v>
+        <v>-27.84651876326076</v>
       </c>
       <c r="O854" t="n">
         <v>30</v>
       </c>
       <c r="P854" t="n">
-        <v>-4156.459514914296</v>
+        <v>-4156.459514914114</v>
       </c>
       <c r="Q854" t="n">
-        <v>804.9385820666499</v>
+        <v>804.9385820666662</v>
       </c>
       <c r="R854" t="n">
-        <v>-5585.269049987615</v>
+        <v>-5585.269049987746</v>
       </c>
       <c r="S854" t="n">
-        <v>6.064669581772892</v>
+        <v>6.064669581773035</v>
       </c>
       <c r="T854" t="n">
-        <v>0.5688298776750976</v>
+        <v>0.5688298776750697</v>
       </c>
       <c r="U854" t="n">
-        <v>-4.433935133000166</v>
+        <v>-4.433935132999975</v>
       </c>
       <c r="V854" t="n">
-        <v>7.53415989540111</v>
+        <v>7.534159895401109</v>
       </c>
       <c r="W854" t="n">
         <v>-53.14397005303059</v>
@@ -67950,13 +67950,13 @@
         <v>15</v>
       </c>
       <c r="C855" t="n">
-        <v>256.1909594737706</v>
+        <v>256.1909594737652</v>
       </c>
       <c r="D855" t="n">
-        <v>2.701140101736312</v>
+        <v>2.701140101736518</v>
       </c>
       <c r="E855" t="n">
-        <v>2655.537611759508</v>
+        <v>2655.537611759492</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -67964,52 +67964,52 @@
         </is>
       </c>
       <c r="G855" t="n">
-        <v>97.75738383884661</v>
+        <v>4.634293664171926</v>
       </c>
       <c r="H855" t="n">
-        <v>94.74708388220679</v>
+        <v>1.623993707532114</v>
       </c>
       <c r="I855" t="n">
-        <v>1e-30</v>
+        <v>0.04410077168068571</v>
       </c>
       <c r="J855" t="n">
-        <v>96.19610472533579</v>
+        <v>3.073014550661033</v>
       </c>
       <c r="K855" t="n">
         <v>187.0378597495599</v>
       </c>
       <c r="L855" t="n">
-        <v>7.091976543484083e-06</v>
+        <v>38.29447959428659</v>
       </c>
       <c r="M855" t="n">
-        <v>-88.19686157543946</v>
+        <v>-85.15762884268693</v>
       </c>
       <c r="N855" t="n">
-        <v>66.19610472533577</v>
+        <v>-26.92698544933897</v>
       </c>
       <c r="O855" t="n">
         <v>30</v>
       </c>
       <c r="P855" t="n">
-        <v>-4095.574080950137</v>
+        <v>-4095.574080949936</v>
       </c>
       <c r="Q855" t="n">
-        <v>810.5803242929003</v>
+        <v>810.580324292919</v>
       </c>
       <c r="R855" t="n">
-        <v>-5629.284368740388</v>
+        <v>-5629.284368740534</v>
       </c>
       <c r="S855" t="n">
-        <v>6.112301518475509</v>
+        <v>6.112301518475664</v>
       </c>
       <c r="T855" t="n">
-        <v>0.559505039397051</v>
+        <v>0.5595050393970198</v>
       </c>
       <c r="U855" t="n">
-        <v>-4.369028109500113</v>
+        <v>-4.369028109499897</v>
       </c>
       <c r="V855" t="n">
-        <v>7.534034932456236</v>
+        <v>7.534034932456235</v>
       </c>
       <c r="W855" t="n">
         <v>-53.74238680122991</v>
@@ -68043,28 +68043,28 @@
         </is>
       </c>
       <c r="G856" t="n">
-        <v>97.76201964823635</v>
+        <v>-6.575693427160334</v>
       </c>
       <c r="H856" t="n">
-        <v>94.75171969159653</v>
+        <v>-9.585993383800146</v>
       </c>
       <c r="I856" t="n">
-        <v>1e-30</v>
+        <v>0.3195184199459801</v>
       </c>
       <c r="J856" t="n">
-        <v>96.19610472533579</v>
+        <v>-8.141608350060904</v>
       </c>
       <c r="K856" t="n">
         <v>187.0332239401702</v>
       </c>
       <c r="L856" t="n">
-        <v>7.588506156264613e-06</v>
+        <v>37.92143830238666</v>
       </c>
       <c r="M856" t="n">
-        <v>-88.55917291729233</v>
+        <v>-85.93074276967333</v>
       </c>
       <c r="N856" t="n">
-        <v>66.19610472533577</v>
+        <v>-38.14160835006091</v>
       </c>
       <c r="O856" t="n">
         <v>30</v>
@@ -68122,28 +68122,28 @@
         </is>
       </c>
       <c r="G857" t="n">
-        <v>97.76092202526118</v>
+        <v>-8.350129230006324</v>
       </c>
       <c r="H857" t="n">
-        <v>94.75062206862137</v>
+        <v>-11.36042918664614</v>
       </c>
       <c r="I857" t="n">
-        <v>1e-30</v>
+        <v>0.3510902938132893</v>
       </c>
       <c r="J857" t="n">
-        <v>96.19610472533579</v>
+        <v>-9.914946529931733</v>
       </c>
       <c r="K857" t="n">
         <v>187.0343215631454</v>
       </c>
       <c r="L857" t="n">
-        <v>8.099607985145774e-06</v>
+        <v>37.49535622373632</v>
       </c>
       <c r="M857" t="n">
-        <v>-89.32921404434607</v>
+        <v>-86.67363871981604</v>
       </c>
       <c r="N857" t="n">
-        <v>66.19610472533577</v>
+        <v>-39.91494652993173</v>
       </c>
       <c r="O857" t="n">
         <v>30</v>
@@ -68201,28 +68201,28 @@
         </is>
       </c>
       <c r="G858" t="n">
-        <v>97.75409804400552</v>
+        <v>-1.114818571349482</v>
       </c>
       <c r="H858" t="n">
-        <v>94.7437980873657</v>
+        <v>-4.125118527989295</v>
       </c>
       <c r="I858" t="n">
-        <v>1e-30</v>
+        <v>0.1895523706711928</v>
       </c>
       <c r="J858" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.672811890019217</v>
       </c>
       <c r="K858" t="n">
         <v>187.0411455444011</v>
       </c>
       <c r="L858" t="n">
-        <v>0</v>
+        <v>37.02100047054027</v>
       </c>
       <c r="M858" t="n">
-        <v>0</v>
+        <v>-87.3906405348655</v>
       </c>
       <c r="N858" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.67281189001922</v>
       </c>
       <c r="O858" t="n">
         <v>30</v>
@@ -68280,28 +68280,28 @@
         </is>
       </c>
       <c r="G859" t="n">
-        <v>97.74157802516505</v>
+        <v>0.10731585301987</v>
       </c>
       <c r="H859" t="n">
-        <v>94.73127806852524</v>
+        <v>-2.902984103619942</v>
       </c>
       <c r="I859" t="n">
-        <v>1e-30</v>
+        <v>0.1556658121903799</v>
       </c>
       <c r="J859" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.438157446809409</v>
       </c>
       <c r="K859" t="n">
         <v>187.0536655632415</v>
       </c>
       <c r="L859" t="n">
-        <v>0</v>
+        <v>36.5030759027774</v>
       </c>
       <c r="M859" t="n">
-        <v>0</v>
+        <v>-88.08569404966977</v>
       </c>
       <c r="N859" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.43815744680941</v>
       </c>
       <c r="O859" t="n">
         <v>30</v>
@@ -68359,28 +68359,28 @@
         </is>
       </c>
       <c r="G860" t="n">
-        <v>97.72341512744515</v>
+        <v>-10.22796049497384</v>
       </c>
       <c r="H860" t="n">
-        <v>94.71311517080534</v>
+        <v>-13.23826045161366</v>
       </c>
       <c r="I860" t="n">
-        <v>1e-30</v>
+        <v>0.3790273347901232</v>
       </c>
       <c r="J860" t="n">
-        <v>96.19610472533579</v>
+        <v>-11.75527089708321</v>
       </c>
       <c r="K860" t="n">
         <v>187.0718284609614</v>
       </c>
       <c r="L860" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>35.94614145268139</v>
       </c>
       <c r="M860" t="n">
-        <v>-90.32149443487</v>
+        <v>-88.76239750524479</v>
       </c>
       <c r="N860" t="n">
-        <v>66.19610472533577</v>
+        <v>-41.75527089708321</v>
       </c>
       <c r="O860" t="n">
         <v>30</v>
@@ -68438,28 +68438,28 @@
         </is>
       </c>
       <c r="G861" t="n">
-        <v>97.69968461737398</v>
+        <v>5.266495930247128</v>
       </c>
       <c r="H861" t="n">
-        <v>94.68938466073416</v>
+        <v>2.256195973607316</v>
       </c>
       <c r="I861" t="n">
-        <v>1e-30</v>
+        <v>0.03335035741781469</v>
       </c>
       <c r="J861" t="n">
-        <v>96.19610472533579</v>
+        <v>3.762916038208936</v>
       </c>
       <c r="K861" t="n">
         <v>187.0955589710326</v>
       </c>
       <c r="L861" t="n">
-        <v>1.478779333471098e-06</v>
+        <v>35.35461791503677</v>
       </c>
       <c r="M861" t="n">
-        <v>-91.93568443153418</v>
+        <v>-89.42404323574469</v>
       </c>
       <c r="N861" t="n">
-        <v>66.19610472533577</v>
+        <v>-26.23708396179106</v>
       </c>
       <c r="O861" t="n">
         <v>30</v>
@@ -68517,28 +68517,28 @@
         </is>
       </c>
       <c r="G862" t="n">
-        <v>97.67048288442712</v>
+        <v>0.6189071890145271</v>
       </c>
       <c r="H862" t="n">
-        <v>94.6601829277873</v>
+        <v>-2.391392767625285</v>
       </c>
       <c r="I862" t="n">
-        <v>1e-30</v>
+        <v>0.1414439962430137</v>
       </c>
       <c r="J862" t="n">
-        <v>96.19610472533579</v>
+        <v>-0.8554709700768116</v>
       </c>
       <c r="K862" t="n">
         <v>187.1247607039794</v>
       </c>
       <c r="L862" t="n">
-        <v>1.909095910416423e-06</v>
+        <v>34.73275806658273</v>
       </c>
       <c r="M862" t="n">
-        <v>-92.32161232033741</v>
+        <v>-90.07365001199084</v>
       </c>
       <c r="N862" t="n">
-        <v>66.19610472533577</v>
+        <v>-30.85547097007681</v>
       </c>
       <c r="O862" t="n">
         <v>30</v>
@@ -68596,28 +68596,28 @@
         </is>
       </c>
       <c r="G863" t="n">
-        <v>97.63592624442487</v>
+        <v>5.16683915015805</v>
       </c>
       <c r="H863" t="n">
-        <v>94.62562628778505</v>
+        <v>2.156539193518238</v>
       </c>
       <c r="I863" t="n">
-        <v>1e-30</v>
+        <v>0.03493388512397606</v>
       </c>
       <c r="J863" t="n">
-        <v>96.19610472533579</v>
+        <v>3.727017631068963</v>
       </c>
       <c r="K863" t="n">
         <v>187.1593173439817</v>
       </c>
       <c r="L863" t="n">
-        <v>2.414836539451468e-06</v>
+        <v>34.0846299557224</v>
       </c>
       <c r="M863" t="n">
-        <v>-92.80146476334647</v>
+        <v>-90.71399442458662</v>
       </c>
       <c r="N863" t="n">
-        <v>66.19610472533577</v>
+        <v>-26.27298236893104</v>
       </c>
       <c r="O863" t="n">
         <v>30</v>
@@ -68675,28 +68675,28 @@
         </is>
       </c>
       <c r="G864" t="n">
-        <v>97.59614945946423</v>
+        <v>-2.59371184060223</v>
       </c>
       <c r="H864" t="n">
-        <v>94.58584950282442</v>
+        <v>-5.604011797242042</v>
       </c>
       <c r="I864" t="n">
-        <v>1e-30</v>
+        <v>0.2290899892832781</v>
       </c>
       <c r="J864" t="n">
-        <v>96.19610472533579</v>
+        <v>-3.993756574730681</v>
       </c>
       <c r="K864" t="n">
         <v>187.1990941289423</v>
       </c>
       <c r="L864" t="n">
-        <v>2.561320938754782e-06</v>
+        <v>33.41410401346647</v>
       </c>
       <c r="M864" t="n">
-        <v>-93.3271606907802</v>
+        <v>-91.34763939284645</v>
       </c>
       <c r="N864" t="n">
-        <v>66.19610472533577</v>
+        <v>-33.99375657473068</v>
       </c>
       <c r="O864" t="n">
         <v>30</v>
@@ -68754,28 +68754,28 @@
         </is>
       </c>
       <c r="G865" t="n">
-        <v>97.55130413869659</v>
+        <v>4.334071857789437</v>
       </c>
       <c r="H865" t="n">
-        <v>94.54100418205678</v>
+        <v>1.323771901149625</v>
       </c>
       <c r="I865" t="n">
-        <v>1e-30</v>
+        <v>0.04977513173902354</v>
       </c>
       <c r="J865" t="n">
-        <v>96.19610472533579</v>
+        <v>2.97887244442862</v>
       </c>
       <c r="K865" t="n">
         <v>187.24393944971</v>
       </c>
       <c r="L865" t="n">
-        <v>3.1945284701302e-06</v>
+        <v>32.72484380575833</v>
       </c>
       <c r="M865" t="n">
-        <v>-94.28838288273938</v>
+        <v>-91.97696043553793</v>
       </c>
       <c r="N865" t="n">
-        <v>66.19610472533577</v>
+        <v>-27.02112755557138</v>
       </c>
       <c r="O865" t="n">
         <v>30</v>
@@ -68833,28 +68833,28 @@
         </is>
       </c>
       <c r="G866" t="n">
-        <v>97.50155693415081</v>
+        <v>1.64876787687668</v>
       </c>
       <c r="H866" t="n">
-        <v>94.491256977511</v>
+        <v>-1.361532079763133</v>
       </c>
       <c r="I866" t="n">
-        <v>1e-30</v>
+        <v>0.1133249567920714</v>
       </c>
       <c r="J866" t="n">
-        <v>96.19610472533579</v>
+        <v>0.3433156680616343</v>
       </c>
       <c r="K866" t="n">
         <v>187.2936866542557</v>
       </c>
       <c r="L866" t="n">
-        <v>3.520198923864051e-06</v>
+        <v>32.02029962822316</v>
       </c>
       <c r="M866" t="n">
-        <v>-94.80036960310231</v>
+        <v>-92.6041694443043</v>
       </c>
       <c r="N866" t="n">
-        <v>66.19610472533577</v>
+        <v>-29.65668433193837</v>
       </c>
       <c r="O866" t="n">
         <v>30</v>
@@ -68912,28 +68912,28 @@
         </is>
       </c>
       <c r="G867" t="n">
-        <v>97.4470876958663</v>
+        <v>-0.9062438877956716</v>
       </c>
       <c r="H867" t="n">
-        <v>94.43678773922649</v>
+        <v>-3.916543844435483</v>
       </c>
       <c r="I867" t="n">
-        <v>1e-30</v>
+        <v>0.1838145596377803</v>
       </c>
       <c r="J867" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.157226858326192</v>
       </c>
       <c r="K867" t="n">
         <v>187.3481558925403</v>
       </c>
       <c r="L867" t="n">
-        <v>3.912482360306382e-06</v>
+        <v>31.30370517329638</v>
       </c>
       <c r="M867" t="n">
-        <v>-95.64884492246732</v>
+        <v>-93.23133632509106</v>
       </c>
       <c r="N867" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.15722685832619</v>
       </c>
       <c r="O867" t="n">
         <v>30</v>
@@ -73085,75 +73085,75 @@
         <v>17</v>
       </c>
       <c r="C920" t="n">
-        <v>159.5925112843856</v>
+        <v>159.5926636849052</v>
       </c>
       <c r="D920" t="n">
-        <v>0.0002016219018545923</v>
+        <v>2.231275276305457e-05</v>
       </c>
       <c r="E920" t="n">
-        <v>2955.874518619817</v>
+        <v>2955.894586719792</v>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:12:21.977961108</t>
+          <t>22 Jun 2025 10:12:21.974875518</t>
         </is>
       </c>
       <c r="G920" t="n">
-        <v>96.82671310456726</v>
+        <v>0.6305494089643705</v>
       </c>
       <c r="H920" t="n">
-        <v>93.81641314792745</v>
+        <v>-2.379750547675441</v>
       </c>
       <c r="I920" t="n">
-        <v>1e-30</v>
+        <v>0.1411214248729396</v>
       </c>
       <c r="J920" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K920" t="n">
-        <v>187.9685304838393</v>
+        <v>187.9685894541064</v>
       </c>
       <c r="L920" t="n">
-        <v>0</v>
+        <v>94.01758590145047</v>
       </c>
       <c r="M920" t="n">
-        <v>0</v>
+        <v>-90.05099943783421</v>
       </c>
       <c r="N920" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O920" t="n">
         <v>30</v>
       </c>
       <c r="P920" t="n">
-        <v>1498.839708126943</v>
+        <v>1498.817010015289</v>
       </c>
       <c r="Q920" t="n">
-        <v>939.6990272579744</v>
+        <v>939.699715141488</v>
       </c>
       <c r="R920" t="n">
-        <v>-6782.049177184057</v>
+        <v>-6782.054100077759</v>
       </c>
       <c r="S920" t="n">
-        <v>7.356302868762571</v>
+        <v>7.356308195779181</v>
       </c>
       <c r="T920" t="n">
-        <v>-0.2229313693729187</v>
+        <v>-0.2229280294054618</v>
       </c>
       <c r="U920" t="n">
-        <v>1.595485075303944</v>
+        <v>1.595460905037999</v>
       </c>
       <c r="V920" t="n">
-        <v>7.530634961139237</v>
+        <v>7.530634945148199</v>
       </c>
       <c r="W920" t="n">
-        <v>-75.34516175544992</v>
+        <v>-75.34532081428659</v>
       </c>
       <c r="X920" t="n">
-        <v>-31.80887803535549</v>
+        <v>-31.80846223396481</v>
       </c>
       <c r="Y920" t="n">
-        <v>650.8450195605366</v>
+        <v>650.8450506955113</v>
       </c>
     </row>
     <row r="921">
@@ -73164,13 +73164,13 @@
         <v>17</v>
       </c>
       <c r="C921" t="n">
-        <v>159.1387053547043</v>
+        <v>159.1387053547124</v>
       </c>
       <c r="D921" t="n">
-        <v>0.5292098431006277</v>
+        <v>0.5292098430924433</v>
       </c>
       <c r="E921" t="n">
-        <v>2897.256283380872</v>
+        <v>2897.256283381766</v>
       </c>
       <c r="F921" t="inlineStr">
         <is>
@@ -73178,52 +73178,52 @@
         </is>
       </c>
       <c r="G921" t="n">
-        <v>97.00069470944771</v>
+        <v>0.8045899841092614</v>
       </c>
       <c r="H921" t="n">
-        <v>93.9903947528079</v>
+        <v>-2.20570997253055</v>
       </c>
       <c r="I921" t="n">
-        <v>1e-30</v>
+        <v>0.1363080708152348</v>
       </c>
       <c r="J921" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K921" t="n">
-        <v>187.7945488789588</v>
+        <v>187.7945488789615</v>
       </c>
       <c r="L921" t="n">
-        <v>0</v>
+        <v>94.76522955413043</v>
       </c>
       <c r="M921" t="n">
-        <v>0</v>
+        <v>-90.56485518828536</v>
       </c>
       <c r="N921" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O921" t="n">
         <v>30</v>
       </c>
       <c r="P921" t="n">
-        <v>1565.135990870805</v>
+        <v>1565.135990869766</v>
       </c>
       <c r="Q921" t="n">
-        <v>937.6436918408151</v>
+        <v>937.643691840814</v>
       </c>
       <c r="R921" t="n">
-        <v>-6767.336313883225</v>
+        <v>-6767.336313883464</v>
       </c>
       <c r="S921" t="n">
-        <v>7.340382095980618</v>
+        <v>7.340382095980876</v>
       </c>
       <c r="T921" t="n">
-        <v>-0.2326866231669482</v>
+        <v>-0.232686623166955</v>
       </c>
       <c r="U921" t="n">
-        <v>1.666082089926837</v>
+        <v>1.666082089925708</v>
       </c>
       <c r="V921" t="n">
-        <v>7.530682698797542</v>
+        <v>7.530682698797544</v>
       </c>
       <c r="W921" t="n">
         <v>-74.87719735979235</v>
@@ -73243,13 +73243,13 @@
         <v>17</v>
       </c>
       <c r="C922" t="n">
-        <v>158.6156151015848</v>
+        <v>158.6156151015928</v>
       </c>
       <c r="D922" t="n">
-        <v>1.126968774861106</v>
+        <v>1.126968774852466</v>
       </c>
       <c r="E922" t="n">
-        <v>2832.43788149302</v>
+        <v>2832.437881493943</v>
       </c>
       <c r="F922" t="inlineStr">
         <is>
@@ -73257,49 +73257,49 @@
         </is>
       </c>
       <c r="G922" t="n">
-        <v>97.19722509599504</v>
+        <v>1.001120370656413</v>
       </c>
       <c r="H922" t="n">
-        <v>94.18692513935522</v>
+        <v>-2.009179585983399</v>
       </c>
       <c r="I922" t="n">
-        <v>1e-30</v>
+        <v>0.1308965333431014</v>
       </c>
       <c r="J922" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K922" t="n">
-        <v>187.5980184924115</v>
+        <v>187.5980184924144</v>
       </c>
       <c r="L922" t="n">
-        <v>0</v>
+        <v>95.54566160346062</v>
       </c>
       <c r="M922" t="n">
-        <v>0</v>
+        <v>-91.13664210310755</v>
       </c>
       <c r="N922" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O922" t="n">
         <v>30</v>
       </c>
       <c r="P922" t="n">
-        <v>1638.446860891665</v>
+        <v>1638.446860890604</v>
       </c>
       <c r="Q922" t="n">
-        <v>935.2628460624757</v>
+        <v>935.2628460625107</v>
       </c>
       <c r="R922" t="n">
-        <v>-6750.285269140151</v>
+        <v>-6750.285269140403</v>
       </c>
       <c r="S922" t="n">
-        <v>7.321930853975919</v>
+        <v>7.321930853976194</v>
       </c>
       <c r="T922" t="n">
-        <v>-0.2434741433909394</v>
+        <v>-0.243474143390783</v>
       </c>
       <c r="U922" t="n">
-        <v>1.744150830326933</v>
+        <v>1.744150830325802</v>
       </c>
       <c r="V922" t="n">
         <v>7.530737892652659</v>
@@ -73322,13 +73322,13 @@
         <v>17</v>
       </c>
       <c r="C923" t="n">
-        <v>158.0698948544229</v>
+        <v>158.0698948544312</v>
       </c>
       <c r="D923" t="n">
-        <v>1.737418042989713</v>
+        <v>1.737418042980894</v>
       </c>
       <c r="E923" t="n">
-        <v>2767.800139288091</v>
+        <v>2767.800139289011</v>
       </c>
       <c r="F923" t="inlineStr">
         <is>
@@ -73336,10 +73336,10 @@
         </is>
       </c>
       <c r="G923" t="n">
-        <v>97.39773844063964</v>
+        <v>97.39773844063677</v>
       </c>
       <c r="H923" t="n">
-        <v>94.38743848399983</v>
+        <v>94.38743848399696</v>
       </c>
       <c r="I923" t="n">
         <v>1e-30</v>
@@ -73348,7 +73348,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K923" t="n">
-        <v>187.3975051477669</v>
+        <v>187.3975051477698</v>
       </c>
       <c r="L923" t="n">
         <v>0</v>
@@ -73363,22 +73363,22 @@
         <v>30</v>
       </c>
       <c r="P923" t="n">
-        <v>1711.569001345484</v>
+        <v>1711.569001344425</v>
       </c>
       <c r="Q923" t="n">
-        <v>932.774265542994</v>
+        <v>932.7742655430311</v>
       </c>
       <c r="R923" t="n">
-        <v>-6732.45453551903</v>
+        <v>-6732.454535519294</v>
       </c>
       <c r="S923" t="n">
-        <v>7.302635508292247</v>
+        <v>7.302635508292534</v>
       </c>
       <c r="T923" t="n">
-        <v>-0.2542339965608411</v>
+        <v>-0.2542339965606856</v>
       </c>
       <c r="U923" t="n">
-        <v>1.822020882528851</v>
+        <v>1.822020882527723</v>
       </c>
       <c r="V923" t="n">
         <v>7.530795468497951</v>
@@ -73401,13 +73401,13 @@
         <v>17</v>
       </c>
       <c r="C924" t="n">
-        <v>157.499846636015</v>
+        <v>157.4998466360243</v>
       </c>
       <c r="D924" t="n">
-        <v>2.361325152571904</v>
+        <v>2.361325152563205</v>
       </c>
       <c r="E924" t="n">
-        <v>2703.364163294297</v>
+        <v>2703.364163295185</v>
       </c>
       <c r="F924" t="inlineStr">
         <is>
@@ -73415,10 +73415,10 @@
         </is>
       </c>
       <c r="G924" t="n">
-        <v>97.60234193075289</v>
+        <v>97.60234193075004</v>
       </c>
       <c r="H924" t="n">
-        <v>94.59204197411307</v>
+        <v>94.59204197411023</v>
       </c>
       <c r="I924" t="n">
         <v>1e-30</v>
@@ -73427,7 +73427,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K924" t="n">
-        <v>187.1929016576537</v>
+        <v>187.1929016576565</v>
       </c>
       <c r="L924" t="n">
         <v>0</v>
@@ -73442,22 +73442,22 @@
         <v>30</v>
       </c>
       <c r="P924" t="n">
-        <v>1784.493983705241</v>
+        <v>1784.493983704204</v>
       </c>
       <c r="Q924" t="n">
-        <v>930.1782305701372</v>
+        <v>930.1782305701353</v>
       </c>
       <c r="R924" t="n">
-        <v>-6713.846144218804</v>
+        <v>-6713.84614421908</v>
       </c>
       <c r="S924" t="n">
-        <v>7.282498190954835</v>
+        <v>7.282498190955129</v>
       </c>
       <c r="T924" t="n">
-        <v>-0.2649649679717067</v>
+        <v>-0.264964967971713</v>
       </c>
       <c r="U924" t="n">
-        <v>1.899683353314829</v>
+        <v>1.899683353313702</v>
       </c>
       <c r="V924" t="n">
         <v>7.530855408144162</v>
@@ -73480,13 +73480,13 @@
         <v>17</v>
       </c>
       <c r="C925" t="n">
-        <v>156.9036086828635</v>
+        <v>156.9036086828727</v>
       </c>
       <c r="D925" t="n">
-        <v>2.999509477499743</v>
+        <v>2.999509477490546</v>
       </c>
       <c r="E925" t="n">
-        <v>2639.152878079529</v>
+        <v>2639.152878080445</v>
       </c>
       <c r="F925" t="inlineStr">
         <is>
@@ -73494,10 +73494,10 @@
         </is>
       </c>
       <c r="G925" t="n">
-        <v>97.81114201151256</v>
+        <v>97.81114201150955</v>
       </c>
       <c r="H925" t="n">
-        <v>94.80084205487275</v>
+        <v>94.80084205486973</v>
       </c>
       <c r="I925" t="n">
         <v>1e-30</v>
@@ -73506,7 +73506,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K925" t="n">
-        <v>186.984101576894</v>
+        <v>186.984101576897</v>
       </c>
       <c r="L925" t="n">
         <v>0</v>
@@ -73521,25 +73521,25 @@
         <v>30</v>
       </c>
       <c r="P925" t="n">
-        <v>1857.213398553668</v>
+        <v>1857.213398552613</v>
       </c>
       <c r="Q925" t="n">
-        <v>927.4750387111688</v>
+        <v>927.4750387112083</v>
       </c>
       <c r="R925" t="n">
-        <v>-6694.462215234191</v>
+        <v>-6694.46221523448</v>
       </c>
       <c r="S925" t="n">
-        <v>7.261521128469059</v>
+        <v>7.261521128469369</v>
       </c>
       <c r="T925" t="n">
-        <v>-0.2756658245668185</v>
+        <v>-0.2756658245666639</v>
       </c>
       <c r="U925" t="n">
-        <v>1.977129370488422</v>
+        <v>1.9771293704873</v>
       </c>
       <c r="V925" t="n">
-        <v>7.530917692664327</v>
+        <v>7.530917692664326</v>
       </c>
       <c r="W925" t="n">
         <v>-72.74318747155564</v>
@@ -73559,13 +73559,13 @@
         <v>17</v>
       </c>
       <c r="C926" t="n">
-        <v>156.2791365790948</v>
+        <v>156.2791365791044</v>
       </c>
       <c r="D926" t="n">
-        <v>3.652844879334061</v>
+        <v>3.652844879324646</v>
       </c>
       <c r="E926" t="n">
-        <v>2575.191224914251</v>
+        <v>2575.191224915164</v>
       </c>
       <c r="F926" t="inlineStr">
         <is>
@@ -73573,10 +73573,10 @@
         </is>
       </c>
       <c r="G926" t="n">
-        <v>98.0242433015684</v>
+        <v>98.02424330156532</v>
       </c>
       <c r="H926" t="n">
-        <v>95.01394334492859</v>
+        <v>95.01394334492551</v>
       </c>
       <c r="I926" t="n">
         <v>1e-30</v>
@@ -73585,7 +73585,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K926" t="n">
-        <v>186.7710002868382</v>
+        <v>186.7710002868412</v>
       </c>
       <c r="L926" t="n">
         <v>0</v>
@@ -73600,25 +73600,25 @@
         <v>30</v>
       </c>
       <c r="P926" t="n">
-        <v>1929.718861959006</v>
+        <v>1929.718861957954</v>
       </c>
       <c r="Q926" t="n">
-        <v>924.6649944889813</v>
+        <v>924.6649944890232</v>
       </c>
       <c r="R926" t="n">
-        <v>-6674.304957150756</v>
+        <v>-6674.304957151057</v>
       </c>
       <c r="S926" t="n">
-        <v>7.239706640138161</v>
+        <v>7.239706640138487</v>
       </c>
       <c r="T926" t="n">
-        <v>-0.2863353575785481</v>
+        <v>-0.2863353575783953</v>
       </c>
       <c r="U926" t="n">
-        <v>2.05435008380351</v>
+        <v>2.054350083802391</v>
       </c>
       <c r="V926" t="n">
-        <v>7.530982302401441</v>
+        <v>7.530982302401443</v>
       </c>
       <c r="W926" t="n">
         <v>-72.1972232724913</v>
@@ -73638,13 +73638,13 @@
         <v>17</v>
       </c>
       <c r="C927" t="n">
-        <v>155.6241816103298</v>
+        <v>155.6241816103401</v>
       </c>
       <c r="D927" t="n">
-        <v>4.322261846167083</v>
+        <v>4.322261846158204</v>
       </c>
       <c r="E927" t="n">
-        <v>2511.506402674015</v>
+        <v>2511.506402674846</v>
       </c>
       <c r="F927" t="inlineStr">
         <is>
@@ -73652,10 +73652,10 @@
         </is>
       </c>
       <c r="G927" t="n">
-        <v>98.24174718439885</v>
+        <v>98.24174718439596</v>
       </c>
       <c r="H927" t="n">
-        <v>95.23144722775903</v>
+        <v>95.23144722775615</v>
       </c>
       <c r="I927" t="n">
         <v>1e-30</v>
@@ -73664,7 +73664,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K927" t="n">
-        <v>186.5534964040077</v>
+        <v>186.5534964040106</v>
       </c>
       <c r="L927" t="n">
         <v>0</v>
@@ -73679,25 +73679,25 @@
         <v>30</v>
       </c>
       <c r="P927" t="n">
-        <v>2002.002011667837</v>
+        <v>2002.002011666857</v>
       </c>
       <c r="Q927" t="n">
-        <v>921.7484185973559</v>
+        <v>921.748418597352</v>
       </c>
       <c r="R927" t="n">
-        <v>-6653.376666905643</v>
+        <v>-6653.376666905938</v>
       </c>
       <c r="S927" t="n">
-        <v>7.217057139248332</v>
+        <v>7.217057139248643</v>
       </c>
       <c r="T927" t="n">
-        <v>-0.2969723455249906</v>
+        <v>-0.2969723455250052</v>
       </c>
       <c r="U927" t="n">
-        <v>2.131336665884556</v>
+        <v>2.131336665883491</v>
       </c>
       <c r="V927" t="n">
-        <v>7.531049216976731</v>
+        <v>7.531049216976728</v>
       </c>
       <c r="W927" t="n">
         <v>-71.64714675681815</v>
@@ -73717,13 +73717,13 @@
         <v>17</v>
       </c>
       <c r="C928" t="n">
-        <v>154.9362664955069</v>
+        <v>154.936266495517</v>
       </c>
       <c r="D928" t="n">
-        <v>5.008749207258073</v>
+        <v>5.008749207248607</v>
       </c>
       <c r="E928" t="n">
-        <v>2448.128128911848</v>
+        <v>2448.128128912708</v>
       </c>
       <c r="F928" t="inlineStr">
         <is>
@@ -73731,10 +73731,10 @@
         </is>
       </c>
       <c r="G928" t="n">
-        <v>98.46375009845372</v>
+        <v>98.46375009845065</v>
       </c>
       <c r="H928" t="n">
-        <v>95.4534501418139</v>
+        <v>95.45345014181083</v>
       </c>
       <c r="I928" t="n">
         <v>1e-30</v>
@@ -73743,7 +73743,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K928" t="n">
-        <v>186.3314934899529</v>
+        <v>186.3314934899559</v>
       </c>
       <c r="L928" t="n">
         <v>0</v>
@@ -73758,25 +73758,25 @@
         <v>30</v>
       </c>
       <c r="P928" t="n">
-        <v>2074.054510083434</v>
+        <v>2074.054510082437</v>
       </c>
       <c r="Q928" t="n">
-        <v>918.7256440859462</v>
+        <v>918.7256440859892</v>
       </c>
       <c r="R928" t="n">
-        <v>-6631.679729555564</v>
+        <v>-6631.679729555871</v>
       </c>
       <c r="S928" t="n">
-        <v>7.193575132328881</v>
+        <v>7.193575132329208</v>
       </c>
       <c r="T928" t="n">
-        <v>-0.3075755703114009</v>
+        <v>-0.3075755703112527</v>
       </c>
       <c r="U928" t="n">
-        <v>2.208080313151943</v>
+        <v>2.208080313150882</v>
       </c>
       <c r="V928" t="n">
-        <v>7.531118415298092</v>
+        <v>7.531118415298088</v>
       </c>
       <c r="W928" t="n">
         <v>-71.09331108349325</v>
@@ -73796,13 +73796,13 @@
         <v>17</v>
       </c>
       <c r="C929" t="n">
-        <v>154.2126579540934</v>
+        <v>154.2126579541041</v>
       </c>
       <c r="D929" t="n">
-        <v>5.71335507027695</v>
+        <v>5.713355070267229</v>
       </c>
       <c r="E929" t="n">
-        <v>2385.088935045624</v>
+        <v>2385.08893504648</v>
       </c>
       <c r="F929" t="inlineStr">
         <is>
@@ -73810,10 +73810,10 @@
         </is>
       </c>
       <c r="G929" t="n">
-        <v>98.6903414251251</v>
+        <v>98.69034142512199</v>
       </c>
       <c r="H929" t="n">
-        <v>95.68004146848529</v>
+        <v>95.68004146848217</v>
       </c>
       <c r="I929" t="n">
         <v>1e-30</v>
@@ -73822,7 +73822,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K929" t="n">
-        <v>186.1049021632815</v>
+        <v>186.1049021632846</v>
       </c>
       <c r="L929" t="n">
         <v>0</v>
@@ -73837,25 +73837,25 @@
         <v>30</v>
       </c>
       <c r="P929" t="n">
-        <v>2145.868047208106</v>
+        <v>2145.868047207111</v>
       </c>
       <c r="Q929" t="n">
-        <v>915.5970115946565</v>
+        <v>915.5970115947005</v>
       </c>
       <c r="R929" t="n">
-        <v>-6609.216618034138</v>
+        <v>-6609.216618034455</v>
       </c>
       <c r="S929" t="n">
-        <v>7.169263218263329</v>
+        <v>7.169263218263675</v>
       </c>
       <c r="T929" t="n">
-        <v>-0.3181438330369257</v>
+        <v>-0.3181438330367793</v>
       </c>
       <c r="U929" t="n">
-        <v>2.284572246751774</v>
+        <v>2.284572246750715</v>
       </c>
       <c r="V929" t="n">
-        <v>7.53118987556889</v>
+        <v>7.531189875568891</v>
       </c>
       <c r="W929" t="n">
         <v>-70.53603136272059</v>
@@ -73875,13 +73875,13 @@
         <v>17</v>
       </c>
       <c r="C930" t="n">
-        <v>153.4503354476745</v>
+        <v>153.4503354476863</v>
       </c>
       <c r="D930" t="n">
-        <v>6.437186505617171</v>
+        <v>6.437186505606711</v>
       </c>
       <c r="E930" t="n">
-        <v>2322.424511059489</v>
+        <v>2322.424511060378</v>
       </c>
       <c r="F930" t="inlineStr">
         <is>
@@ -73889,10 +73889,10 @@
         </is>
       </c>
       <c r="G930" t="n">
-        <v>98.92160084904029</v>
+        <v>98.92160084903695</v>
       </c>
       <c r="H930" t="n">
-        <v>95.91130089240048</v>
+        <v>95.91130089239714</v>
       </c>
       <c r="I930" t="n">
         <v>1e-30</v>
@@ -73901,7 +73901,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K930" t="n">
-        <v>185.8736427393663</v>
+        <v>185.8736427393696</v>
       </c>
       <c r="L930" t="n">
         <v>0</v>
@@ -73916,22 +73916,22 @@
         <v>30</v>
       </c>
       <c r="P930" t="n">
-        <v>2217.434337550323</v>
+        <v>2217.434337549285</v>
       </c>
       <c r="Q930" t="n">
-        <v>912.3628783076487</v>
+        <v>912.3628783076961</v>
       </c>
       <c r="R930" t="n">
-        <v>-6585.989892885415</v>
+        <v>-6585.989892885757</v>
       </c>
       <c r="S930" t="n">
-        <v>7.144124089411899</v>
+        <v>7.144124089412271</v>
       </c>
       <c r="T930" t="n">
-        <v>-0.3286759226228428</v>
+        <v>-0.3286759226226906</v>
       </c>
       <c r="U930" t="n">
-        <v>2.36080371347746</v>
+        <v>2.360803713476356</v>
       </c>
       <c r="V930" t="n">
         <v>7.531263575297065</v>
@@ -73954,13 +73954,13 @@
         <v>17</v>
       </c>
       <c r="C931" t="n">
-        <v>152.6459561327316</v>
+        <v>152.6459561327417</v>
       </c>
       <c r="D931" t="n">
-        <v>7.181407747052655</v>
+        <v>7.181407747043822</v>
       </c>
       <c r="E931" t="n">
-        <v>2260.17408336481</v>
+        <v>2260.174083365531</v>
       </c>
       <c r="F931" t="inlineStr">
         <is>
@@ -73968,10 +73968,10 @@
         </is>
       </c>
       <c r="G931" t="n">
-        <v>99.15759516337646</v>
+        <v>99.15759516337368</v>
       </c>
       <c r="H931" t="n">
-        <v>96.14729520673664</v>
+        <v>96.14729520673387</v>
       </c>
       <c r="I931" t="n">
         <v>1e-30</v>
@@ -73980,7 +73980,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K931" t="n">
-        <v>185.6376484250301</v>
+        <v>185.6376484250329</v>
       </c>
       <c r="L931" t="n">
         <v>0</v>
@@ -73995,22 +73995,22 @@
         <v>30</v>
       </c>
       <c r="P931" t="n">
-        <v>2288.745123746238</v>
+        <v>2288.745123745392</v>
       </c>
       <c r="Q931" t="n">
-        <v>909.0236119762078</v>
+        <v>909.0236119762478</v>
       </c>
       <c r="R931" t="n">
-        <v>-6562.002202003388</v>
+        <v>-6562.002202003677</v>
       </c>
       <c r="S931" t="n">
-        <v>7.11816053052783</v>
+        <v>7.118160530528145</v>
       </c>
       <c r="T931" t="n">
-        <v>-0.339170636963614</v>
+        <v>-0.3391706369634909</v>
       </c>
       <c r="U931" t="n">
-        <v>2.436765986700766</v>
+        <v>2.436765986699866</v>
       </c>
       <c r="V931" t="n">
         <v>7.531339491304605</v>
@@ -74033,13 +74033,13 @@
         <v>17</v>
       </c>
       <c r="C932" t="n">
-        <v>151.7958152286513</v>
+        <v>151.7958152286644</v>
       </c>
       <c r="D932" t="n">
-        <v>7.947236129219319</v>
+        <v>7.947236129208262</v>
       </c>
       <c r="E932" t="n">
-        <v>2198.380847080665</v>
+        <v>2198.38084708154</v>
       </c>
       <c r="F932" t="inlineStr">
         <is>
@@ -74047,10 +74047,10 @@
         </is>
       </c>
       <c r="G932" t="n">
-        <v>99.39837434361344</v>
+        <v>99.39837434360997</v>
       </c>
       <c r="H932" t="n">
-        <v>96.38807438697363</v>
+        <v>96.38807438697016</v>
       </c>
       <c r="I932" t="n">
         <v>1e-30</v>
@@ -74059,13 +74059,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K932" t="n">
-        <v>185.3968692447931</v>
+        <v>185.3968692447966</v>
       </c>
       <c r="L932" t="n">
-        <v>0</v>
+        <v>1.207418269725733e-06</v>
       </c>
       <c r="M932" t="n">
-        <v>0</v>
+        <v>-51.2700933997584</v>
       </c>
       <c r="N932" t="n">
         <v>66.19610472533577</v>
@@ -74074,25 +74074,25 @@
         <v>30</v>
       </c>
       <c r="P932" t="n">
-        <v>2359.792177481553</v>
+        <v>2359.792177480524</v>
       </c>
       <c r="Q932" t="n">
-        <v>905.5795906204966</v>
+        <v>905.5795906205472</v>
       </c>
       <c r="R932" t="n">
-        <v>-6537.256280354508</v>
+        <v>-6537.256280354873</v>
       </c>
       <c r="S932" t="n">
-        <v>7.091375418500324</v>
+        <v>7.091375418500716</v>
       </c>
       <c r="T932" t="n">
-        <v>-0.3496267829653535</v>
+        <v>-0.3496267829651998</v>
       </c>
       <c r="U932" t="n">
-        <v>2.512450367302016</v>
+        <v>2.512450367300919</v>
       </c>
       <c r="V932" t="n">
-        <v>7.531417599737342</v>
+        <v>7.531417599737338</v>
       </c>
       <c r="W932" t="n">
         <v>-68.84620256019637</v>
@@ -74112,13 +74112,13 @@
         <v>17</v>
       </c>
       <c r="C933" t="n">
-        <v>150.8958012949625</v>
+        <v>150.895801294977</v>
       </c>
       <c r="D933" t="n">
-        <v>8.735934935342357</v>
+        <v>8.735934935330555</v>
       </c>
       <c r="E933" t="n">
-        <v>2137.092459752141</v>
+        <v>2137.092459753044</v>
       </c>
       <c r="F933" t="inlineStr">
         <is>
@@ -74126,10 +74126,10 @@
         </is>
       </c>
       <c r="G933" t="n">
-        <v>99.64396673747726</v>
+        <v>99.64396673747358</v>
       </c>
       <c r="H933" t="n">
-        <v>96.63366678083744</v>
+        <v>96.63366678083376</v>
       </c>
       <c r="I933" t="n">
         <v>1e-30</v>
@@ -74138,7 +74138,7 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K933" t="n">
-        <v>185.1512768509293</v>
+        <v>185.151276850933</v>
       </c>
       <c r="L933" t="n">
         <v>0</v>
@@ -74153,25 +74153,25 @@
         <v>30</v>
       </c>
       <c r="P933" t="n">
-        <v>2430.567297777104</v>
+        <v>2430.567297776038</v>
       </c>
       <c r="Q933" t="n">
-        <v>902.0312093691236</v>
+        <v>902.0312093691788</v>
       </c>
       <c r="R933" t="n">
-        <v>-6511.754949684598</v>
+        <v>-6511.75494968499</v>
       </c>
       <c r="S933" t="n">
-        <v>7.063771723139879</v>
+        <v>7.0637717231403</v>
       </c>
       <c r="T933" t="n">
-        <v>-0.3600431559921561</v>
+        <v>-0.3600431559919993</v>
       </c>
       <c r="U933" t="n">
-        <v>2.587848184595694</v>
+        <v>2.587848184594558</v>
       </c>
       <c r="V933" t="n">
-        <v>7.531497876075021</v>
+        <v>7.531497876075017</v>
       </c>
       <c r="W933" t="n">
         <v>-68.27768845777453</v>
@@ -74191,13 +74191,13 @@
         <v>17</v>
       </c>
       <c r="C934" t="n">
-        <v>149.9413464613444</v>
+        <v>149.9413464613569</v>
       </c>
       <c r="D934" t="n">
-        <v>9.548802351187407</v>
+        <v>9.548802351178884</v>
       </c>
       <c r="E934" t="n">
-        <v>2076.361583989079</v>
+        <v>2076.361583989703</v>
       </c>
       <c r="F934" t="inlineStr">
         <is>
@@ -74205,10 +74205,10 @@
         </is>
       </c>
       <c r="G934" t="n">
-        <v>99.89437327482125</v>
+        <v>99.89437327481865</v>
       </c>
       <c r="H934" t="n">
-        <v>96.88407331818144</v>
+        <v>96.88407331817884</v>
       </c>
       <c r="I934" t="n">
         <v>1e-30</v>
@@ -74217,13 +74217,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K934" t="n">
-        <v>184.9008703135853</v>
+        <v>184.9008703135879</v>
       </c>
       <c r="L934" t="n">
         <v>8.537736462515939e-07</v>
       </c>
       <c r="M934" t="n">
-        <v>-50.66058814255435</v>
+        <v>-50.66066202416287</v>
       </c>
       <c r="N934" t="n">
         <v>66.19610472533577</v>
@@ -74232,25 +74232,25 @@
         <v>30</v>
       </c>
       <c r="P934" t="n">
-        <v>2501.062316546234</v>
+        <v>2501.062316545463</v>
       </c>
       <c r="Q934" t="n">
-        <v>898.378868342132</v>
+        <v>898.3788683421183</v>
       </c>
       <c r="R934" t="n">
-        <v>-6485.501118231932</v>
+        <v>-6485.501118232231</v>
       </c>
       <c r="S934" t="n">
-        <v>7.035352505163598</v>
+        <v>7.035352505163909</v>
       </c>
       <c r="T934" t="n">
-        <v>-0.3704185761850059</v>
+        <v>-0.3704185761850451</v>
       </c>
       <c r="U934" t="n">
-        <v>2.662950797268593</v>
+        <v>2.66295079726775</v>
       </c>
       <c r="V934" t="n">
-        <v>7.531580295141789</v>
+        <v>7.531580295141784</v>
       </c>
       <c r="W934" t="n">
         <v>-67.70687912422468</v>
@@ -74270,13 +74270,13 @@
         <v>17</v>
       </c>
       <c r="C935" t="n">
-        <v>148.9273704636593</v>
+        <v>148.9273704636756</v>
       </c>
       <c r="D935" t="n">
-        <v>10.38715477104621</v>
+        <v>10.38715477103364</v>
       </c>
       <c r="E935" t="n">
-        <v>2016.24651736797</v>
+        <v>2016.246517368853</v>
       </c>
       <c r="F935" t="inlineStr">
         <is>
@@ -74284,10 +74284,10 @@
         </is>
       </c>
       <c r="G935" t="n">
-        <v>100.1495603726428</v>
+        <v>100.149560372639</v>
       </c>
       <c r="H935" t="n">
-        <v>97.13926041600303</v>
+        <v>97.13926041599922</v>
       </c>
       <c r="I935" t="n">
         <v>1e-30</v>
@@ -74296,13 +74296,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K935" t="n">
-        <v>184.6456832157637</v>
+        <v>184.6456832157675</v>
       </c>
       <c r="L935" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>8.537736462515939e-07</v>
       </c>
       <c r="M935" t="n">
-        <v>-51.71073594568326</v>
+        <v>-51.7107419530827</v>
       </c>
       <c r="N935" t="n">
         <v>66.19610472533577</v>
@@ -74311,25 +74311,25 @@
         <v>30</v>
       </c>
       <c r="P935" t="n">
-        <v>2571.269094903312</v>
+        <v>2571.269094902253</v>
       </c>
       <c r="Q935" t="n">
-        <v>894.6229847889147</v>
+        <v>894.6229847889717</v>
       </c>
       <c r="R935" t="n">
-        <v>-6458.497780407838</v>
+        <v>-6458.497780408252</v>
       </c>
       <c r="S935" t="n">
-        <v>7.006120917741042</v>
+        <v>7.006120917741493</v>
       </c>
       <c r="T935" t="n">
-        <v>-0.3807518524499579</v>
+        <v>-0.3807518524498014</v>
       </c>
       <c r="U935" t="n">
-        <v>2.737749594307623</v>
+        <v>2.737749594306494</v>
       </c>
       <c r="V935" t="n">
-        <v>7.53166483111697</v>
+        <v>7.531664831116971</v>
       </c>
       <c r="W935" t="n">
         <v>-67.13394071137539</v>
@@ -74349,13 +74349,13 @@
         <v>17</v>
       </c>
       <c r="C936" t="n">
-        <v>147.848219082629</v>
+        <v>147.8482190826477</v>
       </c>
       <c r="D936" t="n">
-        <v>11.25230312023243</v>
+        <v>11.25230312022004</v>
       </c>
       <c r="E936" t="n">
-        <v>1956.811884475584</v>
+        <v>1956.811884476416</v>
       </c>
       <c r="F936" t="inlineStr">
         <is>
@@ -74363,10 +74363,10 @@
         </is>
       </c>
       <c r="G936" t="n">
-        <v>100.4094514308183</v>
+        <v>100.4094514308146</v>
       </c>
       <c r="H936" t="n">
-        <v>97.39915147417852</v>
+        <v>97.39915147417483</v>
       </c>
       <c r="I936" t="n">
         <v>1e-30</v>
@@ -74375,13 +74375,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K936" t="n">
-        <v>184.3857921575882</v>
+        <v>184.3857921575919</v>
       </c>
       <c r="L936" t="n">
         <v>1.207418269725733e-06</v>
       </c>
       <c r="M936" t="n">
-        <v>-52.74123064196277</v>
+        <v>-52.74128227226347</v>
       </c>
       <c r="N936" t="n">
         <v>66.19610472533577</v>
@@ -74390,22 +74390,22 @@
         <v>30</v>
       </c>
       <c r="P936" t="n">
-        <v>2641.179526729702</v>
+        <v>2641.179526728662</v>
       </c>
       <c r="Q936" t="n">
-        <v>890.7639860626953</v>
+        <v>890.7639860626947</v>
       </c>
       <c r="R936" t="n">
-        <v>-6430.748016484729</v>
+        <v>-6430.748016485156</v>
       </c>
       <c r="S936" t="n">
-        <v>6.9760802052107</v>
+        <v>6.976080205211155</v>
       </c>
       <c r="T936" t="n">
         <v>-0.3910418032396222</v>
       </c>
       <c r="U936" t="n">
-        <v>2.812235995935687</v>
+        <v>2.812235995934557</v>
       </c>
       <c r="V936" t="n">
         <v>7.531751457546235</v>
@@ -74428,13 +74428,13 @@
         <v>17</v>
       </c>
       <c r="C937" t="n">
-        <v>146.6975965491819</v>
+        <v>146.6975965492005</v>
       </c>
       <c r="D937" t="n">
-        <v>12.14551971745493</v>
+        <v>12.1455197174415</v>
       </c>
       <c r="E937" t="n">
-        <v>1898.129417465554</v>
+        <v>1898.129417466416</v>
       </c>
       <c r="F937" t="inlineStr">
         <is>
@@ -74442,10 +74442,10 @@
         </is>
       </c>
       <c r="G937" t="n">
-        <v>100.673916577883</v>
+        <v>100.6739165778791</v>
       </c>
       <c r="H937" t="n">
-        <v>97.66361662124318</v>
+        <v>97.66361662123924</v>
       </c>
       <c r="I937" t="n">
         <v>1e-30</v>
@@ -74454,13 +74454,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K937" t="n">
-        <v>184.1213270105236</v>
+        <v>184.1213270105275</v>
       </c>
       <c r="L937" t="n">
         <v>1.478779333471098e-06</v>
       </c>
       <c r="M937" t="n">
-        <v>-53.76182017440708</v>
+        <v>-53.76181794136845</v>
       </c>
       <c r="N937" t="n">
         <v>66.19610472533577</v>
@@ -74469,25 +74469,25 @@
         <v>30</v>
       </c>
       <c r="P937" t="n">
-        <v>2710.78553894166</v>
+        <v>2710.785538940606</v>
       </c>
       <c r="Q937" t="n">
-        <v>886.8023113082224</v>
+        <v>886.8023113082835</v>
       </c>
       <c r="R937" t="n">
-        <v>-6402.254992264171</v>
+        <v>-6402.254992264609</v>
       </c>
       <c r="S937" t="n">
-        <v>6.945233703067538</v>
+        <v>6.945233703068014</v>
       </c>
       <c r="T937" t="n">
-        <v>-0.4012872515225222</v>
+        <v>-0.4012872515223667</v>
       </c>
       <c r="U937" t="n">
-        <v>2.886401454548513</v>
+        <v>2.886401454547388</v>
       </c>
       <c r="V937" t="n">
-        <v>7.531840147353067</v>
+        <v>7.531840147353068</v>
       </c>
       <c r="W937" t="n">
         <v>-65.98226424615737</v>
@@ -74507,13 +74507,13 @@
         <v>17</v>
       </c>
       <c r="C938" t="n">
-        <v>145.4684926826461</v>
+        <v>145.4684926826617</v>
       </c>
       <c r="D938" t="n">
-        <v>13.06799300519253</v>
+        <v>13.0679930051817</v>
       </c>
       <c r="E938" t="n">
-        <v>1840.27882065064</v>
+        <v>1840.278820651305</v>
       </c>
       <c r="F938" t="inlineStr">
         <is>
@@ -74521,10 +74521,10 @@
         </is>
       </c>
       <c r="G938" t="n">
-        <v>100.9427604185265</v>
+        <v>100.9427604185234</v>
       </c>
       <c r="H938" t="n">
-        <v>97.93246046188673</v>
+        <v>97.93246046188359</v>
       </c>
       <c r="I938" t="n">
         <v>1e-30</v>
@@ -74533,13 +74533,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K938" t="n">
-        <v>183.85248316988</v>
+        <v>183.8524831698832</v>
       </c>
       <c r="L938" t="n">
-        <v>1.909095910416423e-06</v>
+        <v>2.091309789151873e-06</v>
       </c>
       <c r="M938" t="n">
-        <v>-54.7811669484629</v>
+        <v>-54.78116486020314</v>
       </c>
       <c r="N938" t="n">
         <v>66.19610472533577</v>
@@ -74548,25 +74548,25 @@
         <v>30</v>
       </c>
       <c r="P938" t="n">
-        <v>2780.079093058163</v>
+        <v>2780.079093057342</v>
       </c>
       <c r="Q938" t="n">
-        <v>882.738409377479</v>
+        <v>882.7384093775277</v>
       </c>
       <c r="R938" t="n">
-        <v>-6373.021958738112</v>
+        <v>-6373.021958738464</v>
       </c>
       <c r="S938" t="n">
-        <v>6.913584837386352</v>
+        <v>6.913584837386731</v>
       </c>
       <c r="T938" t="n">
-        <v>-0.4114870299534505</v>
+        <v>-0.4114870299533291</v>
       </c>
       <c r="U938" t="n">
-        <v>2.960237455651441</v>
+        <v>2.960237455650564</v>
       </c>
       <c r="V938" t="n">
-        <v>7.531930872850608</v>
+        <v>7.531930872850603</v>
       </c>
       <c r="W938" t="n">
         <v>-65.40378652914464</v>
@@ -74586,13 +74586,13 @@
         <v>17</v>
       </c>
       <c r="C939" t="n">
-        <v>144.1531057313654</v>
+        <v>144.153105731388</v>
       </c>
       <c r="D939" t="n">
-        <v>14.02076651280248</v>
+        <v>14.02076651278897</v>
       </c>
       <c r="E939" t="n">
-        <v>1783.348731490533</v>
+        <v>1783.34873149132</v>
       </c>
       <c r="F939" t="inlineStr">
         <is>
@@ -74600,10 +74600,10 @@
         </is>
       </c>
       <c r="G939" t="n">
-        <v>101.215707433737</v>
+        <v>101.2157074337331</v>
       </c>
       <c r="H939" t="n">
-        <v>98.20540747709715</v>
+        <v>98.20540747709332</v>
       </c>
       <c r="I939" t="n">
         <v>1e-30</v>
@@ -74612,13 +74612,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K939" t="n">
-        <v>183.5795361546696</v>
+        <v>183.5795361546734</v>
       </c>
       <c r="L939" t="n">
         <v>2.258872743922551e-06</v>
       </c>
       <c r="M939" t="n">
-        <v>-54.66938344043989</v>
+        <v>-54.66942554213411</v>
       </c>
       <c r="N939" t="n">
         <v>66.19610472533577</v>
@@ -74627,25 +74627,25 @@
         <v>30</v>
       </c>
       <c r="P939" t="n">
-        <v>2849.052183547441</v>
+        <v>2849.052183546416</v>
       </c>
       <c r="Q939" t="n">
-        <v>878.5727468863156</v>
+        <v>878.5727468863173</v>
       </c>
       <c r="R939" t="n">
-        <v>-6343.052251730518</v>
+        <v>-6343.052251730978</v>
       </c>
       <c r="S939" t="n">
-        <v>6.881137125726631</v>
+        <v>6.881137125727121</v>
       </c>
       <c r="T939" t="n">
-        <v>-0.4216399608431862</v>
+        <v>-0.4216399608431871</v>
       </c>
       <c r="U939" t="n">
-        <v>3.033735518795228</v>
+        <v>3.033735518794114</v>
       </c>
       <c r="V939" t="n">
-        <v>7.532023605753833</v>
+        <v>7.532023605753832</v>
       </c>
       <c r="W939" t="n">
         <v>-64.8237032807647</v>
@@ -74665,13 +74665,13 @@
         <v>17</v>
       </c>
       <c r="C940" t="n">
-        <v>142.7427639752391</v>
+        <v>142.7427639752613</v>
       </c>
       <c r="D940" t="n">
-        <v>15.00465822529893</v>
+        <v>15.00465822528647</v>
       </c>
       <c r="E940" t="n">
-        <v>1727.437750741135</v>
+        <v>1727.437750741829</v>
       </c>
       <c r="F940" t="inlineStr">
         <is>
@@ -74679,10 +74679,10 @@
         </is>
       </c>
       <c r="G940" t="n">
-        <v>101.4923848522865</v>
+        <v>101.492384852283</v>
       </c>
       <c r="H940" t="n">
-        <v>98.48208489564672</v>
+        <v>98.48208489564323</v>
       </c>
       <c r="I940" t="n">
         <v>1e-30</v>
@@ -74691,13 +74691,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K940" t="n">
-        <v>183.30285873612</v>
+        <v>183.3028587361235</v>
       </c>
       <c r="L940" t="n">
-        <v>2.831646840510159e-06</v>
+        <v>2.699869328381917e-06</v>
       </c>
       <c r="M940" t="n">
-        <v>-56.85019692058694</v>
+        <v>-56.85022267566195</v>
       </c>
       <c r="N940" t="n">
         <v>66.19610472533577</v>
@@ -74706,25 +74706,25 @@
         <v>30</v>
       </c>
       <c r="P940" t="n">
-        <v>2917.696843895581</v>
+        <v>2917.696843894657</v>
       </c>
       <c r="Q940" t="n">
-        <v>874.3057918067112</v>
+        <v>874.305791806706</v>
       </c>
       <c r="R940" t="n">
-        <v>-6312.349291546792</v>
+        <v>-6312.349291547222</v>
       </c>
       <c r="S940" t="n">
-        <v>6.847894174426179</v>
+        <v>6.847894174426635</v>
       </c>
       <c r="T940" t="n">
-        <v>-0.4317448965549768</v>
+        <v>-0.4317448965549891</v>
       </c>
       <c r="U940" t="n">
-        <v>3.106887198521941</v>
+        <v>3.106887198520936</v>
       </c>
       <c r="V940" t="n">
-        <v>7.532118317192102</v>
+        <v>7.532118317192103</v>
       </c>
       <c r="W940" t="n">
         <v>-64.24211737215575</v>
@@ -74744,13 +74744,13 @@
         <v>17</v>
       </c>
       <c r="C941" t="n">
-        <v>141.2278487639779</v>
+        <v>141.2278487640013</v>
       </c>
       <c r="D941" t="n">
-        <v>16.02015452005664</v>
+        <v>16.02015452004218</v>
       </c>
       <c r="E941" t="n">
-        <v>1672.655580353642</v>
+        <v>1672.655580354401</v>
       </c>
       <c r="F941" t="inlineStr">
         <is>
@@ -74758,10 +74758,10 @@
         </is>
       </c>
       <c r="G941" t="n">
-        <v>101.7723025020478</v>
+        <v>101.7723025020438</v>
       </c>
       <c r="H941" t="n">
-        <v>98.76200254540797</v>
+        <v>98.76200254540402</v>
       </c>
       <c r="I941" t="n">
         <v>1e-30</v>
@@ -74770,13 +74770,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K941" t="n">
-        <v>183.0229410863588</v>
+        <v>183.0229410863627</v>
       </c>
       <c r="L941" t="n">
         <v>3.306651113363207e-06</v>
       </c>
       <c r="M941" t="n">
-        <v>-57.03305539121588</v>
+        <v>-57.03305701470975</v>
       </c>
       <c r="N941" t="n">
         <v>66.19610472533577</v>
@@ -74785,25 +74785,25 @@
         <v>30</v>
       </c>
       <c r="P941" t="n">
-        <v>2986.005140470175</v>
+        <v>2986.005140469191</v>
       </c>
       <c r="Q941" t="n">
-        <v>869.9380362432981</v>
+        <v>869.9380362433621</v>
       </c>
       <c r="R941" t="n">
-        <v>-6280.916582582044</v>
+        <v>-6280.916582582503</v>
       </c>
       <c r="S941" t="n">
-        <v>6.813859681651492</v>
+        <v>6.813859681651989</v>
       </c>
       <c r="T941" t="n">
-        <v>-0.4418006644365166</v>
+        <v>-0.441800664436372</v>
       </c>
       <c r="U941" t="n">
-        <v>3.179684085296282</v>
+        <v>3.179684085295233</v>
       </c>
       <c r="V941" t="n">
-        <v>7.532214977721943</v>
+        <v>7.532214977721942</v>
       </c>
       <c r="W941" t="n">
         <v>-63.65912276997896</v>
@@ -74823,13 +74823,13 @@
         <v>17</v>
       </c>
       <c r="C942" t="n">
-        <v>139.5977271278522</v>
+        <v>139.5977271278732</v>
       </c>
       <c r="D942" t="n">
-        <v>17.06727392143988</v>
+        <v>17.06727392142932</v>
       </c>
       <c r="E942" t="n">
-        <v>1619.124189111099</v>
+        <v>1619.124189111624</v>
       </c>
       <c r="F942" t="inlineStr">
         <is>
@@ -74837,10 +74837,10 @@
         </is>
       </c>
       <c r="G942" t="n">
-        <v>102.0548297569744</v>
+        <v>102.0548297569716</v>
       </c>
       <c r="H942" t="n">
-        <v>99.0445298003346</v>
+        <v>99.04452980033177</v>
       </c>
       <c r="I942" t="n">
         <v>1e-30</v>
@@ -74849,13 +74849,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K942" t="n">
-        <v>182.7404138314322</v>
+        <v>182.740413831435</v>
       </c>
       <c r="L942" t="n">
-        <v>3.721513044668944e-06</v>
+        <v>3.912482360306382e-06</v>
       </c>
       <c r="M942" t="n">
-        <v>-58.23770801285843</v>
+        <v>-58.23773150751231</v>
       </c>
       <c r="N942" t="n">
         <v>66.19610472533577</v>
@@ -74864,25 +74864,25 @@
         <v>30</v>
       </c>
       <c r="P942" t="n">
-        <v>3053.969180477213</v>
+        <v>3053.96918047647</v>
       </c>
       <c r="Q942" t="n">
-        <v>865.4699732541727</v>
+        <v>865.469973254156</v>
       </c>
       <c r="R942" t="n">
-        <v>-6248.757712951931</v>
+        <v>-6248.757712952296</v>
       </c>
       <c r="S942" t="n">
-        <v>6.779037433672372</v>
+        <v>6.779037433672759</v>
       </c>
       <c r="T942" t="n">
-        <v>-0.4518061220103937</v>
+        <v>-0.4518061220104315</v>
       </c>
       <c r="U942" t="n">
-        <v>3.252117806456646</v>
+        <v>3.252117806455835</v>
       </c>
       <c r="V942" t="n">
-        <v>7.532313557340118</v>
+        <v>7.532313557340119</v>
       </c>
       <c r="W942" t="n">
         <v>-63.07480545091033</v>
@@ -74902,13 +74902,13 @@
         <v>17</v>
       </c>
       <c r="C943" t="n">
-        <v>137.8407019192308</v>
+        <v>137.8407019192595</v>
       </c>
       <c r="D943" t="n">
-        <v>18.14539320037312</v>
+        <v>18.14539320035893</v>
       </c>
       <c r="E943" t="n">
-        <v>1566.979038936352</v>
+        <v>1566.979038937021</v>
       </c>
       <c r="F943" t="inlineStr">
         <is>
@@ -74916,10 +74916,10 @@
         </is>
       </c>
       <c r="G943" t="n">
-        <v>102.3391692362874</v>
+        <v>102.3391692362837</v>
       </c>
       <c r="H943" t="n">
-        <v>99.32886927964756</v>
+        <v>99.32886927964384</v>
       </c>
       <c r="I943" t="n">
         <v>1e-30</v>
@@ -74928,13 +74928,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K943" t="n">
-        <v>182.4560743521192</v>
+        <v>182.4560743521229</v>
       </c>
       <c r="L943" t="n">
         <v>4.517745487845105e-06</v>
       </c>
       <c r="M943" t="n">
-        <v>-58.77798923309091</v>
+        <v>-58.77801423262375</v>
       </c>
       <c r="N943" t="n">
         <v>66.19610472533577</v>
@@ -74943,22 +74943,22 @@
         <v>30</v>
       </c>
       <c r="P943" t="n">
-        <v>3121.581107771541</v>
+        <v>3121.58110777058</v>
       </c>
       <c r="Q943" t="n">
-        <v>860.9021138583212</v>
+        <v>860.9021138583189</v>
       </c>
       <c r="R943" t="n">
-        <v>-6215.876354083496</v>
+        <v>-6215.87635408398</v>
       </c>
       <c r="S943" t="n">
-        <v>6.743431307042163</v>
+        <v>6.743431307042676</v>
       </c>
       <c r="T943" t="n">
-        <v>-0.4617601171790706</v>
+        <v>-0.4617601171790756</v>
       </c>
       <c r="U943" t="n">
-        <v>3.324180027147986</v>
+        <v>3.324180027146942</v>
       </c>
       <c r="V943" t="n">
         <v>7.53241402549695</v>
@@ -74981,13 +74981,13 @@
         <v>17</v>
       </c>
       <c r="C944" t="n">
-        <v>135.9439953657622</v>
+        <v>135.9439953657929</v>
       </c>
       <c r="D944" t="n">
-        <v>19.25303036356653</v>
+        <v>19.2530303635521</v>
       </c>
       <c r="E944" t="n">
-        <v>1516.370272684595</v>
+        <v>1516.370272685233</v>
       </c>
       <c r="F944" t="inlineStr">
         <is>
@@ -74995,10 +74995,10 @@
         </is>
       </c>
       <c r="G944" t="n">
-        <v>102.6243277412629</v>
+        <v>102.6243277412592</v>
       </c>
       <c r="H944" t="n">
-        <v>99.61402778462306</v>
+        <v>99.61402778461942</v>
       </c>
       <c r="I944" t="n">
         <v>1e-30</v>
@@ -75007,13 +75007,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K944" t="n">
-        <v>182.1709158471437</v>
+        <v>182.1709158471473</v>
       </c>
       <c r="L944" t="n">
         <v>5.399738656763841e-06</v>
       </c>
       <c r="M944" t="n">
-        <v>-60.13902267178879</v>
+        <v>-60.13904306705538</v>
       </c>
       <c r="N944" t="n">
         <v>66.19610472533577</v>
@@ -75022,25 +75022,25 @@
         <v>30</v>
       </c>
       <c r="P944" t="n">
-        <v>3188.83310693968</v>
+        <v>3188.833106938731</v>
       </c>
       <c r="Q944" t="n">
-        <v>856.2349760390944</v>
+        <v>856.2349760390914</v>
       </c>
       <c r="R944" t="n">
-        <v>-6182.276260314722</v>
+        <v>-6182.276260315211</v>
       </c>
       <c r="S944" t="n">
-        <v>6.707045266644625</v>
+        <v>6.707045266645149</v>
       </c>
       <c r="T944" t="n">
-        <v>-0.471661513158967</v>
+        <v>-0.4716615131589748</v>
       </c>
       <c r="U944" t="n">
-        <v>3.395862451265967</v>
+        <v>3.395862451264935</v>
       </c>
       <c r="V944" t="n">
-        <v>7.532516351109606</v>
+        <v>7.532516351109607</v>
       </c>
       <c r="W944" t="n">
         <v>-61.90251137110617</v>
@@ -75060,13 +75060,13 @@
         <v>17</v>
       </c>
       <c r="C945" t="n">
-        <v>133.8937857938394</v>
+        <v>133.8937857938639</v>
       </c>
       <c r="D945" t="n">
-        <v>20.38757852038163</v>
+        <v>20.38757852036926</v>
       </c>
       <c r="E945" t="n">
-        <v>1467.463824417463</v>
+        <v>1467.463824417981</v>
       </c>
       <c r="F945" t="inlineStr">
         <is>
@@ -75074,10 +75074,10 @@
         </is>
       </c>
       <c r="G945" t="n">
-        <v>102.909084899123</v>
+        <v>102.90908489912</v>
       </c>
       <c r="H945" t="n">
-        <v>99.89878494248323</v>
+        <v>99.89878494248016</v>
       </c>
       <c r="I945" t="n">
         <v>1e-30</v>
@@ -75086,13 +75086,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K945" t="n">
-        <v>181.8861586892835</v>
+        <v>181.8861586892866</v>
       </c>
       <c r="L945" t="n">
         <v>6.445849674396964e-06</v>
       </c>
       <c r="M945" t="n">
-        <v>-61.5470354467888</v>
+        <v>-61.54703597089084</v>
       </c>
       <c r="N945" t="n">
         <v>66.19610472533577</v>
@@ -75101,22 +75101,22 @@
         <v>30</v>
       </c>
       <c r="P945" t="n">
-        <v>3255.717402307974</v>
+        <v>3255.717402307225</v>
       </c>
       <c r="Q945" t="n">
-        <v>851.469091353943</v>
+        <v>851.4690913539972</v>
       </c>
       <c r="R945" t="n">
-        <v>-6147.961268472005</v>
+        <v>-6147.961268472394</v>
       </c>
       <c r="S945" t="n">
-        <v>6.669883366323475</v>
+        <v>6.669883366323901</v>
       </c>
       <c r="T945" t="n">
-        <v>-0.4815091737575092</v>
+        <v>-0.4815091737573992</v>
       </c>
       <c r="U945" t="n">
-        <v>3.467156822390433</v>
+        <v>3.467156822389635</v>
       </c>
       <c r="V945" t="n">
         <v>7.532620502575432</v>
@@ -75139,13 +75139,13 @@
         <v>17</v>
       </c>
       <c r="C946" t="n">
-        <v>131.6753267962456</v>
+        <v>131.6753267962799</v>
       </c>
       <c r="D946" t="n">
-        <v>21.54498831593321</v>
+        <v>21.54498831591686</v>
       </c>
       <c r="E946" t="n">
-        <v>1420.442330560285</v>
+        <v>1420.442330560926</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>
@@ -75153,10 +75153,10 @@
         </is>
       </c>
       <c r="G946" t="n">
-        <v>103.1919608531994</v>
+        <v>103.1919608531955</v>
       </c>
       <c r="H946" t="n">
-        <v>100.1816608965596</v>
+        <v>100.1816608965557</v>
       </c>
       <c r="I946" t="n">
         <v>1e-30</v>
@@ -75165,13 +75165,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K946" t="n">
-        <v>181.6032827352071</v>
+        <v>181.603282735211</v>
       </c>
       <c r="L946" t="n">
         <v>7.636383641665713e-06</v>
       </c>
       <c r="M946" t="n">
-        <v>-63.01747574490273</v>
+        <v>-63.01747475553033</v>
       </c>
       <c r="N946" t="n">
         <v>66.19610472533577</v>
@@ -75180,25 +75180,25 @@
         <v>30</v>
       </c>
       <c r="P946" t="n">
-        <v>3322.226258856796</v>
+        <v>3322.226258855831</v>
       </c>
       <c r="Q946" t="n">
-        <v>846.6050051229527</v>
+        <v>846.6050051230251</v>
       </c>
       <c r="R946" t="n">
-        <v>-6112.935297443342</v>
+        <v>-6112.935297443854</v>
       </c>
       <c r="S946" t="n">
-        <v>6.631949748558289</v>
+        <v>6.631949748558847</v>
       </c>
       <c r="T946" t="n">
-        <v>-0.491301963609045</v>
+        <v>-0.4913019636089049</v>
       </c>
       <c r="U946" t="n">
-        <v>3.538054924716356</v>
+        <v>3.538054924715328</v>
       </c>
       <c r="V946" t="n">
-        <v>7.532726447784899</v>
+        <v>7.532726447784898</v>
       </c>
       <c r="W946" t="n">
         <v>-60.72579160054295</v>
@@ -75218,13 +75218,13 @@
         <v>17</v>
       </c>
       <c r="C947" t="n">
-        <v>129.2731871950678</v>
+        <v>129.2731871950981</v>
       </c>
       <c r="D947" t="n">
-        <v>22.71940172338107</v>
+        <v>22.7194017233676</v>
       </c>
       <c r="E947" t="n">
-        <v>1375.505701667516</v>
+        <v>1375.505701668013</v>
       </c>
       <c r="F947" t="inlineStr">
         <is>
@@ -75232,10 +75232,10 @@
         </is>
       </c>
       <c r="G947" t="n">
-        <v>103.4711850787494</v>
+        <v>103.4711850787463</v>
       </c>
       <c r="H947" t="n">
-        <v>100.4608851221096</v>
+        <v>100.4608851221064</v>
       </c>
       <c r="I947" t="n">
         <v>1e-30</v>
@@ -75244,13 +75244,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K947" t="n">
-        <v>181.3240585096572</v>
+        <v>181.3240585096603</v>
       </c>
       <c r="L947" t="n">
         <v>8.995063520217407e-06</v>
       </c>
       <c r="M947" t="n">
-        <v>-64.13958045074202</v>
+        <v>-64.13958085760204</v>
       </c>
       <c r="N947" t="n">
         <v>66.19610472533577</v>
@@ -75259,22 +75259,22 @@
         <v>30</v>
       </c>
       <c r="P947" t="n">
-        <v>3388.351984353764</v>
+        <v>3388.351984352979</v>
       </c>
       <c r="Q947" t="n">
-        <v>841.6432716468206</v>
+        <v>841.6432716468797</v>
       </c>
       <c r="R947" t="n">
-        <v>-6077.202347747265</v>
+        <v>-6077.202347747692</v>
       </c>
       <c r="S947" t="n">
-        <v>6.59324864340205</v>
+        <v>6.593248643402516</v>
       </c>
       <c r="T947" t="n">
-        <v>-0.5010387580102125</v>
+        <v>-0.5010387580100975</v>
       </c>
       <c r="U947" t="n">
-        <v>3.608548583979008</v>
+        <v>3.608548583978173</v>
       </c>
       <c r="V947" t="n">
         <v>7.53283415413404</v>
@@ -75297,13 +75297,13 @@
         <v>17</v>
       </c>
       <c r="C948" t="n">
-        <v>126.67166035318</v>
+        <v>126.6716603532198</v>
       </c>
       <c r="D948" t="n">
-        <v>23.90274919595182</v>
+        <v>23.9027491959355</v>
       </c>
       <c r="E948" t="n">
-        <v>1332.871176534815</v>
+        <v>1332.871176535385</v>
       </c>
       <c r="F948" t="inlineStr">
         <is>
@@ -75311,10 +75311,10 @@
         </is>
       </c>
       <c r="G948" t="n">
-        <v>103.7446694495336</v>
+        <v>103.7446694495299</v>
       </c>
       <c r="H948" t="n">
-        <v>100.7343694928938</v>
+        <v>100.7343694928901</v>
       </c>
       <c r="I948" t="n">
         <v>1e-30</v>
@@ -75323,13 +75323,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K948" t="n">
-        <v>181.050574138873</v>
+        <v>181.0505741388767</v>
       </c>
       <c r="L948" t="n">
-        <v>1.059505231752999e-05</v>
+        <v>1.066362942385307e-05</v>
       </c>
       <c r="M948" t="n">
-        <v>-65.83233990882633</v>
+        <v>-65.83233993619668</v>
       </c>
       <c r="N948" t="n">
         <v>66.19610472533577</v>
@@ -75338,25 +75338,25 @@
         <v>30</v>
       </c>
       <c r="P948" t="n">
-        <v>3454.086930819456</v>
+        <v>3454.086930818509</v>
       </c>
       <c r="Q948" t="n">
-        <v>836.5844513769952</v>
+        <v>836.5844513770688</v>
       </c>
       <c r="R948" t="n">
-        <v>-6040.766501095335</v>
+        <v>-6040.766501095866</v>
       </c>
       <c r="S948" t="n">
-        <v>6.553784367702073</v>
+        <v>6.553784367702646</v>
       </c>
       <c r="T948" t="n">
-        <v>-0.5107184476205907</v>
+        <v>-0.5107184476204507</v>
       </c>
       <c r="U948" t="n">
-        <v>3.678629668366809</v>
+        <v>3.6786296683658</v>
       </c>
       <c r="V948" t="n">
-        <v>7.532943588535928</v>
+        <v>7.532943588535924</v>
       </c>
       <c r="W948" t="n">
         <v>-59.54511775619764</v>
@@ -75376,13 +75376,13 @@
         <v>17</v>
       </c>
       <c r="C949" t="n">
-        <v>123.8554000950471</v>
+        <v>123.8554000950818</v>
       </c>
       <c r="D949" t="n">
-        <v>25.08433634936749</v>
+        <v>25.08433634935693</v>
       </c>
       <c r="E949" t="n">
-        <v>1292.772644728383</v>
+        <v>1292.772644728732</v>
       </c>
       <c r="F949" t="inlineStr">
         <is>
@@ -75390,10 +75390,10 @@
         </is>
       </c>
       <c r="G949" t="n">
-        <v>104.009989901821</v>
+        <v>104.0099899018186</v>
       </c>
       <c r="H949" t="n">
-        <v>100.9996899451811</v>
+        <v>100.9996899451788</v>
       </c>
       <c r="I949" t="n">
         <v>1e-30</v>
@@ -75402,13 +75402,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K949" t="n">
-        <v>180.7852536865856</v>
+        <v>180.785253686588</v>
       </c>
       <c r="L949" t="n">
         <v>1.248963169806152e-05</v>
       </c>
       <c r="M949" t="n">
-        <v>-67.63111257888075</v>
+        <v>-67.63112269315442</v>
       </c>
       <c r="N949" t="n">
         <v>66.19610472533577</v>
@@ -75417,25 +75417,25 @@
         <v>30</v>
       </c>
       <c r="P949" t="n">
-        <v>3519.423491706506</v>
+        <v>3519.423491705795</v>
       </c>
       <c r="Q949" t="n">
-        <v>831.4291258426588</v>
+        <v>831.4291258426379</v>
       </c>
       <c r="R949" t="n">
-        <v>-6003.631919943698</v>
+        <v>-6003.631919944118</v>
       </c>
       <c r="S949" t="n">
-        <v>6.513561326935688</v>
+        <v>6.51356132693613</v>
       </c>
       <c r="T949" t="n">
-        <v>-0.5203399097581261</v>
+        <v>-0.5203399097581639</v>
       </c>
       <c r="U949" t="n">
-        <v>3.748290089409819</v>
+        <v>3.74829008940904</v>
       </c>
       <c r="V949" t="n">
-        <v>7.533054717430848</v>
+        <v>7.533054717430847</v>
       </c>
       <c r="W949" t="n">
         <v>-58.95342605762306</v>
@@ -75455,13 +75455,13 @@
         <v>17</v>
       </c>
       <c r="C950" t="n">
-        <v>120.810344851381</v>
+        <v>120.8103448514191</v>
       </c>
       <c r="D950" t="n">
-        <v>26.25046816190145</v>
+        <v>26.25046816188856</v>
       </c>
       <c r="E950" t="n">
-        <v>1255.458935985103</v>
+        <v>1255.458935985505</v>
       </c>
       <c r="F950" t="inlineStr">
         <is>
@@ -75469,10 +75469,10 @@
         </is>
       </c>
       <c r="G950" t="n">
-        <v>104.2643827332543</v>
+        <v>104.2643827332516</v>
       </c>
       <c r="H950" t="n">
-        <v>101.2540827766145</v>
+        <v>101.2540827766117</v>
       </c>
       <c r="I950" t="n">
         <v>1e-30</v>
@@ -75481,13 +75481,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K950" t="n">
-        <v>180.5308608551522</v>
+        <v>180.530860855155</v>
       </c>
       <c r="L950" t="n">
         <v>1.463916852406327e-05</v>
       </c>
       <c r="M950" t="n">
-        <v>-69.25254216166627</v>
+        <v>-69.25254234044284</v>
       </c>
       <c r="N950" t="n">
         <v>66.19610472533577</v>
@@ -75496,25 +75496,25 @@
         <v>30</v>
       </c>
       <c r="P950" t="n">
-        <v>3584.354107026559</v>
+        <v>3584.35410702579</v>
       </c>
       <c r="Q950" t="n">
-        <v>826.177880170821</v>
+        <v>826.1778801708844</v>
       </c>
       <c r="R950" t="n">
-        <v>-5965.802847065215</v>
+        <v>-5965.802847065668</v>
       </c>
       <c r="S950" t="n">
-        <v>6.472584012277043</v>
+        <v>6.47258401227753</v>
       </c>
       <c r="T950" t="n">
-        <v>-0.5299020419975392</v>
+        <v>-0.5299020419974251</v>
       </c>
       <c r="U950" t="n">
-        <v>3.817521802862311</v>
+        <v>3.817521802861492</v>
       </c>
       <c r="V950" t="n">
-        <v>7.533167506794646</v>
+        <v>7.533167506794642</v>
       </c>
       <c r="W950" t="n">
         <v>-58.36089186467007</v>
@@ -79247,75 +79247,75 @@
         <v>18</v>
       </c>
       <c r="C998" t="n">
-        <v>170.0002314989476</v>
+        <v>170.0000903001089</v>
       </c>
       <c r="D998" t="n">
-        <v>0.0002558535342073377</v>
+        <v>6.987899895142846e-07</v>
       </c>
       <c r="E998" t="n">
-        <v>2956.908935300837</v>
+        <v>2956.937463714778</v>
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>22 Jun 2025 11:48:35.308613616</t>
+          <t>22 Jun 2025 11:48:35.304370091</t>
         </is>
       </c>
       <c r="G998" t="n">
-        <v>96.8236739845681</v>
+        <v>0.6274854577135326</v>
       </c>
       <c r="H998" t="n">
-        <v>93.81337402792829</v>
+        <v>-2.382814498926279</v>
       </c>
       <c r="I998" t="n">
-        <v>1e-30</v>
+        <v>0.1412063113750131</v>
       </c>
       <c r="J998" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K998" t="n">
-        <v>187.9715696038385</v>
+        <v>187.9716534053572</v>
       </c>
       <c r="L998" t="n">
-        <v>0</v>
+        <v>153.8881446691264</v>
       </c>
       <c r="M998" t="n">
-        <v>0</v>
+        <v>-117.9297719284724</v>
       </c>
       <c r="N998" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O998" t="n">
         <v>30</v>
       </c>
       <c r="P998" t="n">
-        <v>1056.411065624124</v>
+        <v>1056.379475562038</v>
       </c>
       <c r="Q998" t="n">
-        <v>952.3050018877573</v>
+        <v>952.305636465657</v>
       </c>
       <c r="R998" t="n">
-        <v>-6863.18282652374</v>
+        <v>-6863.187602779865</v>
       </c>
       <c r="S998" t="n">
-        <v>7.444273774695691</v>
+        <v>7.444278937402222</v>
       </c>
       <c r="T998" t="n">
-        <v>-0.1493532878789981</v>
+        <v>-0.1493486282510571</v>
       </c>
       <c r="U998" t="n">
-        <v>1.125576214198358</v>
+        <v>1.125542581480425</v>
       </c>
       <c r="V998" t="n">
-        <v>7.530367869579242</v>
+        <v>7.530367853786191</v>
       </c>
       <c r="W998" t="n">
-        <v>-78.25516508884526</v>
+        <v>-78.25535774948494</v>
       </c>
       <c r="X998" t="n">
-        <v>-46.14937377991231</v>
+        <v>-46.1485002651936</v>
       </c>
       <c r="Y998" t="n">
-        <v>651.3611918601057</v>
+        <v>651.3612225878653</v>
       </c>
     </row>
     <row r="999">
@@ -79326,13 +79326,13 @@
         <v>18</v>
       </c>
       <c r="C999" t="n">
-        <v>170.3309310536009</v>
+        <v>170.3309310535961</v>
       </c>
       <c r="D999" t="n">
-        <v>0.5890364678597212</v>
+        <v>0.5890364678509299</v>
       </c>
       <c r="E999" t="n">
-        <v>2891.806182044539</v>
+        <v>2891.806182045504</v>
       </c>
       <c r="F999" t="inlineStr">
         <is>
@@ -79340,52 +79340,52 @@
         </is>
       </c>
       <c r="G999" t="n">
-        <v>97.0170493413047</v>
+        <v>0.8209446159660311</v>
       </c>
       <c r="H999" t="n">
-        <v>94.00674938466489</v>
+        <v>-2.189355340673781</v>
       </c>
       <c r="I999" t="n">
-        <v>1e-30</v>
+        <v>0.1358566956515768</v>
       </c>
       <c r="J999" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K999" t="n">
-        <v>187.7781942471019</v>
+        <v>187.7781942471048</v>
       </c>
       <c r="L999" t="n">
-        <v>0</v>
+        <v>155.1679201167512</v>
       </c>
       <c r="M999" t="n">
-        <v>0</v>
+        <v>-118.7641696422576</v>
       </c>
       <c r="N999" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O999" t="n">
         <v>30</v>
       </c>
       <c r="P999" t="n">
-        <v>1128.496568520863</v>
+        <v>1128.496568519788</v>
       </c>
       <c r="Q999" t="n">
-        <v>950.8060529825573</v>
+        <v>950.8060529825823</v>
       </c>
       <c r="R999" t="n">
-        <v>-6851.902622573776</v>
+        <v>-6851.902622573952</v>
       </c>
       <c r="S999" t="n">
-        <v>7.432080688832308</v>
+        <v>7.432080688832494</v>
       </c>
       <c r="T999" t="n">
-        <v>-0.1599743114304512</v>
+        <v>-0.159974311430293</v>
       </c>
       <c r="U999" t="n">
-        <v>1.202325238622352</v>
+        <v>1.202325238621207</v>
       </c>
       <c r="V999" t="n">
-        <v>7.53040511028856</v>
+        <v>7.530405110288558</v>
       </c>
       <c r="W999" t="n">
         <v>-77.80875043617645</v>
@@ -79405,13 +79405,13 @@
         <v>18</v>
       </c>
       <c r="C1000" t="n">
-        <v>170.6903076079818</v>
+        <v>170.6903076079774</v>
       </c>
       <c r="D1000" t="n">
-        <v>1.209817687051171</v>
+        <v>1.209817687042237</v>
       </c>
       <c r="E1000" t="n">
-        <v>2824.744958184462</v>
+        <v>2824.744958185416</v>
       </c>
       <c r="F1000" t="inlineStr">
         <is>
@@ -79419,49 +79419,49 @@
         </is>
       </c>
       <c r="G1000" t="n">
-        <v>97.22084813450502</v>
+        <v>1.024743409166314</v>
       </c>
       <c r="H1000" t="n">
-        <v>94.21054817786521</v>
+        <v>-1.985556547473498</v>
       </c>
       <c r="I1000" t="n">
-        <v>1e-30</v>
+        <v>0.1302480627707462</v>
       </c>
       <c r="J1000" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1000" t="n">
-        <v>187.5743954539015</v>
+        <v>187.5743954539045</v>
       </c>
       <c r="L1000" t="n">
-        <v>0</v>
+        <v>156.4188984717237</v>
       </c>
       <c r="M1000" t="n">
-        <v>0</v>
+        <v>-119.7272282106895</v>
       </c>
       <c r="N1000" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1000" t="n">
         <v>30</v>
       </c>
       <c r="P1000" t="n">
-        <v>1202.749528673991</v>
+        <v>1202.749528672934</v>
       </c>
       <c r="Q1000" t="n">
-        <v>949.1515598098789</v>
+        <v>949.1515598098765</v>
       </c>
       <c r="R1000" t="n">
-        <v>-6839.484173602916</v>
+        <v>-6839.484173603102</v>
       </c>
       <c r="S1000" t="n">
-        <v>7.418656287967237</v>
+        <v>7.418656287967436</v>
       </c>
       <c r="T1000" t="n">
-        <v>-0.1709156686792025</v>
+        <v>-0.1709156686792084</v>
       </c>
       <c r="U1000" t="n">
-        <v>1.281383417221789</v>
+        <v>1.281383417220642</v>
       </c>
       <c r="V1000" t="n">
         <v>7.530445985911252</v>
@@ -79484,13 +79484,13 @@
         <v>18</v>
       </c>
       <c r="C1001" t="n">
-        <v>171.0694993131113</v>
+        <v>171.0694993131067</v>
       </c>
       <c r="D1001" t="n">
-        <v>1.844941831055117</v>
+        <v>1.844941831045957</v>
       </c>
       <c r="E1001" t="n">
-        <v>2757.816807544707</v>
+        <v>2757.816807545659</v>
       </c>
       <c r="F1001" t="inlineStr">
         <is>
@@ -79498,52 +79498,52 @@
         </is>
       </c>
       <c r="G1001" t="n">
-        <v>97.42912469594157</v>
+        <v>1.233019970602784</v>
       </c>
       <c r="H1001" t="n">
-        <v>94.41882473930175</v>
+        <v>-1.777279986037028</v>
       </c>
       <c r="I1001" t="n">
-        <v>1e-30</v>
+        <v>0.1245523554463339</v>
       </c>
       <c r="J1001" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1001" t="n">
-        <v>187.366118892465</v>
+        <v>187.366118892468</v>
       </c>
       <c r="L1001" t="n">
-        <v>0</v>
+        <v>157.6057150962089</v>
       </c>
       <c r="M1001" t="n">
-        <v>0</v>
+        <v>-120.8175199915202</v>
       </c>
       <c r="N1001" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1001" t="n">
         <v>30</v>
       </c>
       <c r="P1001" t="n">
-        <v>1276.863974559857</v>
+        <v>1276.863974558802</v>
       </c>
       <c r="Q1001" t="n">
-        <v>947.38775009501</v>
+        <v>947.3877500950074</v>
       </c>
       <c r="R1001" t="n">
-        <v>-6826.275878081072</v>
+        <v>-6826.275878081269</v>
       </c>
       <c r="S1001" t="n">
-        <v>7.404377103605474</v>
+        <v>7.404377103605687</v>
       </c>
       <c r="T1001" t="n">
-        <v>-0.1818376383099478</v>
+        <v>-0.1818376383099553</v>
       </c>
       <c r="U1001" t="n">
-        <v>1.360295711700687</v>
+        <v>1.360295711699542</v>
       </c>
       <c r="V1001" t="n">
-        <v>7.530489336183567</v>
+        <v>7.530489336183569</v>
       </c>
       <c r="W1001" t="n">
         <v>-76.85121213666035</v>
@@ -79563,13 +79563,13 @@
         <v>18</v>
       </c>
       <c r="C1002" t="n">
-        <v>171.4700461349943</v>
+        <v>171.4700461349894</v>
       </c>
       <c r="D1002" t="n">
-        <v>2.495374443253216</v>
+        <v>2.495374443243933</v>
       </c>
       <c r="E1002" t="n">
-        <v>2691.03993794781</v>
+        <v>2691.039937948756</v>
       </c>
       <c r="F1002" t="inlineStr">
         <is>
@@ -79577,52 +79577,52 @@
         </is>
       </c>
       <c r="G1002" t="n">
-        <v>97.64203011334763</v>
+        <v>1.445925388008799</v>
       </c>
       <c r="H1002" t="n">
-        <v>94.63173015670782</v>
+        <v>-1.564374568631013</v>
       </c>
       <c r="I1002" t="n">
-        <v>1e-30</v>
+        <v>0.1187763225537492</v>
       </c>
       <c r="J1002" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1002" t="n">
-        <v>187.1532134750589</v>
+        <v>187.153213475062</v>
       </c>
       <c r="L1002" t="n">
-        <v>0</v>
+        <v>158.7331284517341</v>
       </c>
       <c r="M1002" t="n">
-        <v>0</v>
+        <v>-122.0605867617792</v>
       </c>
       <c r="N1002" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1002" t="n">
         <v>30</v>
       </c>
       <c r="P1002" t="n">
-        <v>1350.831365946583</v>
+        <v>1350.831365945537</v>
       </c>
       <c r="Q1002" t="n">
-        <v>945.5148248238486</v>
+        <v>945.5148248238479</v>
       </c>
       <c r="R1002" t="n">
-        <v>-6812.279239741192</v>
+        <v>-6812.279239741402</v>
       </c>
       <c r="S1002" t="n">
-        <v>7.389244711223665</v>
+        <v>7.389244711223884</v>
       </c>
       <c r="T1002" t="n">
-        <v>-0.1927389730441575</v>
+        <v>-0.1927389730441645</v>
       </c>
       <c r="U1002" t="n">
-        <v>1.439053123738297</v>
+        <v>1.439053123737161</v>
       </c>
       <c r="V1002" t="n">
-        <v>7.530535147452534</v>
+        <v>7.530535147452533</v>
       </c>
       <c r="W1002" t="n">
         <v>-76.35665840484059</v>
@@ -79642,13 +79642,13 @@
         <v>18</v>
       </c>
       <c r="C1003" t="n">
-        <v>171.8936479754026</v>
+        <v>171.8936479753966</v>
       </c>
       <c r="D1003" t="n">
-        <v>3.162160552772544</v>
+        <v>3.16216055276281</v>
       </c>
       <c r="E1003" t="n">
-        <v>2624.434166401194</v>
+        <v>2624.434166402158</v>
       </c>
       <c r="F1003" t="inlineStr">
         <is>
@@ -79656,49 +79656,49 @@
         </is>
       </c>
       <c r="G1003" t="n">
-        <v>97.85971931721669</v>
+        <v>1.663614591877727</v>
       </c>
       <c r="H1003" t="n">
-        <v>94.84941936057687</v>
+        <v>-1.346685364762085</v>
       </c>
       <c r="I1003" t="n">
-        <v>1e-30</v>
+        <v>0.11292815390545</v>
       </c>
       <c r="J1003" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1003" t="n">
-        <v>186.9355242711899</v>
+        <v>186.9355242711931</v>
       </c>
       <c r="L1003" t="n">
-        <v>0</v>
+        <v>159.8046670658358</v>
       </c>
       <c r="M1003" t="n">
-        <v>0</v>
+        <v>-123.4847201560384</v>
       </c>
       <c r="N1003" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1003" t="n">
         <v>30</v>
       </c>
       <c r="P1003" t="n">
-        <v>1424.643178869778</v>
+        <v>1424.643178868706</v>
       </c>
       <c r="Q1003" t="n">
-        <v>943.532997606552</v>
+        <v>943.5329976065818</v>
       </c>
       <c r="R1003" t="n">
-        <v>-6797.495852202509</v>
+        <v>-6797.495852202731</v>
       </c>
       <c r="S1003" t="n">
-        <v>7.373260780897524</v>
+        <v>7.373260780897763</v>
       </c>
       <c r="T1003" t="n">
-        <v>-0.2036184277246332</v>
+        <v>-0.2036184277244748</v>
       </c>
       <c r="U1003" t="n">
-        <v>1.517646670623252</v>
+        <v>1.51764667062211</v>
       </c>
       <c r="V1003" t="n">
         <v>7.530583405293672</v>
@@ -79721,13 +79721,13 @@
         <v>18</v>
       </c>
       <c r="C1004" t="n">
-        <v>172.3421853274197</v>
+        <v>172.3421853274142</v>
       </c>
       <c r="D1004" t="n">
-        <v>3.846431546244175</v>
+        <v>3.846431546234324</v>
       </c>
       <c r="E1004" t="n">
-        <v>2558.021114480151</v>
+        <v>2558.021114481094</v>
       </c>
       <c r="F1004" t="inlineStr">
         <is>
@@ -79735,52 +79735,52 @@
         </is>
       </c>
       <c r="G1004" t="n">
-        <v>98.08235047916043</v>
+        <v>1.886245753821454</v>
       </c>
       <c r="H1004" t="n">
-        <v>95.07205052252061</v>
+        <v>-1.124054202818358</v>
       </c>
       <c r="I1004" t="n">
-        <v>1e-30</v>
+        <v>0.1070176902242895</v>
       </c>
       <c r="J1004" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1004" t="n">
-        <v>186.7128931092461</v>
+        <v>186.7128931092493</v>
       </c>
       <c r="L1004" t="n">
-        <v>0</v>
+        <v>160.8225438374508</v>
       </c>
       <c r="M1004" t="n">
-        <v>0</v>
+        <v>-125.1215482386899</v>
       </c>
       <c r="N1004" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1004" t="n">
         <v>30</v>
       </c>
       <c r="P1004" t="n">
-        <v>1498.290908641397</v>
+        <v>1498.290908640354</v>
       </c>
       <c r="Q1004" t="n">
-        <v>941.4424913403894</v>
+        <v>941.4424913403867</v>
       </c>
       <c r="R1004" t="n">
-        <v>-6781.927398812431</v>
+        <v>-6781.927398812663</v>
       </c>
       <c r="S1004" t="n">
-        <v>7.356427076710513</v>
+        <v>7.35642707671076</v>
       </c>
       <c r="T1004" t="n">
-        <v>-0.2144747755350888</v>
+        <v>-0.2144747755350969</v>
       </c>
       <c r="U1004" t="n">
-        <v>1.596067386175439</v>
+        <v>1.596067386174306</v>
       </c>
       <c r="V1004" t="n">
-        <v>7.530634094517759</v>
+        <v>7.530634094517761</v>
       </c>
       <c r="W1004" t="n">
         <v>-75.34128023400517</v>
@@ -79800,13 +79800,13 @@
         <v>18</v>
       </c>
       <c r="C1005" t="n">
-        <v>172.8177428152827</v>
+        <v>172.8177428152769</v>
       </c>
       <c r="D1005" t="n">
-        <v>4.549412399296902</v>
+        <v>4.549412399286741</v>
       </c>
       <c r="E1005" t="n">
-        <v>2491.824435118355</v>
+        <v>2491.824435119299</v>
       </c>
       <c r="F1005" t="inlineStr">
         <is>
@@ -79814,49 +79814,49 @@
         </is>
       </c>
       <c r="G1005" t="n">
-        <v>98.31008417246517</v>
+        <v>2.113979447126097</v>
       </c>
       <c r="H1005" t="n">
-        <v>95.29978421582535</v>
+        <v>-0.896320509513716</v>
       </c>
       <c r="I1005" t="n">
-        <v>1e-30</v>
+        <v>0.1010565501023043</v>
       </c>
       <c r="J1005" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1005" t="n">
-        <v>186.4851594159414</v>
+        <v>186.4851594159447</v>
       </c>
       <c r="L1005" t="n">
-        <v>0</v>
+        <v>161.7875213130523</v>
       </c>
       <c r="M1005" t="n">
-        <v>0</v>
+        <v>-127.0065319091667</v>
       </c>
       <c r="N1005" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1005" t="n">
         <v>30</v>
       </c>
       <c r="P1005" t="n">
-        <v>1571.766066664801</v>
+        <v>1571.766066663756</v>
       </c>
       <c r="Q1005" t="n">
-        <v>939.2435443328473</v>
+        <v>939.2435443328462</v>
       </c>
       <c r="R1005" t="n">
-        <v>-6765.57565246358</v>
+        <v>-6765.575652463824</v>
       </c>
       <c r="S1005" t="n">
-        <v>7.338745457491526</v>
+        <v>7.338745457491783</v>
       </c>
       <c r="T1005" t="n">
-        <v>-0.2253067758487662</v>
+        <v>-0.2253067758487738</v>
       </c>
       <c r="U1005" t="n">
-        <v>1.674306321665513</v>
+        <v>1.674306321664377</v>
       </c>
       <c r="V1005" t="n">
         <v>7.530687199178105</v>
@@ -79879,13 +79879,13 @@
         <v>18</v>
       </c>
       <c r="C1006" t="n">
-        <v>173.322636630216</v>
+        <v>173.3226366302086</v>
       </c>
       <c r="D1006" t="n">
-        <v>5.272429264957215</v>
+        <v>5.272429264946154</v>
       </c>
       <c r="E1006" t="n">
-        <v>2425.870067850355</v>
+        <v>2425.87006785135</v>
       </c>
       <c r="F1006" t="inlineStr">
         <is>
@@ -79893,52 +79893,52 @@
         </is>
       </c>
       <c r="G1006" t="n">
-        <v>98.5430822598962</v>
+        <v>2.346977534556856</v>
       </c>
       <c r="H1006" t="n">
-        <v>95.53278230325638</v>
+        <v>-0.6633224220829558</v>
       </c>
       <c r="I1006" t="n">
-        <v>1e-30</v>
+        <v>0.09505834140298275</v>
       </c>
       <c r="J1006" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1006" t="n">
-        <v>186.2521613285104</v>
+        <v>186.2521613285139</v>
       </c>
       <c r="L1006" t="n">
-        <v>0</v>
+        <v>162.698719259226</v>
       </c>
       <c r="M1006" t="n">
-        <v>0</v>
+        <v>-129.1792446182084</v>
       </c>
       <c r="N1006" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1006" t="n">
         <v>30</v>
       </c>
       <c r="P1006" t="n">
-        <v>1645.060184139294</v>
+        <v>1645.060184138182</v>
       </c>
       <c r="Q1006" t="n">
-        <v>936.9364062341017</v>
+        <v>936.9364062341376</v>
       </c>
       <c r="R1006" t="n">
-        <v>-6748.442475417935</v>
+        <v>-6748.442475418203</v>
       </c>
       <c r="S1006" t="n">
-        <v>7.320217876107347</v>
+        <v>7.320217876107635</v>
       </c>
       <c r="T1006" t="n">
-        <v>-0.2361131958903749</v>
+        <v>-0.2361131958902108</v>
       </c>
       <c r="U1006" t="n">
-        <v>1.752354546739901</v>
+        <v>1.752354546738717</v>
       </c>
       <c r="V1006" t="n">
-        <v>7.530742702578221</v>
+        <v>7.53074270257822</v>
       </c>
       <c r="W1006" t="n">
         <v>-74.29652478857953</v>
@@ -79958,13 +79958,13 @@
         <v>18</v>
       </c>
       <c r="C1007" t="n">
-        <v>173.8594461213942</v>
+        <v>173.8594461213866</v>
       </c>
       <c r="D1007" t="n">
-        <v>6.016917230314578</v>
+        <v>6.016917230303639</v>
       </c>
       <c r="E1007" t="n">
-        <v>2360.186533568608</v>
+        <v>2360.186533569558</v>
       </c>
       <c r="F1007" t="inlineStr">
         <is>
@@ -79972,52 +79972,52 @@
         </is>
       </c>
       <c r="G1007" t="n">
-        <v>98.7815064156616</v>
+        <v>2.585401690322326</v>
       </c>
       <c r="H1007" t="n">
-        <v>95.77120645902178</v>
+        <v>-0.4248982663174858</v>
       </c>
       <c r="I1007" t="n">
-        <v>1e-30</v>
+        <v>0.08903883018771852</v>
       </c>
       <c r="J1007" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1007" t="n">
-        <v>186.013737172745</v>
+        <v>186.0137371727484</v>
       </c>
       <c r="L1007" t="n">
-        <v>0</v>
+        <v>163.5533602527244</v>
       </c>
       <c r="M1007" t="n">
-        <v>0</v>
+        <v>-131.6832181390893</v>
       </c>
       <c r="N1007" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1007" t="n">
         <v>30</v>
       </c>
       <c r="P1007" t="n">
-        <v>1718.164812317305</v>
+        <v>1718.164812316243</v>
       </c>
       <c r="Q1007" t="n">
-        <v>934.5213390093304</v>
+        <v>934.5213390093659</v>
       </c>
       <c r="R1007" t="n">
-        <v>-6730.529819112942</v>
+        <v>-6730.529819113209</v>
       </c>
       <c r="S1007" t="n">
-        <v>7.300846379458307</v>
+        <v>7.3008463794586</v>
       </c>
       <c r="T1007" t="n">
-        <v>-0.2468928054791064</v>
+        <v>-0.2468928054789497</v>
       </c>
       <c r="U1007" t="n">
-        <v>1.830203150344703</v>
+        <v>1.830203150343572</v>
       </c>
       <c r="V1007" t="n">
-        <v>7.530800587280113</v>
+        <v>7.530800587280117</v>
       </c>
       <c r="W1007" t="n">
         <v>-73.76488291888806</v>
@@ -80037,13 +80037,13 @@
         <v>18</v>
       </c>
       <c r="C1008" t="n">
-        <v>174.4310504312555</v>
+        <v>174.4310504312478</v>
       </c>
       <c r="D1008" t="n">
-        <v>6.78442806183167</v>
+        <v>6.784428061820902</v>
       </c>
       <c r="E1008" t="n">
-        <v>2294.805272390885</v>
+        <v>2294.805272391786</v>
       </c>
       <c r="F1008" t="inlineStr">
         <is>
@@ -80051,49 +80051,49 @@
         </is>
       </c>
       <c r="G1008" t="n">
-        <v>99.02551619724149</v>
+        <v>2.829411471902294</v>
       </c>
       <c r="H1008" t="n">
-        <v>96.01521624060167</v>
+        <v>-0.1808884847375185</v>
       </c>
       <c r="I1008" t="n">
-        <v>1e-30</v>
+        <v>0.08301610366105305</v>
       </c>
       <c r="J1008" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1008" t="n">
-        <v>185.7697273911651</v>
+        <v>185.7697273911685</v>
       </c>
       <c r="L1008" t="n">
-        <v>0</v>
+        <v>164.3464562703354</v>
       </c>
       <c r="M1008" t="n">
-        <v>0</v>
+        <v>-134.565002607131</v>
       </c>
       <c r="N1008" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1008" t="n">
         <v>30</v>
       </c>
       <c r="P1008" t="n">
-        <v>1791.071523450257</v>
+        <v>1791.071523449247</v>
       </c>
       <c r="Q1008" t="n">
-        <v>931.9986169119056</v>
+        <v>931.9986169119412</v>
       </c>
       <c r="R1008" t="n">
-        <v>-6711.839723959435</v>
+        <v>-6711.839723959699</v>
       </c>
       <c r="S1008" t="n">
-        <v>7.280633108325375</v>
+        <v>7.280633108325661</v>
       </c>
       <c r="T1008" t="n">
-        <v>-0.2576443771603361</v>
+        <v>-0.257644377160187</v>
       </c>
       <c r="U1008" t="n">
-        <v>1.90784324165076</v>
+        <v>1.907843241649685</v>
       </c>
       <c r="V1008" t="n">
         <v>7.53086083511297</v>
@@ -80116,13 +80116,13 @@
         <v>18</v>
       </c>
       <c r="C1009" t="n">
-        <v>175.0406710278276</v>
+        <v>175.0406710278189</v>
       </c>
       <c r="D1009" t="n">
-        <v>7.576637628527966</v>
+        <v>7.576637628516328</v>
       </c>
       <c r="E1009" t="n">
-        <v>2229.761031980138</v>
+        <v>2229.761031981078</v>
       </c>
       <c r="F1009" t="inlineStr">
         <is>
@@ -80130,49 +80130,49 @@
         </is>
       </c>
       <c r="G1009" t="n">
-        <v>99.27526655118776</v>
+        <v>3.079161825848324</v>
       </c>
       <c r="H1009" t="n">
-        <v>96.26496659454794</v>
+        <v>0.06886186920851249</v>
       </c>
       <c r="I1009" t="n">
-        <v>1e-30</v>
+        <v>0.07701069021912299</v>
       </c>
       <c r="J1009" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1009" t="n">
-        <v>185.5199770372188</v>
+        <v>185.5199770372225</v>
       </c>
       <c r="L1009" t="n">
-        <v>0</v>
+        <v>165.0704551218594</v>
       </c>
       <c r="M1009" t="n">
-        <v>0</v>
+        <v>-137.8719198954129</v>
       </c>
       <c r="N1009" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1009" t="n">
         <v>30</v>
       </c>
       <c r="P1009" t="n">
-        <v>1863.771911734665</v>
+        <v>1863.77191173361</v>
       </c>
       <c r="Q1009" t="n">
-        <v>929.3685264553619</v>
+        <v>929.3685264554009</v>
       </c>
       <c r="R1009" t="n">
-        <v>-6692.374319129421</v>
+        <v>-6692.37431912971</v>
       </c>
       <c r="S1009" t="n">
-        <v>7.259580297209025</v>
+        <v>7.259580297209337</v>
       </c>
       <c r="T1009" t="n">
-        <v>-0.2683666863373542</v>
+        <v>-0.2683666863371986</v>
       </c>
       <c r="U1009" t="n">
-        <v>1.985265950981091</v>
+        <v>1.985265950979968</v>
       </c>
       <c r="V1009" t="n">
         <v>7.530923427182487</v>
@@ -80195,13 +80195,13 @@
         <v>18</v>
       </c>
       <c r="C1010" t="n">
-        <v>175.6919212072783</v>
+        <v>175.6919212072704</v>
       </c>
       <c r="D1010" t="n">
-        <v>8.395352554841859</v>
+        <v>8.395352554829937</v>
       </c>
       <c r="E1010" t="n">
-        <v>2165.092314144905</v>
+        <v>2165.092314145834</v>
       </c>
       <c r="F1010" t="inlineStr">
         <is>
@@ -80209,52 +80209,52 @@
         </is>
       </c>
       <c r="G1010" t="n">
-        <v>99.53090461120239</v>
+        <v>3.334799885862878</v>
       </c>
       <c r="H1010" t="n">
-        <v>96.52060465456258</v>
+        <v>0.324499929223066</v>
       </c>
       <c r="I1010" t="n">
-        <v>1e-30</v>
+        <v>0.07104571571264046</v>
       </c>
       <c r="J1010" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1010" t="n">
-        <v>185.2643389772042</v>
+        <v>185.2643389772079</v>
       </c>
       <c r="L1010" t="n">
-        <v>0</v>
+        <v>165.7148944731776</v>
       </c>
       <c r="M1010" t="n">
-        <v>0</v>
+        <v>-141.6478330827134</v>
       </c>
       <c r="N1010" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1010" t="n">
         <v>30</v>
       </c>
       <c r="P1010" t="n">
-        <v>1936.257594932044</v>
+        <v>1936.257594931014</v>
       </c>
       <c r="Q1010" t="n">
-        <v>926.6313649601805</v>
+        <v>926.6313649601786</v>
       </c>
       <c r="R1010" t="n">
-        <v>-6672.135822335804</v>
+        <v>-6672.135822336106</v>
       </c>
       <c r="S1010" t="n">
-        <v>7.237690273956804</v>
+        <v>7.237690273957122</v>
       </c>
       <c r="T1010" t="n">
-        <v>-0.279058516677448</v>
+        <v>-0.2790585166774557</v>
       </c>
       <c r="U1010" t="n">
-        <v>2.062462430738931</v>
+        <v>2.062462430737811</v>
       </c>
       <c r="V1010" t="n">
-        <v>7.530988343880813</v>
+        <v>7.530988343880812</v>
       </c>
       <c r="W1010" t="n">
         <v>-72.13947232933486</v>
@@ -80274,13 +80274,13 @@
         <v>18</v>
       </c>
       <c r="C1011" t="n">
-        <v>176.3888635271668</v>
+        <v>176.3888635271574</v>
       </c>
       <c r="D1011" t="n">
-        <v>9.242515437283952</v>
+        <v>9.242515437272065</v>
       </c>
       <c r="E1011" t="n">
-        <v>2100.841890191151</v>
+        <v>2100.841890192037</v>
       </c>
       <c r="F1011" t="inlineStr">
         <is>
@@ -80288,52 +80288,52 @@
         </is>
       </c>
       <c r="G1011" t="n">
-        <v>99.79256560678124</v>
+        <v>3.59646088144179</v>
       </c>
       <c r="H1011" t="n">
-        <v>96.78226565014143</v>
+        <v>0.5861609248019779</v>
       </c>
       <c r="I1011" t="n">
-        <v>1e-30</v>
+        <v>0.06514686371214384</v>
       </c>
       <c r="J1011" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1011" t="n">
-        <v>185.0026779816253</v>
+        <v>185.002677981629</v>
       </c>
       <c r="L1011" t="n">
-        <v>0</v>
+        <v>166.2661555049282</v>
       </c>
       <c r="M1011" t="n">
-        <v>0</v>
+        <v>-145.9262390081623</v>
       </c>
       <c r="N1011" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1011" t="n">
         <v>30</v>
       </c>
       <c r="P1011" t="n">
-        <v>2008.520212608102</v>
+        <v>2008.520212607101</v>
       </c>
       <c r="Q1011" t="n">
-        <v>923.7874461666272</v>
+        <v>923.787446166669</v>
       </c>
       <c r="R1011" t="n">
-        <v>-6651.126539593383</v>
+        <v>-6651.126539593683</v>
       </c>
       <c r="S1011" t="n">
-        <v>7.214965460392052</v>
+        <v>7.214965460392373</v>
       </c>
       <c r="T1011" t="n">
-        <v>-0.2897186391319672</v>
+        <v>-0.2897186391318201</v>
       </c>
       <c r="U1011" t="n">
-        <v>2.139423856335317</v>
+        <v>2.139423856334251</v>
       </c>
       <c r="V1011" t="n">
-        <v>7.531055564897092</v>
+        <v>7.531055564897091</v>
       </c>
       <c r="W1011" t="n">
         <v>-71.58898371707336</v>
@@ -80353,13 +80353,13 @@
         <v>18</v>
       </c>
       <c r="C1012" t="n">
-        <v>177.1360772351399</v>
+        <v>177.1360772351318</v>
       </c>
       <c r="D1012" t="n">
-        <v>10.12020774348838</v>
+        <v>10.12020774347838</v>
       </c>
       <c r="E1012" t="n">
-        <v>2037.057392260577</v>
+        <v>2037.057392261288</v>
       </c>
       <c r="F1012" t="inlineStr">
         <is>
@@ -80367,49 +80367,49 @@
         </is>
       </c>
       <c r="G1012" t="n">
-        <v>100.0603676770087</v>
+        <v>3.864262951669857</v>
       </c>
       <c r="H1012" t="n">
-        <v>97.05006772036884</v>
+        <v>0.8539629950300438</v>
       </c>
       <c r="I1012" t="n">
-        <v>1e-30</v>
+        <v>0.05934237508168044</v>
       </c>
       <c r="J1012" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1012" t="n">
-        <v>184.7348759113979</v>
+        <v>184.7348759114009</v>
       </c>
       <c r="L1012" t="n">
-        <v>0</v>
+        <v>166.7074665185956</v>
       </c>
       <c r="M1012" t="n">
-        <v>0</v>
+        <v>-150.7203910345107</v>
       </c>
       <c r="N1012" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1012" t="n">
         <v>30</v>
       </c>
       <c r="P1012" t="n">
-        <v>2080.55143180988</v>
+        <v>2080.551431809074</v>
       </c>
       <c r="Q1012" t="n">
-        <v>920.8370902876821</v>
+        <v>920.8370902877153</v>
       </c>
       <c r="R1012" t="n">
-        <v>-6629.348864987426</v>
+        <v>-6629.348864987675</v>
       </c>
       <c r="S1012" t="n">
-        <v>7.191408370710606</v>
+        <v>7.191408370710876</v>
       </c>
       <c r="T1012" t="n">
-        <v>-0.300345849005033</v>
+        <v>-0.3003458490049141</v>
       </c>
       <c r="U1012" t="n">
-        <v>2.216141427125664</v>
+        <v>2.216141427124804</v>
       </c>
       <c r="V1012" t="n">
         <v>7.531125069228615</v>
@@ -80432,13 +80432,13 @@
         <v>18</v>
       </c>
       <c r="C1013" t="n">
-        <v>177.938736271556</v>
+        <v>177.9387362715483</v>
       </c>
       <c r="D1013" t="n">
-        <v>11.0306490290005</v>
+        <v>11.03064902898966</v>
       </c>
       <c r="E1013" t="n">
-        <v>1973.791997658723</v>
+        <v>1973.791997659463</v>
       </c>
       <c r="F1013" t="inlineStr">
         <is>
@@ -80446,52 +80446,52 @@
         </is>
       </c>
       <c r="G1013" t="n">
-        <v>100.3344052999627</v>
+        <v>4.138300574623699</v>
       </c>
       <c r="H1013" t="n">
-        <v>97.32410534332291</v>
+        <v>1.128000617983886</v>
       </c>
       <c r="I1013" t="n">
-        <v>1e-30</v>
+        <v>0.05366286028331374</v>
       </c>
       <c r="J1013" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1013" t="n">
-        <v>184.4608382884438</v>
+        <v>184.4608382884471</v>
       </c>
       <c r="L1013" t="n">
-        <v>8.537736462515939e-07</v>
+        <v>167.0193480661526</v>
       </c>
       <c r="M1013" t="n">
-        <v>37.8028381804362</v>
+        <v>-156.0112761175261</v>
       </c>
       <c r="N1013" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1013" t="n">
         <v>30</v>
       </c>
       <c r="P1013" t="n">
-        <v>2152.342943280701</v>
+        <v>2152.342943279875</v>
       </c>
       <c r="Q1013" t="n">
-        <v>917.7806339963856</v>
+        <v>917.7806339963736</v>
       </c>
       <c r="R1013" t="n">
-        <v>-6606.805280408772</v>
+        <v>-6606.805280409045</v>
       </c>
       <c r="S1013" t="n">
-        <v>7.167021612718404</v>
+        <v>7.167021612718694</v>
       </c>
       <c r="T1013" t="n">
-        <v>-0.3109389291874766</v>
+        <v>-0.3109389291875123</v>
       </c>
       <c r="U1013" t="n">
-        <v>2.292606367338892</v>
+        <v>2.29260636733799</v>
       </c>
       <c r="V1013" t="n">
-        <v>7.531196835192915</v>
+        <v>7.531196835192919</v>
       </c>
       <c r="W1013" t="n">
         <v>-70.47714506702978</v>
@@ -80511,13 +80511,13 @@
         <v>18</v>
       </c>
       <c r="C1014" t="n">
-        <v>178.8027007276096</v>
+        <v>178.8027007275968</v>
       </c>
       <c r="D1014" t="n">
-        <v>11.97619072655084</v>
+        <v>11.97619072653627</v>
       </c>
       <c r="E1014" t="n">
-        <v>1911.105214500616</v>
+        <v>1911.105214501563</v>
       </c>
       <c r="F1014" t="inlineStr">
         <is>
@@ -80525,52 +80525,52 @@
         </is>
       </c>
       <c r="G1014" t="n">
-        <v>100.6147410280218</v>
+        <v>4.418636302681685</v>
       </c>
       <c r="H1014" t="n">
-        <v>97.60444107138196</v>
+        <v>1.408336346041873</v>
       </c>
       <c r="I1014" t="n">
-        <v>1e-30</v>
+        <v>0.04814106002482371</v>
       </c>
       <c r="J1014" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K1014" t="n">
-        <v>184.1805025603848</v>
+        <v>184.1805025603891</v>
       </c>
       <c r="L1014" t="n">
-        <v>8.537736462515939e-07</v>
+        <v>167.1806771633778</v>
       </c>
       <c r="M1014" t="n">
-        <v>41.05740913887825</v>
+        <v>-161.7363039185158</v>
       </c>
       <c r="N1014" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O1014" t="n">
         <v>30</v>
       </c>
       <c r="P1014" t="n">
-        <v>2223.886465104588</v>
+        <v>2223.886465103504</v>
       </c>
       <c r="Q1014" t="n">
-        <v>914.6184246416127</v>
+        <v>914.6184246416616</v>
       </c>
       <c r="R1014" t="n">
-        <v>-6583.49835529637</v>
+        <v>-6583.498355296732</v>
       </c>
       <c r="S1014" t="n">
-        <v>7.141807886805402</v>
+        <v>7.141807886805787</v>
       </c>
       <c r="T1014" t="n">
-        <v>-0.3214966713763692</v>
+        <v>-0.321496671376209</v>
       </c>
       <c r="U1014" t="n">
-        <v>2.368809927015121</v>
+        <v>2.368809927013966</v>
       </c>
       <c r="V1014" t="n">
-        <v>7.531270840440363</v>
+        <v>7.53127084044036</v>
       </c>
       <c r="W1014" t="n">
         <v>-69.91638490836982</v>
@@ -80590,13 +80590,13 @@
         <v>18</v>
       </c>
       <c r="C1015" t="n">
-        <v>179.734623108856</v>
+        <v>179.734623108844</v>
       </c>
       <c r="D1015" t="n">
-        <v>12.95930196709451</v>
+        <v>12.9593019670794</v>
       </c>
       <c r="E1015" t="n">
-        <v>1849.063786288497</v>
+        <v>1849.06378628943</v>
       </c>
       <c r="F1015" t="inlineStr">
         <is>
@@ -80604,10 +80604,10 @@
         </is>
       </c>
       <c r="G1015" t="n">
-        <v>100.9013951161671</v>
+        <v>100.9013951161628</v>
       </c>
       <c r="H1015" t="n">
-        <v>97.89109515952732</v>
+        <v>97.89109515952296</v>
       </c>
       <c r="I1015" t="n">
         <v>1e-30</v>
@@ -80616,13 +80616,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1015" t="n">
-        <v>183.8938484722394</v>
+        <v>183.8938484722438</v>
       </c>
       <c r="L1015" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>8.537736462515939e-07</v>
       </c>
       <c r="M1015" t="n">
-        <v>41.73129519463491</v>
+        <v>41.7312314740661</v>
       </c>
       <c r="N1015" t="n">
         <v>66.19610472533577</v>
@@ -80631,25 +80631,25 @@
         <v>30</v>
       </c>
       <c r="P1015" t="n">
-        <v>2295.173742974203</v>
+        <v>2295.173742973149</v>
       </c>
       <c r="Q1015" t="n">
-        <v>911.350821637131</v>
+        <v>911.3508216371298</v>
       </c>
       <c r="R1015" t="n">
-        <v>-6559.430746360029</v>
+        <v>-6559.430746360399</v>
       </c>
       <c r="S1015" t="n">
-        <v>7.115769985935476</v>
+        <v>7.115769985935873</v>
       </c>
       <c r="T1015" t="n">
-        <v>-0.3320178709354411</v>
+        <v>-0.3320178709354401</v>
       </c>
       <c r="U1015" t="n">
-        <v>2.444743382944095</v>
+        <v>2.444743382942951</v>
       </c>
       <c r="V1015" t="n">
-        <v>7.531347061967708</v>
+        <v>7.53134706196771</v>
       </c>
       <c r="W1015" t="n">
         <v>-69.3527399542081</v>
@@ -80669,13 +80669,13 @@
         <v>18</v>
       </c>
       <c r="C1016" t="n">
-        <v>180.7420718129239</v>
+        <v>180.742071812909</v>
       </c>
       <c r="D1016" t="n">
-        <v>13.98254402200766</v>
+        <v>13.98254402199181</v>
       </c>
       <c r="E1016" t="n">
-        <v>1787.742729584073</v>
+        <v>1787.742729584999</v>
       </c>
       <c r="F1016" t="inlineStr">
         <is>
@@ -80683,10 +80683,10 @@
         </is>
       </c>
       <c r="G1016" t="n">
-        <v>101.1943325671523</v>
+        <v>101.1943325671478</v>
       </c>
       <c r="H1016" t="n">
-        <v>98.18403261051252</v>
+        <v>98.18403261050803</v>
       </c>
       <c r="I1016" t="n">
         <v>1e-30</v>
@@ -80695,13 +80695,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1016" t="n">
-        <v>183.6009110212542</v>
+        <v>183.6009110212588</v>
       </c>
       <c r="L1016" t="n">
         <v>1.207418269725733e-06</v>
       </c>
       <c r="M1016" t="n">
-        <v>42.47020910360953</v>
+        <v>42.47020938728159</v>
       </c>
       <c r="N1016" t="n">
         <v>66.19610472533577</v>
@@ -80710,25 +80710,25 @@
         <v>30</v>
       </c>
       <c r="P1016" t="n">
-        <v>2366.196551134915</v>
+        <v>2366.196551133839</v>
       </c>
       <c r="Q1016" t="n">
-        <v>907.9781964229674</v>
+        <v>907.9781964230197</v>
       </c>
       <c r="R1016" t="n">
-        <v>-6534.6051972936</v>
+        <v>-6534.605197293983</v>
       </c>
       <c r="S1016" t="n">
-        <v>7.088910795422895</v>
+        <v>7.088910795423308</v>
       </c>
       <c r="T1016" t="n">
-        <v>-0.3425013270387066</v>
+        <v>-0.3425013270385476</v>
       </c>
       <c r="U1016" t="n">
-        <v>2.520398039606118</v>
+        <v>2.52039803960497</v>
       </c>
       <c r="V1016" t="n">
-        <v>7.53142547613245</v>
+        <v>7.531425476132447</v>
       </c>
       <c r="W1016" t="n">
         <v>-68.78643437348289</v>
@@ -80748,13 +80748,13 @@
         <v>18</v>
       </c>
       <c r="C1017" t="n">
-        <v>181.8336739905739</v>
+        <v>181.8336739905603</v>
       </c>
       <c r="D1017" t="n">
-        <v>15.04852870715755</v>
+        <v>15.04852870714164</v>
       </c>
       <c r="E1017" t="n">
-        <v>1727.226520512392</v>
+        <v>1727.226520513269</v>
       </c>
       <c r="F1017" t="inlineStr">
         <is>
@@ -80762,10 +80762,10 @@
         </is>
       </c>
       <c r="G1017" t="n">
-        <v>101.4934470234924</v>
+        <v>101.493447023488</v>
       </c>
       <c r="H1017" t="n">
-        <v>98.48314706685255</v>
+        <v>98.48314706684815</v>
       </c>
       <c r="I1017" t="n">
         <v>1e-30</v>
@@ -80774,13 +80774,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1017" t="n">
-        <v>183.3017965649142</v>
+        <v>183.3017965649186</v>
       </c>
       <c r="L1017" t="n">
         <v>1.909095910416423e-06</v>
       </c>
       <c r="M1017" t="n">
-        <v>43.27413235186737</v>
+        <v>43.27408723456212</v>
       </c>
       <c r="N1017" t="n">
         <v>66.19610472533577</v>
@@ -80789,25 +80789,25 @@
         <v>30</v>
       </c>
       <c r="P1017" t="n">
-        <v>2436.946693988741</v>
+        <v>2436.946693987734</v>
       </c>
       <c r="Q1017" t="n">
-        <v>904.5009306383986</v>
+        <v>904.5009306383952</v>
       </c>
       <c r="R1017" t="n">
-        <v>-6509.024538477835</v>
+        <v>-6509.024538478212</v>
       </c>
       <c r="S1017" t="n">
-        <v>7.061233292440984</v>
+        <v>7.061233292441384</v>
       </c>
       <c r="T1017" t="n">
-        <v>-0.3529458479538277</v>
+        <v>-0.3529458479538333</v>
       </c>
       <c r="U1017" t="n">
-        <v>2.595765230117291</v>
+        <v>2.595765230116199</v>
       </c>
       <c r="V1017" t="n">
-        <v>7.531506058667858</v>
+        <v>7.531506058667857</v>
       </c>
       <c r="W1017" t="n">
         <v>-68.21766991451548</v>
@@ -80827,13 +80827,13 @@
         <v>18</v>
       </c>
       <c r="C1018" t="n">
-        <v>183.0192793410972</v>
+        <v>183.0192793410804</v>
       </c>
       <c r="D1018" t="n">
-        <v>16.15985448971981</v>
+        <v>16.1598544897033</v>
       </c>
       <c r="E1018" t="n">
-        <v>1667.610444093277</v>
+        <v>1667.610444094132</v>
       </c>
       <c r="F1018" t="inlineStr">
         <is>
@@ -80841,10 +80841,10 @@
         </is>
       </c>
       <c r="G1018" t="n">
-        <v>101.7985408493945</v>
+        <v>101.7985408493901</v>
       </c>
       <c r="H1018" t="n">
-        <v>98.7882408927547</v>
+        <v>98.78824089275027</v>
       </c>
       <c r="I1018" t="n">
         <v>1e-30</v>
@@ -80853,13 +80853,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1018" t="n">
-        <v>182.996702739012</v>
+        <v>182.9967027390165</v>
       </c>
       <c r="L1018" t="n">
         <v>1.909095910416423e-06</v>
       </c>
       <c r="M1018" t="n">
-        <v>44.14426358038404</v>
+        <v>44.14426676976397</v>
       </c>
       <c r="N1018" t="n">
         <v>66.19610472533577</v>
@@ -80868,25 +80868,25 @@
         <v>30</v>
       </c>
       <c r="P1018" t="n">
-        <v>2507.416005053944</v>
+        <v>2507.416005052928</v>
       </c>
       <c r="Q1018" t="n">
-        <v>900.9194213445284</v>
+        <v>900.9194213445804</v>
       </c>
       <c r="R1018" t="n">
-        <v>-6482.691686665167</v>
+        <v>-6482.69168666555</v>
       </c>
       <c r="S1018" t="n">
-        <v>7.032740546534973</v>
+        <v>7.032740546535392</v>
       </c>
       <c r="T1018" t="n">
-        <v>-0.3633502357119925</v>
+        <v>-0.3633502357118424</v>
       </c>
       <c r="U1018" t="n">
-        <v>2.670836317173345</v>
+        <v>2.670836317172263</v>
       </c>
       <c r="V1018" t="n">
-        <v>7.531588784698821</v>
+        <v>7.531588784698822</v>
       </c>
       <c r="W1018" t="n">
         <v>-67.64662851681229</v>
@@ -80906,13 +80906,13 @@
         <v>18</v>
       </c>
       <c r="C1019" t="n">
-        <v>184.3101465818281</v>
+        <v>184.3101465818106</v>
       </c>
       <c r="D1019" t="n">
-        <v>17.31901195953466</v>
+        <v>17.3190119595183</v>
       </c>
       <c r="E1019" t="n">
-        <v>1609.002117907694</v>
+        <v>1609.002117908499</v>
       </c>
       <c r="F1019" t="inlineStr">
         <is>
@@ -80920,10 +80920,10 @@
         </is>
       </c>
       <c r="G1019" t="n">
-        <v>102.1093006624837</v>
+        <v>102.1093006624794</v>
       </c>
       <c r="H1019" t="n">
-        <v>99.09900070584391</v>
+        <v>99.09900070583957</v>
       </c>
       <c r="I1019" t="n">
         <v>1e-30</v>
@@ -80932,13 +80932,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1019" t="n">
-        <v>182.6859429259228</v>
+        <v>182.6859429259272</v>
       </c>
       <c r="L1019" t="n">
         <v>2.561320938754782e-06</v>
       </c>
       <c r="M1019" t="n">
-        <v>46.27187820531034</v>
+        <v>46.2718729229087</v>
       </c>
       <c r="N1019" t="n">
         <v>66.19610472533577</v>
@@ -80947,25 +80947,25 @@
         <v>30</v>
       </c>
       <c r="P1019" t="n">
-        <v>2577.596349899696</v>
+        <v>2577.59634989873</v>
       </c>
       <c r="Q1019" t="n">
-        <v>897.2340758227009</v>
+        <v>897.2340758227522</v>
       </c>
       <c r="R1019" t="n">
-        <v>-6455.609644661095</v>
+        <v>-6455.609644661474</v>
       </c>
       <c r="S1019" t="n">
-        <v>7.003435718624077</v>
+        <v>7.003435718624487</v>
       </c>
       <c r="T1019" t="n">
-        <v>-0.3737133017644427</v>
+        <v>-0.3737133017643001</v>
       </c>
       <c r="U1019" t="n">
-        <v>2.74560269400284</v>
+        <v>2.745602694001811</v>
       </c>
       <c r="V1019" t="n">
-        <v>7.531673628758145</v>
+        <v>7.531673628758144</v>
       </c>
       <c r="W1019" t="n">
         <v>-67.07347458326092</v>
@@ -80985,13 +80985,13 @@
         <v>18</v>
       </c>
       <c r="C1020" t="n">
-        <v>185.7191516252572</v>
+        <v>185.7191516252371</v>
       </c>
       <c r="D1020" t="n">
-        <v>18.52824774925029</v>
+        <v>18.52824774923233</v>
       </c>
       <c r="E1020" t="n">
-        <v>1551.523194751506</v>
+        <v>1551.52319475233</v>
       </c>
       <c r="F1020" t="inlineStr">
         <is>
@@ -80999,10 +80999,10 @@
         </is>
       </c>
       <c r="G1020" t="n">
-        <v>102.4252675270789</v>
+        <v>102.4252675270743</v>
       </c>
       <c r="H1020" t="n">
-        <v>99.41496757043905</v>
+        <v>99.41496757043444</v>
       </c>
       <c r="I1020" t="n">
         <v>1e-30</v>
@@ -81011,13 +81011,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1020" t="n">
-        <v>182.3699760613277</v>
+        <v>182.3699760613323</v>
       </c>
       <c r="L1020" t="n">
         <v>3.1945284701302e-06</v>
       </c>
       <c r="M1020" t="n">
-        <v>47.14543929545709</v>
+        <v>47.14543594040359</v>
       </c>
       <c r="N1020" t="n">
         <v>66.19610472533577</v>
@@ -81026,25 +81026,25 @@
         <v>30</v>
       </c>
       <c r="P1020" t="n">
-        <v>2647.479627079315</v>
+        <v>2647.479627078308</v>
       </c>
       <c r="Q1020" t="n">
-        <v>893.4453112738236</v>
+        <v>893.4453112738788</v>
       </c>
       <c r="R1020" t="n">
-        <v>-6427.781500987871</v>
+        <v>-6427.781500988278</v>
       </c>
       <c r="S1020" t="n">
-        <v>6.97332206069506</v>
+        <v>6.973322060695499</v>
       </c>
       <c r="T1020" t="n">
-        <v>-0.3840338670234654</v>
+        <v>-0.3840338670233165</v>
       </c>
       <c r="U1020" t="n">
-        <v>2.820055785321446</v>
+        <v>2.820055785320371</v>
       </c>
       <c r="V1020" t="n">
-        <v>7.531760564803049</v>
+        <v>7.531760564803046</v>
       </c>
       <c r="W1020" t="n">
         <v>-66.49835696030885</v>
@@ -81064,13 +81064,13 @@
         <v>18</v>
       </c>
       <c r="C1021" t="n">
-        <v>187.2610140372803</v>
+        <v>187.2610140372619</v>
       </c>
       <c r="D1021" t="n">
-        <v>19.78937291762955</v>
+        <v>19.78937291761148</v>
       </c>
       <c r="E1021" t="n">
-        <v>1495.311236431462</v>
+        <v>1495.311236432241</v>
       </c>
       <c r="F1021" t="inlineStr">
         <is>
@@ -81078,10 +81078,10 @@
         </is>
       </c>
       <c r="G1021" t="n">
-        <v>102.7458010414827</v>
+        <v>102.7458010414781</v>
       </c>
       <c r="H1021" t="n">
-        <v>99.73550108484284</v>
+        <v>99.73550108483832</v>
       </c>
       <c r="I1021" t="n">
         <v>1e-30</v>
@@ -81090,13 +81090,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1021" t="n">
-        <v>182.0494425469239</v>
+        <v>182.0494425469284</v>
       </c>
       <c r="L1021" t="n">
         <v>3.622254809177202e-06</v>
       </c>
       <c r="M1021" t="n">
-        <v>48.115544214948</v>
+        <v>48.11551553137384</v>
       </c>
       <c r="N1021" t="n">
         <v>66.19610472533577</v>
@@ -81105,25 +81105,25 @@
         <v>30</v>
       </c>
       <c r="P1021" t="n">
-        <v>2717.057767114174</v>
+        <v>2717.057767113239</v>
       </c>
       <c r="Q1021" t="n">
-        <v>889.5535604988265</v>
+        <v>889.5535604988191</v>
       </c>
       <c r="R1021" t="n">
-        <v>-6399.210429531085</v>
+        <v>-6399.210429531482</v>
       </c>
       <c r="S1021" t="n">
-        <v>6.942402916346925</v>
+        <v>6.942402916347346</v>
       </c>
       <c r="T1021" t="n">
-        <v>-0.3943107467194621</v>
+        <v>-0.3943107467194764</v>
       </c>
       <c r="U1021" t="n">
-        <v>2.894187048284776</v>
+        <v>2.894187048283758</v>
       </c>
       <c r="V1021" t="n">
-        <v>7.531849566231398</v>
+        <v>7.531849566231395</v>
       </c>
       <c r="W1021" t="n">
         <v>-65.92141066677451</v>
@@ -81143,13 +81143,13 @@
         <v>18</v>
       </c>
       <c r="C1022" t="n">
-        <v>188.9525340860878</v>
+        <v>188.9525340860635</v>
       </c>
       <c r="D1022" t="n">
-        <v>21.10349827570331</v>
+        <v>21.1034982756838</v>
       </c>
       <c r="E1022" t="n">
-        <v>1440.521735550996</v>
+        <v>1440.521735551783</v>
       </c>
       <c r="F1022" t="inlineStr">
         <is>
@@ -81157,10 +81157,10 @@
         </is>
       </c>
       <c r="G1022" t="n">
-        <v>103.0700366657877</v>
+        <v>103.070036665783</v>
       </c>
       <c r="H1022" t="n">
-        <v>100.0597367091479</v>
+        <v>100.0597367091431</v>
       </c>
       <c r="I1022" t="n">
         <v>1e-30</v>
@@ -81169,13 +81169,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1022" t="n">
-        <v>181.7252069226189</v>
+        <v>181.7252069226236</v>
       </c>
       <c r="L1022" t="n">
         <v>4.517745487845105e-06</v>
       </c>
       <c r="M1022" t="n">
-        <v>49.97898543422827</v>
+        <v>49.97898098521203</v>
       </c>
       <c r="N1022" t="n">
         <v>66.19610472533577</v>
@@ -81184,25 +81184,25 @@
         <v>30</v>
       </c>
       <c r="P1022" t="n">
-        <v>2786.322735406046</v>
+        <v>2786.322735405047</v>
       </c>
       <c r="Q1022" t="n">
-        <v>885.5592662287257</v>
+        <v>885.5592662287838</v>
       </c>
       <c r="R1022" t="n">
-        <v>-6369.899689181593</v>
+        <v>-6369.899689182022</v>
       </c>
       <c r="S1022" t="n">
-        <v>6.910681719685069</v>
+        <v>6.910681719685534</v>
       </c>
       <c r="T1022" t="n">
-        <v>-0.404542765870233</v>
+        <v>-0.4045427658700853</v>
       </c>
       <c r="U1022" t="n">
-        <v>2.967987973450788</v>
+        <v>2.967987973449723</v>
       </c>
       <c r="V1022" t="n">
-        <v>7.531940605896719</v>
+        <v>7.531940605896718</v>
       </c>
       <c r="W1022" t="n">
         <v>-65.34275840604367</v>
@@ -81222,13 +81222,13 @@
         <v>18</v>
       </c>
       <c r="C1023" t="n">
-        <v>190.8128229541084</v>
+        <v>190.8128229540845</v>
       </c>
       <c r="D1023" t="n">
-        <v>22.47067576836685</v>
+        <v>22.47067576834614</v>
       </c>
       <c r="E1023" t="n">
-        <v>1387.330230264569</v>
+        <v>1387.330230265345</v>
       </c>
       <c r="F1023" t="inlineStr">
         <is>
@@ -81236,10 +81236,10 @@
         </is>
       </c>
       <c r="G1023" t="n">
-        <v>103.39683598235</v>
+        <v>103.3968359823451</v>
       </c>
       <c r="H1023" t="n">
-        <v>100.3865360257102</v>
+        <v>100.3865360257053</v>
       </c>
       <c r="I1023" t="n">
         <v>1e-30</v>
@@ -81248,13 +81248,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1023" t="n">
-        <v>181.3984076060566</v>
+        <v>181.3984076060615</v>
       </c>
       <c r="L1023" t="n">
         <v>5.331814711926513e-06</v>
       </c>
       <c r="M1023" t="n">
-        <v>51.0734643204506</v>
+        <v>51.07344054120271</v>
       </c>
       <c r="N1023" t="n">
         <v>66.19610472533577</v>
@@ -81263,25 +81263,25 @@
         <v>30</v>
       </c>
       <c r="P1023" t="n">
-        <v>2855.266533165836</v>
+        <v>2855.266533164862</v>
       </c>
       <c r="Q1023" t="n">
-        <v>881.4628808234925</v>
+        <v>881.4628808234878</v>
       </c>
       <c r="R1023" t="n">
-        <v>-6339.852623460309</v>
+        <v>-6339.852623460747</v>
       </c>
       <c r="S1023" t="n">
-        <v>6.878161994973874</v>
+        <v>6.878161994974341</v>
       </c>
       <c r="T1023" t="n">
-        <v>-0.4147287593007083</v>
+        <v>-0.4147287593007157</v>
       </c>
       <c r="U1023" t="n">
-        <v>3.041450085739233</v>
+        <v>3.041450085738174</v>
       </c>
       <c r="V1023" t="n">
-        <v>7.532033656120854</v>
+        <v>7.532033656120852</v>
       </c>
       <c r="W1023" t="n">
         <v>-64.76251189133436</v>
@@ -81301,13 +81301,13 @@
         <v>18</v>
       </c>
       <c r="C1024" t="n">
-        <v>192.8634958235687</v>
+        <v>192.8634958235389</v>
       </c>
       <c r="D1024" t="n">
-        <v>23.88942253202795</v>
+        <v>23.88942253200669</v>
       </c>
       <c r="E1024" t="n">
-        <v>1335.934415557493</v>
+        <v>1335.934415558235</v>
       </c>
       <c r="F1024" t="inlineStr">
         <is>
@@ -81315,10 +81315,10 @@
         </is>
       </c>
       <c r="G1024" t="n">
-        <v>103.7247302169052</v>
+        <v>103.7247302169004</v>
       </c>
       <c r="H1024" t="n">
-        <v>100.7144302602654</v>
+        <v>100.7144302602606</v>
       </c>
       <c r="I1024" t="n">
         <v>1e-30</v>
@@ -81327,13 +81327,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1024" t="n">
-        <v>181.0705133715013</v>
+        <v>181.0705133715061</v>
       </c>
       <c r="L1024" t="n">
         <v>6.502146373618268e-06</v>
       </c>
       <c r="M1024" t="n">
-        <v>52.30636238323957</v>
+        <v>52.30636135495384</v>
       </c>
       <c r="N1024" t="n">
         <v>66.19610472533577</v>
@@ -81342,25 +81342,25 @@
         <v>30</v>
       </c>
       <c r="P1024" t="n">
-        <v>2923.881197059403</v>
+        <v>2923.881197058407</v>
       </c>
       <c r="Q1024" t="n">
-        <v>877.2648702589776</v>
+        <v>877.2648702590393</v>
       </c>
       <c r="R1024" t="n">
-        <v>-6309.072660126991</v>
+        <v>-6309.072660127444</v>
       </c>
       <c r="S1024" t="n">
-        <v>6.844847356892671</v>
+        <v>6.844847356893159</v>
       </c>
       <c r="T1024" t="n">
-        <v>-0.4248675616746215</v>
+        <v>-0.424867561674474</v>
       </c>
       <c r="U1024" t="n">
-        <v>3.114564945389636</v>
+        <v>3.114564945388576</v>
       </c>
       <c r="V1024" t="n">
-        <v>7.532128688702409</v>
+        <v>7.532128688702406</v>
       </c>
       <c r="W1024" t="n">
         <v>-64.1807730093805</v>
@@ -81380,13 +81380,13 @@
         <v>18</v>
       </c>
       <c r="C1025" t="n">
-        <v>195.1287770320492</v>
+        <v>195.1287770320222</v>
       </c>
       <c r="D1025" t="n">
-        <v>25.35610436392894</v>
+        <v>25.35610436391104</v>
       </c>
       <c r="E1025" t="n">
-        <v>1286.556097870719</v>
+        <v>1286.5560978713</v>
       </c>
       <c r="F1025" t="inlineStr">
         <is>
@@ -81394,10 +81394,10 @@
         </is>
       </c>
       <c r="G1025" t="n">
-        <v>104.0518584264451</v>
+        <v>104.0518584264412</v>
       </c>
       <c r="H1025" t="n">
-        <v>101.0415584698053</v>
+        <v>101.0415584698014</v>
       </c>
       <c r="I1025" t="n">
         <v>1e-30</v>
@@ -81406,13 +81406,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1025" t="n">
-        <v>180.7433851619614</v>
+        <v>180.7433851619654</v>
       </c>
       <c r="L1025" t="n">
         <v>7.871404088081645e-06</v>
       </c>
       <c r="M1025" t="n">
-        <v>53.6932467242714</v>
+        <v>53.69324693221648</v>
       </c>
       <c r="N1025" t="n">
         <v>66.19610472533577</v>
@@ -81421,25 +81421,25 @@
         <v>30</v>
       </c>
       <c r="P1025" t="n">
-        <v>2992.158800154766</v>
+        <v>2992.158800153956</v>
       </c>
       <c r="Q1025" t="n">
-        <v>872.9657143279452</v>
+        <v>872.9657143279969</v>
       </c>
       <c r="R1025" t="n">
-        <v>-6277.563310781672</v>
+        <v>-6277.56331078205</v>
       </c>
       <c r="S1025" t="n">
-        <v>6.810741510229771</v>
+        <v>6.810741510230181</v>
       </c>
       <c r="T1025" t="n">
-        <v>-0.4349580077190414</v>
+        <v>-0.4349580077189215</v>
       </c>
       <c r="U1025" t="n">
-        <v>3.187324148915209</v>
+        <v>3.187324148914346</v>
       </c>
       <c r="V1025" t="n">
-        <v>7.532225674918661</v>
+        <v>7.53222567491866</v>
       </c>
       <c r="W1025" t="n">
         <v>-63.59763484425272</v>
@@ -81459,13 +81459,13 @@
         <v>18</v>
       </c>
       <c r="C1026" t="n">
-        <v>197.6354354854315</v>
+        <v>197.6354354853999</v>
       </c>
       <c r="D1026" t="n">
-        <v>26.86416111478247</v>
+        <v>26.86416111476301</v>
       </c>
       <c r="E1026" t="n">
-        <v>1239.442761685962</v>
+        <v>1239.442761686547</v>
       </c>
       <c r="F1026" t="inlineStr">
         <is>
@@ -81473,10 +81473,10 @@
         </is>
       </c>
       <c r="G1026" t="n">
-        <v>104.3759034665735</v>
+        <v>104.3759034665694</v>
       </c>
       <c r="H1026" t="n">
-        <v>101.3656035099337</v>
+        <v>101.3656035099296</v>
       </c>
       <c r="I1026" t="n">
         <v>1e-30</v>
@@ -81485,13 +81485,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1026" t="n">
-        <v>180.4193401218331</v>
+        <v>180.4193401218372</v>
       </c>
       <c r="L1026" t="n">
         <v>9.430238149809224e-06</v>
       </c>
       <c r="M1026" t="n">
-        <v>55.2528036592683</v>
+        <v>55.25280444396918</v>
       </c>
       <c r="N1026" t="n">
         <v>66.19610472533577</v>
@@ -81500,25 +81500,25 @@
         <v>30</v>
       </c>
       <c r="P1026" t="n">
-        <v>3060.09145476331</v>
+        <v>3060.09145476246</v>
       </c>
       <c r="Q1026" t="n">
-        <v>868.5659001064547</v>
+        <v>868.5659001065109</v>
       </c>
       <c r="R1026" t="n">
-        <v>-6245.328170460394</v>
+        <v>-6245.328170460803</v>
       </c>
       <c r="S1026" t="n">
-        <v>6.775848248582601</v>
+        <v>6.775848248583044</v>
       </c>
       <c r="T1026" t="n">
-        <v>-0.44499894724258</v>
+        <v>-0.4449989472424541</v>
       </c>
       <c r="U1026" t="n">
-        <v>3.259719330053966</v>
+        <v>3.259719330053059</v>
       </c>
       <c r="V1026" t="n">
-        <v>7.5323245855177</v>
+        <v>7.532324585517698</v>
       </c>
       <c r="W1026" t="n">
         <v>-63.01318257987159</v>
@@ -81538,13 +81538,13 @@
         <v>18</v>
       </c>
       <c r="C1027" t="n">
-        <v>200.4124244189477</v>
+        <v>200.4124244189107</v>
       </c>
       <c r="D1027" t="n">
-        <v>28.40317289745716</v>
+        <v>28.40317289743333</v>
       </c>
       <c r="E1027" t="n">
-        <v>1194.868411130856</v>
+        <v>1194.868411131517</v>
       </c>
       <c r="F1027" t="inlineStr">
         <is>
@@ -81552,10 +81552,10 @@
         </is>
       </c>
       <c r="G1027" t="n">
-        <v>104.6940313818065</v>
+        <v>104.6940313818017</v>
       </c>
       <c r="H1027" t="n">
-        <v>101.6837314251667</v>
+        <v>101.6837314251619</v>
       </c>
       <c r="I1027" t="n">
         <v>1e-30</v>
@@ -81564,13 +81564,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1027" t="n">
-        <v>180.1012122066001</v>
+        <v>180.1012122066049</v>
       </c>
       <c r="L1027" t="n">
         <v>1.148634965796832e-05</v>
       </c>
       <c r="M1027" t="n">
-        <v>57.41156973451021</v>
+        <v>57.41155699975183</v>
       </c>
       <c r="N1027" t="n">
         <v>66.19610472533577</v>
@@ -81579,25 +81579,25 @@
         <v>30</v>
       </c>
       <c r="P1027" t="n">
-        <v>3127.67131142071</v>
+        <v>3127.671311419754</v>
       </c>
       <c r="Q1027" t="n">
-        <v>864.0659282819693</v>
+        <v>864.0659282819641</v>
       </c>
       <c r="R1027" t="n">
-        <v>-6212.370917218125</v>
+        <v>-6212.370917218606</v>
       </c>
       <c r="S1027" t="n">
-        <v>6.740171454901177</v>
+        <v>6.740171454901693</v>
       </c>
       <c r="T1027" t="n">
-        <v>-0.4549892302022619</v>
+        <v>-0.4549892302022687</v>
       </c>
       <c r="U1027" t="n">
-        <v>3.331742160695075</v>
+        <v>3.331742160694037</v>
       </c>
       <c r="V1027" t="n">
-        <v>7.532425390697062</v>
+        <v>7.532425390697065</v>
       </c>
       <c r="W1027" t="n">
         <v>-62.42749429713308</v>
@@ -81617,13 +81617,13 @@
         <v>18</v>
       </c>
       <c r="C1028" t="n">
-        <v>203.4900468721457</v>
+        <v>203.4900468721004</v>
       </c>
       <c r="D1028" t="n">
-        <v>29.95779885629765</v>
+        <v>29.9577988562745</v>
       </c>
       <c r="E1028" t="n">
-        <v>1153.133247372408</v>
+        <v>1153.133247373006</v>
       </c>
       <c r="F1028" t="inlineStr">
         <is>
@@ -81631,10 +81631,10 @@
         </is>
       </c>
       <c r="G1028" t="n">
-        <v>105.0028430978718</v>
+        <v>105.0028430978673</v>
       </c>
       <c r="H1028" t="n">
-        <v>101.992543141232</v>
+        <v>101.9925431412275</v>
       </c>
       <c r="I1028" t="n">
         <v>1e-30</v>
@@ -81643,13 +81643,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1028" t="n">
-        <v>179.7924004905348</v>
+        <v>179.7924004905393</v>
       </c>
       <c r="L1028" t="n">
-        <v>1.387217978202819e-05</v>
+        <v>1.381953374853305e-05</v>
       </c>
       <c r="M1028" t="n">
-        <v>59.68596259285917</v>
+        <v>59.68596180961386</v>
       </c>
       <c r="N1028" t="n">
         <v>66.19610472533577</v>
@@ -81658,25 +81658,25 @@
         <v>30</v>
       </c>
       <c r="P1028" t="n">
-        <v>3194.890559783896</v>
+        <v>3194.890559782922</v>
       </c>
       <c r="Q1028" t="n">
-        <v>859.4663133468599</v>
+        <v>859.4663133469271</v>
       </c>
       <c r="R1028" t="n">
-        <v>-6178.695311715214</v>
+        <v>-6178.69531171571</v>
       </c>
       <c r="S1028" t="n">
-        <v>6.703715101128307</v>
+        <v>6.703715101128841</v>
       </c>
       <c r="T1028" t="n">
-        <v>-0.4649277068380052</v>
+        <v>-0.4649277068378613</v>
       </c>
       <c r="U1028" t="n">
-        <v>3.403384351786418</v>
+        <v>3.40338435178538</v>
       </c>
       <c r="V1028" t="n">
-        <v>7.532528060064962</v>
+        <v>7.532528060064959</v>
       </c>
       <c r="W1028" t="n">
         <v>-61.84064167932247</v>
@@ -81696,13 +81696,13 @@
         <v>18</v>
       </c>
       <c r="C1029" t="n">
-        <v>206.8984093640879</v>
+        <v>206.8984093640418</v>
       </c>
       <c r="D1029" t="n">
-        <v>31.50667801208437</v>
+        <v>31.50667801206021</v>
       </c>
       <c r="E1029" t="n">
-        <v>1114.561631986972</v>
+        <v>1114.561631987551</v>
       </c>
       <c r="F1029" t="inlineStr">
         <is>
@@ -81710,10 +81710,10 @@
         </is>
       </c>
       <c r="G1029" t="n">
-        <v>105.2983512037818</v>
+        <v>105.2983512037773</v>
       </c>
       <c r="H1029" t="n">
-        <v>102.288051247142</v>
+        <v>102.2880512471375</v>
       </c>
       <c r="I1029" t="n">
         <v>1e-30</v>
@@ -81722,13 +81722,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K1029" t="n">
-        <v>179.4968923846248</v>
+        <v>179.4968923846293</v>
       </c>
       <c r="L1029" t="n">
-        <v>1.655528523090722e-05</v>
+        <v>1.651119651020564e-05</v>
       </c>
       <c r="M1029" t="n">
-        <v>61.81711827682772</v>
+        <v>61.81710881735624</v>
       </c>
       <c r="N1029" t="n">
         <v>66.19610472533577</v>
@@ -81737,25 +81737,25 @@
         <v>30</v>
       </c>
       <c r="P1029" t="n">
-        <v>3261.74143198646</v>
+        <v>3261.741431985516</v>
       </c>
       <c r="Q1029" t="n">
-        <v>854.7675742291087</v>
+        <v>854.7675742291046</v>
       </c>
       <c r="R1029" t="n">
-        <v>-6144.305196817474</v>
+        <v>-6144.305196817975</v>
       </c>
       <c r="S1029" t="n">
-        <v>6.6664832464422</v>
+        <v>6.666483246442735</v>
       </c>
       <c r="T1029" t="n">
-        <v>-0.4748132471837598</v>
+        <v>-0.4748132471837651</v>
       </c>
       <c r="U1029" t="n">
-        <v>3.47463765421001</v>
+        <v>3.474637654208984</v>
       </c>
       <c r="V1029" t="n">
-        <v>7.532632562580612</v>
+        <v>7.532632562580613</v>
       </c>
       <c r="W1029" t="n">
         <v>-61.2526906375492</v>
